--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T06:46:04+00:00</t>
+    <t>2025-04-29T10:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T10:10:29+00:00</t>
+    <t>2025-04-29T10:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:16:28+00:00</t>
+    <t>2025-04-29T12:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="195">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:17:00+00:00</t>
+    <t>2025-04-29T16:12:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,10 +371,14 @@
     <t>DocumentEntry.author</t>
   </si>
   <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Author
+</t>
+  </si>
+  <si>
     <t>DocumentEntry.availabilityStatus</t>
   </si>
   <si>
-    <t>availability status of the document</t>
+    <t>Cette métadonnée représente la pertinence de la version de la fiche d’un document.</t>
   </si>
   <si>
     <t>**Availability Status**</t>
@@ -384,6 +388,12 @@
   </si>
   <si>
     <t>DocumentEntry.comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée contient le commentaire associé au document. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient le commentaire associé au document.</t>
   </si>
   <si>
     <t>DocumentEntry.confidentiality</t>
@@ -405,7 +415,10 @@
 </t>
   </si>
   <si>
-    <t>timestamp of creation of document</t>
+    <t xml:space="preserve">Cette métadonnée représente la date et l’heure de la création du document. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente la date et l’heure de la création du document.</t>
   </si>
   <si>
     <t>DocumentEntry.format</t>
@@ -433,7 +446,7 @@
     <t>DocumentEntry.hash</t>
   </si>
   <si>
-    <t>hash value</t>
+    <t>Cette métadonnée contient le résultat du hachage du document déposé</t>
   </si>
   <si>
     <t>DocumentEntry.practiceSetting</t>
@@ -534,10 +547,13 @@
     <t>SubmissionSet.author</t>
   </si>
   <si>
+    <t>Représente la personne physique ou morale et/ou le dispositif auteur d’un lot de soumission</t>
+  </si>
+  <si>
     <t>SubmissionSet.availabilityStatus</t>
   </si>
   <si>
-    <t>availability of the document</t>
+    <t xml:space="preserve">Cette métadonnée représente la pertinence de la version de la fiche d’un document. </t>
   </si>
   <si>
     <t>SubmissionSet.comments</t>
@@ -558,46 +574,43 @@
     <t>SubmissionSet.entryUUID</t>
   </si>
   <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>SubmissionSet.homeCommunityID</t>
-  </si>
-  <si>
-    <t>ID of home community</t>
-  </si>
-  <si>
-    <t>SubmissionSet.intendedRecipient</t>
-  </si>
-  <si>
-    <t>intendend recipients of the document</t>
-  </si>
-  <si>
-    <t>SubmissionSet.limitedMetadata</t>
-  </si>
-  <si>
-    <t>limited metadata</t>
+    <t>Identifiant unique du lot de soumission</t>
   </si>
   <si>
     <t>SubmissionSet.patientID</t>
   </si>
   <si>
+    <t>Représente l'identifiant du patient</t>
+  </si>
+  <si>
     <t>SubmissionSet.sourceID</t>
   </si>
   <si>
-    <t>identifier of source</t>
+    <t>Représente l’identifiant unique global du système émetteur du lot de soumission</t>
   </si>
   <si>
     <t>SubmissionSet.submissionTime</t>
   </si>
   <si>
-    <t>timestamp of submission</t>
+    <t>Représente la date et heure de soumission.</t>
   </si>
   <si>
     <t>SubmissionSet.title</t>
   </si>
   <si>
+    <t xml:space="preserve">Titre du lot de soumission </t>
+  </si>
+  <si>
+    <t>Titre du lot de soumission</t>
+  </si>
+  <si>
     <t>SubmissionSet.uniqueID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant unique global affecté à ce lot de soumission par son créateur. </t>
+  </si>
+  <si>
+    <t>Identifiant unique global affecté à ce lot de soumission par son créateur.</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45">
@@ -1086,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46">
@@ -1102,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1123,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49">
@@ -1164,7 +1177,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56">
@@ -1200,7 +1213,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61">
@@ -1234,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK47"/>
+  <dimension ref="A1:AK44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2637,10 +2650,10 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>73</v>
@@ -2652,7 +2665,7 @@
         <v>73</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>83</v>
@@ -2712,10 +2725,10 @@
         <v>115</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
@@ -2729,10 +2742,10 @@
         <v>96</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2758,10 +2771,10 @@
         <v>85</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -2792,7 +2805,7 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>73</v>
@@ -2810,7 +2823,7 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
@@ -2830,10 +2843,10 @@
         <v>96</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2859,10 +2872,10 @@
         <v>80</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -2913,7 +2926,7 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
@@ -2933,10 +2946,10 @@
         <v>96</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2962,10 +2975,10 @@
         <v>85</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -2996,25 +3009,25 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
@@ -3034,10 +3047,10 @@
         <v>96</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3060,13 +3073,13 @@
         <v>73</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -3117,7 +3130,7 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
@@ -3137,10 +3150,10 @@
         <v>96</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3166,10 +3179,10 @@
         <v>85</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -3200,7 +3213,7 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>73</v>
@@ -3218,7 +3231,7 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
@@ -3238,10 +3251,10 @@
         <v>96</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3264,13 +3277,13 @@
         <v>73</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -3321,7 +3334,7 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
@@ -3341,10 +3354,10 @@
         <v>96</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3352,7 +3365,7 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -3370,10 +3383,10 @@
         <v>80</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3424,10 +3437,10 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
@@ -3444,10 +3457,10 @@
         <v>96</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3473,10 +3486,10 @@
         <v>85</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -3507,7 +3520,7 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>73</v>
@@ -3525,7 +3538,7 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
@@ -3545,10 +3558,10 @@
         <v>96</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3574,10 +3587,10 @@
         <v>85</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3608,7 +3621,7 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>73</v>
@@ -3626,7 +3639,7 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -3646,10 +3659,10 @@
         <v>96</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3675,10 +3688,10 @@
         <v>103</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -3729,7 +3742,7 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -3749,10 +3762,10 @@
         <v>96</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3778,10 +3791,10 @@
         <v>80</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -3832,7 +3845,7 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -3852,10 +3865,10 @@
         <v>96</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3881,10 +3894,10 @@
         <v>85</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -3935,7 +3948,7 @@
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -3955,10 +3968,10 @@
         <v>96</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3984,10 +3997,10 @@
         <v>85</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -4038,7 +4051,7 @@
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -4058,10 +4071,10 @@
         <v>96</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4087,10 +4100,10 @@
         <v>103</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4141,7 +4154,7 @@
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
@@ -4161,10 +4174,10 @@
         <v>96</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4190,10 +4203,10 @@
         <v>80</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -4244,7 +4257,7 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -4264,10 +4277,10 @@
         <v>96</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4293,10 +4306,10 @@
         <v>103</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -4347,7 +4360,7 @@
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -4367,10 +4380,10 @@
         <v>96</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4396,10 +4409,10 @@
         <v>103</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -4450,7 +4463,7 @@
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -4470,10 +4483,10 @@
         <v>96</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4496,13 +4509,13 @@
         <v>73</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4553,7 +4566,7 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -4573,10 +4586,10 @@
         <v>96</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4599,13 +4612,13 @@
         <v>73</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -4656,7 +4669,7 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -4673,13 +4686,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4705,10 +4718,10 @@
         <v>76</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -4776,13 +4789,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4790,7 +4803,7 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -4808,10 +4821,10 @@
         <v>103</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -4862,10 +4875,10 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
@@ -4879,13 +4892,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4911,10 +4924,10 @@
         <v>85</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -4945,7 +4958,7 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB36" t="s" s="2">
         <v>73</v>
@@ -4963,7 +4976,7 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
@@ -4980,13 +4993,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5066,7 +5079,7 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
@@ -5083,13 +5096,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5115,10 +5128,10 @@
         <v>85</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -5149,7 +5162,7 @@
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>73</v>
@@ -5167,7 +5180,7 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -5184,13 +5197,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5216,10 +5229,10 @@
         <v>103</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -5270,7 +5283,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -5287,13 +5300,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5301,7 +5314,7 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -5319,10 +5332,10 @@
         <v>103</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -5373,10 +5386,10 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -5390,13 +5403,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5404,10 +5417,10 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>73</v>
@@ -5422,10 +5435,10 @@
         <v>103</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -5476,13 +5489,13 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
@@ -5493,13 +5506,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5507,7 +5520,7 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -5522,13 +5535,13 @@
         <v>73</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -5579,10 +5592,10 @@
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
@@ -5596,13 +5609,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5610,7 +5623,7 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -5625,13 +5638,13 @@
         <v>73</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -5682,10 +5695,10 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
@@ -5699,13 +5712,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5731,10 +5744,10 @@
         <v>103</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -5785,7 +5798,7 @@
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -5797,315 +5810,6 @@
         <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R45" s="2"/>
-      <c r="S45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R46" s="2"/>
-      <c r="S46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R47" s="2"/>
-      <c r="S47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK47" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T16:12:43+00:00</t>
+    <t>2025-04-30T07:00:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T07:00:53+00:00</t>
+    <t>2025-04-30T07:06:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="232">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T07:06:28+00:00</t>
+    <t>2025-04-30T13:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,9 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This Logical Mode describes the relevant attributes on the **Author** class within IHE ITI XDS.
-More details are to be retrieved from IHE ITI on www.ihe.net.
-(Focus for this LM is on the coded attributes.)</t>
+    <t>Model logique d'un auteur</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -317,217 +315,290 @@
     <t>Document Entry (LM)</t>
   </si>
   <si>
-    <t>This Logical Mode describes the relevant attributes on the **Document Entry** class within IHE ITI XDS.
-More details are to be retrieved from IHE ITI on www.ihe.net.
-(Focus for this LM is on the coded attributes.)</t>
-  </si>
-  <si>
-    <t>DocumentEntry.title</t>
-  </si>
-  <si>
-    <t>title of document</t>
-  </si>
-  <si>
-    <t>DocumentEntry.uniqueId</t>
+    <t>Model logique d'un document</t>
+  </si>
+  <si>
+    <t>DocumentEntry.entryUUID</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>identifier of document</t>
-  </si>
-  <si>
-    <t>DocumentEntry.uri</t>
-  </si>
-  <si>
-    <t>URI of document</t>
-  </si>
-  <si>
-    <t>DocumentEntry.class</t>
-  </si>
-  <si>
-    <t>class Code of the document</t>
-  </si>
-  <si>
-    <t>**Class Code**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J57-ClassCode-DMP/FHIR/JDV-J57-ClassCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.type</t>
-  </si>
-  <si>
-    <t>type Code</t>
-  </si>
-  <si>
-    <t>**Type Code**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J66-TypeCode-DMP/FHIR/JDV-J66-TypeCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Author
+    <t>Identifiant unique du document</t>
+  </si>
+  <si>
+    <t>DocumentEntry.logicalId</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente un identifiant invariable pour toutes les versions de la fiche d'un document, à la différence de la métadonnée entryUUID qui a une valeur différente pour chaque version de la fiche</t>
+  </si>
+  <si>
+    <t>DocumentEntry.mimeType</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente le type de contenu du document, défini par le standard MIME.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.availabilityStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente la pertinence de la version de la fiche d'un document. </t>
+  </si>
+  <si>
+    <t>**Availability Status**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J52-AvailabilityStatus-CISIS/FHIR/JDV-J52-AvailabilityStatus-CISIS</t>
+  </si>
+  <si>
+    <t>DocumentEntry.hash</t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient le résultat du hachage du document déposé</t>
+  </si>
+  <si>
+    <t>DocumentEntry.size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
 </t>
   </si>
   <si>
-    <t>DocumentEntry.availabilityStatus</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente la pertinence de la version de la fiche d’un document.</t>
-  </si>
-  <si>
-    <t>**Availability Status**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J52-AvailabilityStatus-CISIS/FHIR/JDV-J52-AvailabilityStatus-CISIS</t>
-  </si>
-  <si>
-    <t>DocumentEntry.comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette métadonnée contient le commentaire associé au document. </t>
-  </si>
-  <si>
-    <t>Cette métadonnée contient le commentaire associé au document.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.confidentiality</t>
-  </si>
-  <si>
-    <t>confidentiality Code</t>
-  </si>
-  <si>
-    <t>**Confidentiality Code**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J58-ConfidentialityCode-DMP/FHIR/JDV-J58-ConfidentialityCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.creationTime</t>
+    <t xml:space="preserve">Cette métadonnée correspond à la taille du document déposé. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée correspond à la taille du document déposé.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.languageCode</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente le code de la langue dans laquelle le document est rédigé.</t>
+  </si>
+  <si>
+    <t>Pour tous les documents produits système initiateur français : 'fr-FR'</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l'acteur prenant la responsabilité du contenu médical du document</t>
+  </si>
+  <si>
+    <t>XCN</t>
+  </si>
+  <si>
+    <t>DocumentEntry.repositoryUniqueId</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l'identifiant unique global de l'entrepôt de documents dans lequel est stocké le document</t>
+  </si>
+  <si>
+    <t>DocumentEntry.serviceStartTime</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
+    <t>Cette métadonnée représente la date de début de l'acte de référence.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.serviceEndTime</t>
+  </si>
+  <si>
+    <t>Cette métadonnée correspond à la date de fin de l'acte de référence, si connue.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientID</t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient l'identifiant secondaire du patient dans le système d'information du producteur (IPP) ou l'INS, s'il n'y a pas d'identifiant secondaire.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée contient les traits d'identité du patient concerné par le document, connus par le producteur du document. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient les traits d'identité du patient concerné par le document, connus par le producteur du document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.URI</t>
+  </si>
+  <si>
+    <t>Cette métadonnée n'est exploitée que par la transaction XDM 'Distribute document set on media ITI-32'</t>
+  </si>
+  <si>
+    <t>DocumentEntry.title</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente le titre du document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée contient le commentaire associé au document. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient le commentaire associé au document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.patientID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.uniqueId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant unique affecté au document par son créateur. </t>
+  </si>
+  <si>
+    <t>Identifiant unique affecté au document par son créateur.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class représente la classe du document </t>
+  </si>
+  <si>
+    <t>**Class Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J57-ClassCode-DMP/FHIR/JDV-J57-ClassCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.confidentiality</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Métadonnée contenant les informations définissant le niveau de confidentialité d'un document déposé dans l'entrepôt. Dans le cadre de la mise en œuvre du masquage et de la non-visibilité, ces métadonnées sont utilisées pour rendre inaccessible un document à l'utilisateur</t>
+  </si>
+  <si>
+    <t>**Confidentiality Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J58-ConfidentialityCode-DMP/FHIR/JDV-J58-ConfidentialityCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.eventCodeList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/EventCode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée contient les codes, libellés et codes système représentant :  • un évènement documenté (acte, traitement, diagnostic, etc…), • une modalité d'acquisition (contexte imagerie), • une région anatomique (contexte imagerie). </t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient les codes, libellés et codes système représentant :  • un évènement documenté (acte, traitement, diagnostic, etc…), • une modalité d'acquisition (contexte imagerie), • une région anatomique (contexte imagerie).</t>
+  </si>
+  <si>
+    <t>DocumentEntry.format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Métadonnée contenant les informations définissant le format du document. </t>
+  </si>
+  <si>
+    <t>**Format Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J60-FormatCode-DMP/FHIR/JDV-J60-FormatCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.healthcareFacilityTypeCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secteur d'activité lié à la prise en charge de la personne, en lien avec le document produit. </t>
+  </si>
+  <si>
+    <t>Healthcare Facility Type Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J61-HealthcareFacilityTypeCode-DMP/FHIR/JDV-J61-HealthcareFacilityTypeCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.practiceSetting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contexte de l’acte qui a engendré la création du document. </t>
+  </si>
+  <si>
+    <t>**Practice Setting**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J62-PracticeSettingCode-DMP/FHIR/JDV-J62-PracticeSettingCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.type</t>
+  </si>
+  <si>
+    <t>Métadonnée représentant le type du document.</t>
+  </si>
+  <si>
+    <t>**Type Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J66-TypeCode-DMP/FHIR/JDV-J66-TypeCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.documentAvailability</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente '’accessibilité du document en indiquant si celui-ci est accessible en ligne ou non</t>
+  </si>
+  <si>
+    <t>DocumentEntry.homeCommunityId</t>
+  </si>
+  <si>
+    <t>Cette métadonnée correspond à l'identifiant de la communauté représentée par le système cible, si celui-ci offre les fonctionnalités de communication avec d'autres communautés, présentées dans le profil XCA d'IHE. Elle n'est pas utilisée par les transactions décrites dans ce volet.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.creationTime</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cette métadonnée représente la date et l’heure de la création du document. </t>
   </si>
   <si>
     <t>Cette métadonnée représente la date et l’heure de la création du document.</t>
   </si>
   <si>
-    <t>DocumentEntry.format</t>
-  </si>
-  <si>
-    <t>format of the document</t>
-  </si>
-  <si>
-    <t>**Format Code**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J60-FormatCode-DMP/FHIR/JDV-J60-FormatCode-DMP(required)</t>
-  </si>
-  <si>
-    <t>DocumentEntry.size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>size of document</t>
-  </si>
-  <si>
-    <t>DocumentEntry.hash</t>
-  </si>
-  <si>
-    <t>Cette métadonnée contient le résultat du hachage du document déposé</t>
-  </si>
-  <si>
-    <t>DocumentEntry.practiceSetting</t>
-  </si>
-  <si>
-    <t>practice setting</t>
-  </si>
-  <si>
-    <t>**Practice Setting**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J62-PracticeSettingCode-DMP/FHIR/JDV-J62-PracticeSettingCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.healthcareFacilityTypeCode</t>
-  </si>
-  <si>
-    <t>healthcare facility type code</t>
-  </si>
-  <si>
-    <t>Healthcare Facility Type Code**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J61-HealthcareFacilityTypeCode-DMP/FHIR/JDV-J61-HealthcareFacilityTypeCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>legal authenticator of the document</t>
-  </si>
-  <si>
-    <t>DocumentEntry.limitedMetadata</t>
-  </si>
-  <si>
-    <t>metadata</t>
-  </si>
-  <si>
-    <t>DocumentEntry.mimeType</t>
-  </si>
-  <si>
-    <t>mime type</t>
-  </si>
-  <si>
-    <t>DocumentEntry.objectType</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientID</t>
-  </si>
-  <si>
-    <t>identifier of patient</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo</t>
-  </si>
-  <si>
-    <t>additional information to patient</t>
-  </si>
-  <si>
     <t>DocumentEntry.referenceIdList</t>
   </si>
   <si>
-    <t>list of reference identifiers</t>
-  </si>
-  <si>
-    <t>DocumentEntry.repositoryUniqueID</t>
-  </si>
-  <si>
-    <t>identifier of repository</t>
-  </si>
-  <si>
-    <t>DocumentEntry.serviceStartTime</t>
-  </si>
-  <si>
-    <t>start of service</t>
-  </si>
-  <si>
-    <t>DocumentEntry.serviceEndTime</t>
-  </si>
-  <si>
-    <t>end of service</t>
+    <t>Cette métadonnée contient une liste d'un ou plusieurs identifiant(s) d'objet(s) associé(s) au document.</t>
+  </si>
+  <si>
+    <t>EventCode</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/EventCode</t>
+  </si>
+  <si>
+    <t>EventCode (LM)</t>
+  </si>
+  <si>
+    <t>Model logique d'un eventCode</t>
+  </si>
+  <si>
+    <t>EventCode.eventCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut peut contenir le code représentant : • un évènement documenté (acte, traitement, diagnostic, etc…),  • une modalité d'acquisition, • une région anatomique. </t>
+  </si>
+  <si>
+    <t>Cet attribut peut contenir le code représentant : • un évènement documenté (acte, traitement, diagnostic, etc…),  • une modalité d'acquisition, • une région anatomique.</t>
   </si>
   <si>
     <t>SubmissionSet</t>
@@ -539,9 +610,88 @@
     <t>SubmissionSet (LM)</t>
   </si>
   <si>
-    <t>This Logical Mode describes the relevant attributes on the **Submission Set** class within IHE ITI XDS.
-More details are to be retrieved from IHE ITI on www.ihe.net.
-(Focus for this LM is on the coded attributes.)</t>
+    <t>Model logique d'un lot de soummission</t>
+  </si>
+  <si>
+    <t>SubmissionSet.entryUUID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant unique du lot de soumission. Cet attribut est destiné à des fins de gestion interne alors que uniqueId est utilisé à des fins de référence externe. </t>
+  </si>
+  <si>
+    <t>Identifiant unique du lot de soumission. Cet attribut est destiné à des fins de gestion interne alors que uniqueId est utilisé à des fins de référence externe.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.availabilityStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente la pertinence d'un lot de soumission. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente la pertinence d'un lot de soumission.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.submissionTime</t>
+  </si>
+  <si>
+    <t>Représente la date et heure de soumission.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titre du lot de soumission </t>
+  </si>
+  <si>
+    <t>Titre du lot de soumission</t>
+  </si>
+  <si>
+    <t>SubmissionSet.comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée contient le commentaire associé au lot de soumission. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient le commentaire associé au lot de soumission.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.patientID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient tel que défini dans le cadre juridique. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient tel que défini dans le cadre juridique.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.sourceID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente l’identifiant unique global du système émetteur du lot de soumission. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l’identifiant unique global du système émetteur du lot de soumission.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.uniqueID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant unique global affecté à ce lot de soumission par son créateur. Cet attribut est utilisé à des fins de référence externe alors que entryUUID est destiné à des fins de gestion interne.  </t>
+  </si>
+  <si>
+    <t>Identifiant unique global affecté à ce lot de soumission par son créateur. Cet attribut est utilisé à des fins de référence externe alors que entryUUID est destiné à des fins de gestion interne.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.contentTypeCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensemble de métadonnées représentant le type d’activité associé à l’événement clinique ayant abouti à la constitution du lot de soumission. </t>
+  </si>
+  <si>
+    <t>**Submission Set**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J59-ContentTypeCode-DMP/FHIR/JDV-J59-ContentTypeCode-DMP</t>
   </si>
   <si>
     <t>SubmissionSet.author</t>
@@ -550,67 +700,22 @@
     <t>Représente la personne physique ou morale et/ou le dispositif auteur d’un lot de soumission</t>
   </si>
   <si>
-    <t>SubmissionSet.availabilityStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette métadonnée représente la pertinence de la version de la fiche d’un document. </t>
-  </si>
-  <si>
-    <t>SubmissionSet.comments</t>
-  </si>
-  <si>
-    <t>SubmissionSet.contentTypeCode</t>
-  </si>
-  <si>
-    <t>type of content of this submission</t>
-  </si>
-  <si>
-    <t>**Submission Set**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J59-ContentTypeCode-DMP/FHIR/JDV-J59-ContentTypeCode-DMP</t>
-  </si>
-  <si>
-    <t>SubmissionSet.entryUUID</t>
-  </si>
-  <si>
-    <t>Identifiant unique du lot de soumission</t>
-  </si>
-  <si>
-    <t>SubmissionSet.patientID</t>
-  </si>
-  <si>
-    <t>Représente l'identifiant du patient</t>
-  </si>
-  <si>
-    <t>SubmissionSet.sourceID</t>
-  </si>
-  <si>
-    <t>Représente l’identifiant unique global du système émetteur du lot de soumission</t>
-  </si>
-  <si>
-    <t>SubmissionSet.submissionTime</t>
-  </si>
-  <si>
-    <t>Représente la date et heure de soumission.</t>
-  </si>
-  <si>
-    <t>SubmissionSet.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titre du lot de soumission </t>
-  </si>
-  <si>
-    <t>Titre du lot de soumission</t>
-  </si>
-  <si>
-    <t>SubmissionSet.uniqueID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant unique global affecté à ce lot de soumission par son créateur. </t>
-  </si>
-  <si>
-    <t>Identifiant unique global affecté à ce lot de soumission par son créateur.</t>
+    <t>SubmissionSet.homeCommunityID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée correspond à l’identifiant de la communauté représentée par le système cible si celui-ci offre des fonctionnalités de communication avec d’autres communautés telles que présentées dans le profil XCA d’IHE. Elle n’est pas utilisée par les transactions décrites dans ce volet. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée correspond à l’identifiant de la communauté représentée par le système cible si celui-ci offre des fonctionnalités de communication avec d’autres communautés telles que présentées dans le profil XCA d’IHE. Elle n’est pas utilisée par les transactions décrites dans ce volet.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.intendedRecipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente les destinataires (structure ou professionnel) auxquels lot de soumission est destiné. Elle n’est pas utilisée par les transactions décrites dans ce volet. </t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente les destinataires (structure ou professionnel) auxquels lot de soumission est destiné. Elle n’est pas utilisée par les transactions décrites dans ce volet.</t>
   </si>
 </sst>
 </file>
@@ -744,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1091,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45">
@@ -1099,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46">
@@ -1115,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48">
@@ -1123,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49">
@@ -1177,7 +1282,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56">
@@ -1213,7 +1318,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61">
@@ -1237,6 +1342,168 @@
         <v>35</v>
       </c>
       <c r="B63" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B84" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -1247,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK44"/>
+  <dimension ref="A1:AK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1835,7 +2102,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>73</v>
@@ -1908,7 +2175,7 @@
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
@@ -2154,13 +2421,13 @@
         <v>73</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2231,10 +2498,10 @@
         <v>96</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2257,7 +2524,7 @@
         <v>73</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>104</v>
@@ -2314,7 +2581,7 @@
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>79</v>
@@ -2360,7 +2627,7 @@
         <v>73</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>106</v>
@@ -2564,13 +2831,13 @@
         <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>112</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2597,11 +2864,13 @@
         <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z13" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA13" t="s" s="2">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
         <v>73</v>
@@ -2639,10 +2908,10 @@
         <v>96</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2653,7 +2922,7 @@
         <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>73</v>
@@ -2665,13 +2934,13 @@
         <v>73</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -2722,13 +2991,13 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
@@ -2753,7 +3022,7 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -2768,7 +3037,7 @@
         <v>73</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>118</v>
@@ -2801,11 +3070,13 @@
         <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z15" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA15" t="s" s="2">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>73</v>
@@ -2826,7 +3097,7 @@
         <v>117</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
@@ -2843,10 +3114,10 @@
         <v>96</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2869,13 +3140,13 @@
         <v>73</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="M16" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -2926,7 +3197,7 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
@@ -2946,10 +3217,10 @@
         <v>96</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2972,13 +3243,13 @@
         <v>73</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3005,11 +3276,13 @@
         <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z17" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA17" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
         <v>73</v>
@@ -3027,7 +3300,7 @@
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
@@ -3047,10 +3320,10 @@
         <v>96</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3073,13 +3346,13 @@
         <v>73</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -3130,7 +3403,7 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
@@ -3150,10 +3423,10 @@
         <v>96</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3161,7 +3434,7 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3176,13 +3449,13 @@
         <v>73</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -3209,11 +3482,13 @@
         <v>73</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z19" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA19" t="s" s="2">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>73</v>
@@ -3231,10 +3506,10 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
@@ -3251,10 +3526,10 @@
         <v>96</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3262,7 +3537,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -3277,13 +3552,13 @@
         <v>73</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -3334,10 +3609,10 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
@@ -3354,10 +3629,10 @@
         <v>96</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3383,10 +3658,10 @@
         <v>80</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3437,7 +3712,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -3457,10 +3732,10 @@
         <v>96</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3468,7 +3743,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -3483,13 +3758,13 @@
         <v>73</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -3516,11 +3791,13 @@
         <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z22" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA22" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>73</v>
@@ -3538,10 +3815,10 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
@@ -3558,10 +3835,10 @@
         <v>96</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3584,13 +3861,13 @@
         <v>73</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3617,11 +3894,13 @@
         <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z23" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA23" t="s" s="2">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>73</v>
@@ -3639,7 +3918,7 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -3659,10 +3938,10 @@
         <v>96</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3685,13 +3964,13 @@
         <v>73</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -3742,7 +4021,7 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -3762,10 +4041,10 @@
         <v>96</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3773,7 +4052,7 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -3788,13 +4067,13 @@
         <v>73</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -3845,10 +4124,10 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
@@ -3865,10 +4144,10 @@
         <v>96</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3891,13 +4170,13 @@
         <v>73</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -3948,7 +4227,7 @@
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -3968,10 +4247,10 @@
         <v>96</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3997,10 +4276,10 @@
         <v>85</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -4027,13 +4306,11 @@
         <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="Z27" s="2"/>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>73</v>
@@ -4051,7 +4328,7 @@
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -4071,10 +4348,10 @@
         <v>96</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4085,7 +4362,7 @@
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>73</v>
@@ -4097,13 +4374,13 @@
         <v>73</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4130,13 +4407,11 @@
         <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="Z28" s="2"/>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>73</v>
@@ -4154,13 +4429,13 @@
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -4174,10 +4449,10 @@
         <v>96</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4188,7 +4463,7 @@
         <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>73</v>
@@ -4200,13 +4475,13 @@
         <v>73</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>159</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -4257,13 +4532,13 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4277,10 +4552,10 @@
         <v>96</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4288,10 +4563,10 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>73</v>
@@ -4303,13 +4578,13 @@
         <v>73</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -4336,13 +4611,11 @@
         <v>73</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="Z30" s="2"/>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>73</v>
@@ -4360,13 +4633,13 @@
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4380,10 +4653,10 @@
         <v>96</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4391,7 +4664,7 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -4406,13 +4679,13 @@
         <v>73</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -4439,13 +4712,11 @@
         <v>73</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="Z31" s="2"/>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AB31" t="s" s="2">
         <v>73</v>
@@ -4463,10 +4734,10 @@
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
@@ -4483,10 +4754,10 @@
         <v>96</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4494,7 +4765,7 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -4509,13 +4780,13 @@
         <v>73</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4542,13 +4813,11 @@
         <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="Z32" s="2"/>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AB32" t="s" s="2">
         <v>73</v>
@@ -4566,10 +4835,10 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
@@ -4586,10 +4855,10 @@
         <v>96</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4612,13 +4881,13 @@
         <v>73</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -4645,13 +4914,11 @@
         <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="Z33" s="2"/>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="AB33" t="s" s="2">
         <v>73</v>
@@ -4669,7 +4936,7 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -4686,13 +4953,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4703,7 +4970,7 @@
         <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>73</v>
@@ -4715,13 +4982,13 @@
         <v>73</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -4772,13 +5039,13 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>73</v>
@@ -4789,13 +5056,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4803,7 +5070,7 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -4818,13 +5085,13 @@
         <v>73</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -4875,10 +5142,10 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
@@ -4892,13 +5159,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4906,7 +5173,7 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -4921,13 +5188,13 @@
         <v>73</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -4954,11 +5221,13 @@
         <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z36" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA36" t="s" s="2">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
         <v>73</v>
@@ -4976,10 +5245,10 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
@@ -4993,13 +5262,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5010,7 +5279,7 @@
         <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>73</v>
@@ -5022,13 +5291,13 @@
         <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -5079,13 +5348,13 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5096,13 +5365,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5110,10 +5379,10 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>73</v>
@@ -5125,13 +5394,13 @@
         <v>73</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -5158,11 +5427,13 @@
         <v>73</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z38" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA38" t="s" s="2">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>73</v>
@@ -5180,13 +5451,13 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -5197,13 +5468,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5226,13 +5497,13 @@
         <v>73</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -5283,7 +5554,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -5300,13 +5571,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5314,10 +5585,10 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>73</v>
@@ -5329,13 +5600,13 @@
         <v>73</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -5386,13 +5657,13 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -5403,13 +5674,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5432,13 +5703,13 @@
         <v>73</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -5489,7 +5760,7 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -5506,13 +5777,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5520,7 +5791,7 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -5535,13 +5806,13 @@
         <v>73</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -5568,13 +5839,11 @@
         <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="Z42" s="2"/>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AB42" t="s" s="2">
         <v>73</v>
@@ -5592,10 +5861,10 @@
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
@@ -5609,13 +5878,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5623,7 +5892,7 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -5638,13 +5907,13 @@
         <v>73</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -5695,10 +5964,10 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
@@ -5712,13 +5981,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5726,7 +5995,7 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -5741,13 +6010,13 @@
         <v>73</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -5798,10 +6067,10 @@
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -5810,6 +6079,828 @@
         <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R45" s="2"/>
+      <c r="S45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="Z49" s="2"/>
+      <c r="AA49" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T13:43:05+00:00</t>
+    <t>2025-04-30T14:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T14:55:26+00:00</t>
+    <t>2025-04-30T15:08:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:08:51+00:00</t>
+    <t>2025-04-30T15:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:42:49+00:00</t>
+    <t>2025-04-30T15:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:49:42+00:00</t>
+    <t>2025-04-30T16:02:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:02:39+00:00</t>
+    <t>2025-05-01T10:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3697" uniqueCount="334">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-01T10:35:31+00:00</t>
+    <t>2025-05-01T16:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Model logique d'un auteur</t>
+    <t xml:space="preserve">Modèle logique d'un auteur.
+Représente les personnes physiques et/ou les systèmes (dispositifs, automates, services numériques référencés…) auteurs d’un document ou d'un lot de soummission. 
+L’auteur peut être : 
+- Un professionnel (personne physique) via son logiciel de professionnel, 
+- Le patient/usager (personne physique) via Mon espace Santé, 
+- Un système de structure (dispositif, automate, appareil connecté…), 
+- Un SNR (Service Numérique Référencé), </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -256,17 +262,170 @@
     <t>1</t>
   </si>
   <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Cet attribut représente la structure de l’auteur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Author.institution.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>institution of author</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Author.institution.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Author.institution.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Author.institution.XON1</t>
+  </si>
+  <si>
+    <t>Nom de la structure</t>
+  </si>
+  <si>
+    <t>Author.institution.XON6</t>
+  </si>
+  <si>
+    <t>Autorité d’affectation</t>
+  </si>
+  <si>
+    <t>Author.institution.XON7</t>
+  </si>
+  <si>
+    <t>Type d’identifiant</t>
+  </si>
+  <si>
+    <t>Author.institution.XON10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {elementdefinition-identifier}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifiant de la structure (Struct_IdNat)</t>
   </si>
   <si>
     <t>Author.person</t>
   </si>
   <si>
     <t>author</t>
+  </si>
+  <si>
+    <t>Author.person.id</t>
+  </si>
+  <si>
+    <t>Author.person.extension</t>
+  </si>
+  <si>
+    <t>Author.person.modifierExtension</t>
+  </si>
+  <si>
+    <t>Author.person.XCN1</t>
+  </si>
+  <si>
+    <t>Identifiant (PS_IdNat)</t>
+  </si>
+  <si>
+    <t>Author.person.XCN2</t>
+  </si>
+  <si>
+    <t>Nom d'exercice du professionnel, nom du patient, nom du système.</t>
+  </si>
+  <si>
+    <t>Author.person.XCN3</t>
+  </si>
+  <si>
+    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
+  </si>
+  <si>
+    <t>Author.person.XCN9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autorité d’affectation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autorité d’affectation</t>
+  </si>
+  <si>
+    <t>Author.person.XCN10</t>
+  </si>
+  <si>
+    <t>Type de nom : Valeur en fonction de l’auteur : • D, pour les personnes physiques, • U, pour les systèmes.</t>
+  </si>
+  <si>
+    <t>Author.person.XCN13</t>
   </si>
   <si>
     <t>Author.role</t>
@@ -276,7 +435,7 @@
 </t>
   </si>
   <si>
-    <t>role of the author of this document</t>
+    <t xml:space="preserve">Cet attribut représente le rôle fonctionnel joué par l’auteur vis-à-vis du patient/usager lors de la création du document, c'est-à-dire à quel titre l’auteur est intervenu vis-à-vis du patient (ex : médecin traitant, Responsable de l'admission, Membre de l'équipe de soins, etc.). </t>
   </si>
   <si>
     <t>**Author Role**</t>
@@ -291,7 +450,7 @@
     <t>Author.specialty</t>
   </si>
   <si>
-    <t>specialty of the author for this document</t>
+    <t xml:space="preserve">Cet attribut représente la profession éventuellement associée au savoir-faire de l’auteur professionnel caractérisé par sa profession ou la profession associée au genre d’activité pour l’auteur professionnel caractérisé par son rôle. </t>
   </si>
   <si>
     <t>**AutorSpecialty**</t>
@@ -300,12 +459,6 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J56-AuthorSpecialty-DMP/FHIR/JDV-J56-AuthorSpecialty-DMP</t>
   </si>
   <si>
-    <t>Author.telecommunication</t>
-  </si>
-  <si>
-    <t>contact information</t>
-  </si>
-  <si>
     <t>DocumentEntry</t>
   </si>
   <si>
@@ -315,22 +468,26 @@
     <t>Document Entry (LM)</t>
   </si>
   <si>
-    <t>Model logique d'un document</t>
+    <t>Model logique  d’une fiche</t>
   </si>
   <si>
     <t>DocumentEntry.entryUUID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uuid
+</t>
+  </si>
+  <si>
+    <t>Identifiant unique affecté à la version de la fiche référençant le document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.logicalId</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Identifiant unique du document</t>
-  </si>
-  <si>
-    <t>DocumentEntry.logicalId</t>
-  </si>
-  <si>
     <t>Cette métadonnée représente un identifiant invariable pour toutes les versions de la fiche d'un document, à la différence de la métadonnée entryUUID qui a une valeur différente pour chaque version de la fiche</t>
   </si>
   <si>
@@ -365,9 +522,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée correspond à la taille du document déposé. </t>
-  </si>
-  <si>
     <t>Cette métadonnée correspond à la taille du document déposé.</t>
   </si>
   <si>
@@ -380,6 +534,16 @@
     <t>Pour tous les documents produits système initiateur français : 'fr-FR'</t>
   </si>
   <si>
+    <t>DocumentEntry.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Author
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente les personnes physiques et/ou les systèmes (dispositifs, automates, services numériques référencés…) auteurs d’un document.</t>
+  </si>
+  <si>
     <t>DocumentEntry.legalAuthenticator</t>
   </si>
   <si>
@@ -389,7 +553,38 @@
     <t>XCN</t>
   </si>
   <si>
+    <t>DocumentEntry.legalAuthenticator.id</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.extension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.XCN1</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.XCN2</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.XCN3</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.XCN9</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.XCN10</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator.XCN13</t>
+  </si>
+  <si>
     <t>DocumentEntry.repositoryUniqueId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oid
+</t>
   </si>
   <si>
     <t>Cette métadonnée représente l'identifiant unique global de l'entrepôt de documents dans lequel est stocké le document</t>
@@ -417,15 +612,114 @@
     <t>Cette métadonnée contient l'identifiant secondaire du patient dans le système d'information du producteur (IPP) ou l'INS, s'il n'y a pas d'identifiant secondaire.</t>
   </si>
   <si>
+    <t>DocumentEntry.sourcePatientID.id</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientID.extension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientID.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientID.CX1</t>
+  </si>
+  <si>
+    <t>Identifiant du patient, en l’occurrence, le matricule INS du patient tel que défini dans le cadre juridique</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientID.CX4</t>
+  </si>
+  <si>
+    <t>Identifiant de l’autorité d’affectation de l’INS utilisé.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientID.CX5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'NH' pour un maticule INS tel que défini dans le cadre juridique</t>
+  </si>
+  <si>
     <t>DocumentEntry.sourcePatientInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée contient les traits d'identité du patient concerné par le document, connus par le producteur du document. </t>
-  </si>
-  <si>
     <t>Cette métadonnée contient les traits d'identité du patient concerné par le document, connus par le producteur du document.</t>
   </si>
   <si>
+    <t>DocumentEntry.sourcePatientInfo.id</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.extension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID3</t>
+  </si>
+  <si>
+    <t>Liste des identifiants du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID5</t>
+  </si>
+  <si>
+    <t>Nom et prénoms du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID7</t>
+  </si>
+  <si>
+    <t>Date/heure de naissance du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID8</t>
+  </si>
+  <si>
+    <t>Sexe du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID11</t>
+  </si>
+  <si>
+    <t>Adresse du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID13</t>
+  </si>
+  <si>
+    <t>Téléphone de la résidence du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID14</t>
+  </si>
+  <si>
+    <t>Téléphone professionnel du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID15</t>
+  </si>
+  <si>
+    <t>Langue du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID16</t>
+  </si>
+  <si>
+    <t>Statut marital du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID18</t>
+  </si>
+  <si>
+    <t>Numéro de compte du patient</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo.PID21</t>
+  </si>
+  <si>
+    <t>Identifiant de la mère du patient</t>
+  </si>
+  <si>
     <t>DocumentEntry.URI</t>
   </si>
   <si>
@@ -441,16 +735,14 @@
     <t>DocumentEntry.comments</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée contient le commentaire associé au document. </t>
-  </si>
-  <si>
     <t>Cette métadonnée contient le commentaire associé au document.</t>
   </si>
   <si>
     <t>DocumentEntry.patientID</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient. </t>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PatientId
+</t>
   </si>
   <si>
     <t>Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient.</t>
@@ -468,7 +760,7 @@
     <t>DocumentEntry.class</t>
   </si>
   <si>
-    <t xml:space="preserve">class représente la classe du document </t>
+    <t>class représente la classe du document (compte rendu, imagerie médicale, traitement, certificat, etc.).</t>
   </si>
   <si>
     <t>**Class Code**</t>
@@ -508,7 +800,7 @@
     <t>DocumentEntry.format</t>
   </si>
   <si>
-    <t xml:space="preserve">Métadonnée contenant les informations définissant le format du document. </t>
+    <t>Métadonnée contenant les informations définissant le format du document.</t>
   </si>
   <si>
     <t>**Format Code**</t>
@@ -568,9 +860,6 @@
     <t>DocumentEntry.creationTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée représente la date et l’heure de la création du document. </t>
-  </si>
-  <si>
     <t>Cette métadonnée représente la date et l’heure de la création du document.</t>
   </si>
   <si>
@@ -580,6 +869,39 @@
     <t>Cette métadonnée contient une liste d'un ou plusieurs identifiant(s) d'objet(s) associé(s) au document.</t>
   </si>
   <si>
+    <t>DocumentEntry.referenceIdList.id</t>
+  </si>
+  <si>
+    <t>DocumentEntry.referenceIdList.extension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.referenceIdList.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentEntry.referenceIdList.CX1</t>
+  </si>
+  <si>
+    <t>Identifiant de l'objet référencé</t>
+  </si>
+  <si>
+    <t>DocumentEntry.referenceIdList.CX4</t>
+  </si>
+  <si>
+    <t>Identifiant de l’organisme ayant attribué l’identifiant de l'objet référencé</t>
+  </si>
+  <si>
+    <t>DocumentEntry.referenceIdList.CX5</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J231-XdsTypesIdentifiantsReferenceId-DMP/FHIR/JDV-J231-XdsTypesIdentifiantsReferenceId-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.version</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente le numéro de version de la fiche d’un document.</t>
+  </si>
+  <si>
     <t>EventCode</t>
   </si>
   <si>
@@ -589,7 +911,11 @@
     <t>EventCode (LM)</t>
   </si>
   <si>
-    <t>Model logique d'un eventCode</t>
+    <t xml:space="preserve">Model logique d'un eventCode.
+Un EventCode peut contenir le code représentant : 
+-  un évènement documenté (acte, traitement, diagnostic, etc…),  
+-  une modalité d’acquisition, 
+-  une région anatomique. </t>
   </si>
   <si>
     <t>EventCode.eventCode</t>
@@ -601,6 +927,28 @@
     <t>Cet attribut peut contenir le code représentant : • un évènement documenté (acte, traitement, diagnostic, etc…),  • une modalité d'acquisition, • une région anatomique.</t>
   </si>
   <si>
+    <t>PatientId</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PatientId</t>
+  </si>
+  <si>
+    <t>PatientId (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modèle logique de patientID.
+PatientID représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient. </t>
+  </si>
+  <si>
+    <t>PatientId.CX1</t>
+  </si>
+  <si>
+    <t>PatientId.CX4</t>
+  </si>
+  <si>
+    <t>PatientId.CX5</t>
+  </si>
+  <si>
     <t>SubmissionSet</t>
   </si>
   <si>
@@ -616,9 +964,6 @@
     <t>SubmissionSet.entryUUID</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifiant unique du lot de soumission. Cet attribut est destiné à des fins de gestion interne alors que uniqueId est utilisé à des fins de référence externe. </t>
-  </si>
-  <si>
     <t>Identifiant unique du lot de soumission. Cet attribut est destiné à des fins de gestion interne alors que uniqueId est utilisé à des fins de référence externe.</t>
   </si>
   <si>
@@ -658,27 +1003,18 @@
     <t>SubmissionSet.patientID</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient tel que défini dans le cadre juridique. </t>
-  </si>
-  <si>
     <t>Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient tel que défini dans le cadre juridique.</t>
   </si>
   <si>
     <t>SubmissionSet.sourceID</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée représente l’identifiant unique global du système émetteur du lot de soumission. </t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente l’identifiant unique global du système émetteur du lot de soumission.</t>
+    <t>Cette métadonnée représente l’identifiant unique global du système émetteur du lot de soumission</t>
   </si>
   <si>
     <t>SubmissionSet.uniqueID</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifiant unique global affecté à ce lot de soumission par son créateur. Cet attribut est utilisé à des fins de référence externe alors que entryUUID est destiné à des fins de gestion interne.  </t>
-  </si>
-  <si>
     <t>Identifiant unique global affecté à ce lot de soumission par son créateur. Cet attribut est utilisé à des fins de référence externe alors que entryUUID est destiné à des fins de gestion interne.</t>
   </si>
   <si>
@@ -703,16 +1039,10 @@
     <t>SubmissionSet.homeCommunityID</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée correspond à l’identifiant de la communauté représentée par le système cible si celui-ci offre des fonctionnalités de communication avec d’autres communautés telles que présentées dans le profil XCA d’IHE. Elle n’est pas utilisée par les transactions décrites dans ce volet. </t>
-  </si>
-  <si>
     <t>Cette métadonnée correspond à l’identifiant de la communauté représentée par le système cible si celui-ci offre des fonctionnalités de communication avec d’autres communautés telles que présentées dans le profil XCA d’IHE. Elle n’est pas utilisée par les transactions décrites dans ce volet.</t>
   </si>
   <si>
     <t>SubmissionSet.intendedRecipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette métadonnée représente les destinataires (structure ou professionnel) auxquels lot de soumission est destiné. Elle n’est pas utilisée par les transactions décrites dans ce volet. </t>
   </si>
   <si>
     <t>Cette métadonnée représente les destinataires (structure ou professionnel) auxquels lot de soumission est destiné. Elle n’est pas utilisée par les transactions décrites dans ce volet.</t>
@@ -849,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1034,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
@@ -1042,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25">
@@ -1058,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27">
@@ -1066,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
@@ -1120,7 +1450,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35">
@@ -1156,7 +1486,7 @@
         <v>30</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40">
@@ -1196,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>186</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45">
@@ -1204,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>187</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46">
@@ -1220,7 +1550,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>186</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48">
@@ -1228,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>188</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49">
@@ -1282,7 +1612,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>189</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56">
@@ -1318,7 +1648,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>187</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61">
@@ -1358,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>193</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66">
@@ -1366,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>194</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67">
@@ -1382,7 +1712,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>193</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69">
@@ -1390,7 +1720,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>195</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70">
@@ -1444,7 +1774,7 @@
         <v>22</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>196</v>
+        <v>297</v>
       </c>
     </row>
     <row r="77">
@@ -1480,7 +1810,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>194</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82">
@@ -1504,6 +1834,168 @@
         <v>35</v>
       </c>
       <c r="B84" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B105" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -1514,7 +2006,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK52"/>
+  <dimension ref="A1:AK108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1524,10 +2016,10 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.21875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.6015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="35.6015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="43.01953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="43.01953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="7.6796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.19140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
@@ -1537,7 +2029,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="10.3984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.828125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1549,10 +2041,10 @@
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="96.13671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="105.8203125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="35.6015625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1876,7 +2368,7 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -1884,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1910,13 +2402,13 @@
         <v>73</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1967,7 +2459,7 @@
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>74</v>
@@ -1987,21 +2479,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>73</v>
@@ -2013,15 +2505,17 @@
         <v>73</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O5" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="O5" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
         <v>73</v>
@@ -2046,41 +2540,43 @@
         <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z5" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA5" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -2088,42 +2584,46 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="O6" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P6" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="Q6" t="s" s="2">
         <v>73</v>
       </c>
@@ -2147,11 +2647,13 @@
         <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z6" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA6" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>73</v>
@@ -2169,19 +2671,19 @@
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -2189,10 +2691,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2200,7 +2702,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2215,13 +2717,13 @@
         <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2272,10 +2774,10 @@
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
@@ -2289,13 +2791,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2303,10 +2805,10 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>73</v>
@@ -2318,13 +2820,13 @@
         <v>73</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2375,13 +2877,13 @@
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -2392,13 +2894,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2421,13 +2923,13 @@
         <v>73</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2478,7 +2980,7 @@
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>79</v>
@@ -2495,13 +2997,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2524,13 +3026,13 @@
         <v>73</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2581,7 +3083,7 @@
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>79</v>
@@ -2598,13 +3100,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2627,13 +3129,13 @@
         <v>73</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -2684,7 +3186,7 @@
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>79</v>
@@ -2696,18 +3198,18 @@
         <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2715,7 +3217,7 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -2730,13 +3232,13 @@
         <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="N12" t="s" s="2">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -2763,11 +3265,13 @@
         <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z12" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA12" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
         <v>73</v>
@@ -2785,10 +3289,10 @@
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
@@ -2802,24 +3306,24 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>73</v>
@@ -2831,15 +3335,17 @@
         <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>73</v>
@@ -2876,74 +3382,78 @@
         <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="Q14" t="s" s="2">
         <v>73</v>
       </c>
@@ -2991,30 +3501,30 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3037,13 +3547,13 @@
         <v>73</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -3094,7 +3604,7 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
@@ -3111,13 +3621,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3125,7 +3635,7 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3140,13 +3650,13 @@
         <v>73</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -3197,10 +3707,10 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
@@ -3214,13 +3724,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3243,13 +3753,13 @@
         <v>73</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3300,7 +3810,7 @@
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
@@ -3317,13 +3827,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3346,13 +3856,13 @@
         <v>73</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>127</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -3403,7 +3913,7 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
@@ -3420,13 +3930,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3434,7 +3944,7 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3449,13 +3959,13 @@
         <v>73</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -3506,10 +4016,10 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
@@ -3523,13 +4033,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3552,13 +4062,13 @@
         <v>73</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -3609,7 +4119,7 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -3626,7 +4136,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>132</v>
@@ -3655,13 +4165,13 @@
         <v>73</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3688,13 +4198,11 @@
         <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="Z21" s="2"/>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="AB21" t="s" s="2">
         <v>73</v>
@@ -3729,13 +4237,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3743,7 +4251,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -3758,13 +4266,13 @@
         <v>73</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -3791,13 +4299,11 @@
         <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="Z22" s="2"/>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>73</v>
@@ -3815,10 +4321,10 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
@@ -3832,13 +4338,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3846,10 +4352,10 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>73</v>
@@ -3861,13 +4367,13 @@
         <v>73</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3918,13 +4424,13 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>73</v>
@@ -3935,13 +4441,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3949,7 +4455,7 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -3964,13 +4470,13 @@
         <v>73</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4021,10 +4527,10 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
@@ -4038,13 +4544,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4067,13 +4573,13 @@
         <v>73</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4124,7 +4630,7 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4141,13 +4647,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4170,13 +4676,13 @@
         <v>73</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -4227,7 +4733,7 @@
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -4244,13 +4750,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4273,13 +4779,13 @@
         <v>73</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -4306,11 +4812,11 @@
         <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>73</v>
@@ -4328,7 +4834,7 @@
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -4345,13 +4851,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4362,7 +4868,7 @@
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>73</v>
@@ -4374,13 +4880,13 @@
         <v>73</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4407,11 +4913,13 @@
         <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z28" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA28" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>73</v>
@@ -4429,13 +4937,13 @@
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -4446,13 +4954,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4460,10 +4968,10 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>73</v>
@@ -4475,13 +4983,13 @@
         <v>73</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -4532,13 +5040,13 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4549,13 +5057,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4578,13 +5086,13 @@
         <v>73</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -4611,11 +5119,13 @@
         <v>73</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z30" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA30" t="s" s="2">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>73</v>
@@ -4633,7 +5143,7 @@
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -4650,13 +5160,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4667,7 +5177,7 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>73</v>
@@ -4679,13 +5189,13 @@
         <v>73</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -4712,11 +5222,13 @@
         <v>73</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z31" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA31" t="s" s="2">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
         <v>73</v>
@@ -4734,13 +5246,13 @@
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -4751,7 +5263,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>169</v>
@@ -4765,7 +5277,7 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -4780,7 +5292,7 @@
         <v>73</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>170</v>
@@ -4813,11 +5325,13 @@
         <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z32" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA32" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
         <v>73</v>
@@ -4838,7 +5352,7 @@
         <v>169</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
@@ -4847,18 +5361,18 @@
         <v>73</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4866,7 +5380,7 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -4881,13 +5395,13 @@
         <v>73</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="N33" t="s" s="2">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -4914,11 +5428,13 @@
         <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z33" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA33" t="s" s="2">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
         <v>73</v>
@@ -4936,10 +5452,10 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
@@ -4953,24 +5469,24 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>73</v>
@@ -4982,15 +5498,17 @@
         <v>73</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>73</v>
@@ -5027,74 +5545,78 @@
         <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="Q35" t="s" s="2">
         <v>73</v>
       </c>
@@ -5142,30 +5664,30 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5188,13 +5710,13 @@
         <v>73</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -5245,7 +5767,7 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -5262,13 +5784,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5276,10 +5798,10 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>73</v>
@@ -5291,13 +5813,13 @@
         <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -5348,13 +5870,13 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5365,13 +5887,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5379,10 +5901,10 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>73</v>
@@ -5394,13 +5916,13 @@
         <v>73</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -5451,13 +5973,13 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -5468,13 +5990,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5497,13 +6019,13 @@
         <v>73</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -5554,7 +6076,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -5571,13 +6093,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5585,10 +6107,10 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>73</v>
@@ -5600,13 +6122,13 @@
         <v>73</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -5657,13 +6179,13 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -5674,13 +6196,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5703,13 +6225,13 @@
         <v>73</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -5760,7 +6282,7 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -5777,13 +6299,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5791,7 +6313,7 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -5806,13 +6328,13 @@
         <v>73</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -5839,11 +6361,13 @@
         <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z42" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA42" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
         <v>73</v>
@@ -5861,10 +6385,10 @@
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
@@ -5878,13 +6402,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5907,13 +6431,13 @@
         <v>73</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -5964,7 +6488,7 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -5981,13 +6505,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6010,13 +6534,13 @@
         <v>73</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -6067,7 +6591,7 @@
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
@@ -6084,13 +6608,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6098,7 +6622,7 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -6116,10 +6640,10 @@
         <v>80</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -6170,10 +6694,10 @@
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
@@ -6182,18 +6706,18 @@
         <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6201,7 +6725,7 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -6216,13 +6740,13 @@
         <v>73</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -6273,10 +6797,10 @@
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
@@ -6290,24 +6814,24 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>73</v>
@@ -6319,15 +6843,17 @@
         <v>73</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>215</v>
+        <v>91</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>73</v>
@@ -6364,74 +6890,78 @@
         <v>73</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="B48" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="C48" t="s" s="2">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>218</v>
+        <v>102</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="Q48" t="s" s="2">
         <v>73</v>
       </c>
@@ -6479,30 +7009,30 @@
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6525,13 +7055,13 @@
         <v>73</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -6558,11 +7088,13 @@
         <v>73</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z49" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA49" t="s" s="2">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="AB49" t="s" s="2">
         <v>73</v>
@@ -6580,7 +7112,7 @@
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -6597,13 +7129,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6626,13 +7158,13 @@
         <v>73</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -6683,7 +7215,7 @@
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -6700,13 +7232,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6714,7 +7246,7 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -6729,13 +7261,13 @@
         <v>73</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -6786,10 +7318,10 @@
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -6803,13 +7335,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6817,10 +7349,10 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>73</v>
@@ -6832,13 +7364,13 @@
         <v>73</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -6889,18 +7421,5780 @@
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="Q55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R59" s="2"/>
+      <c r="S59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R61" s="2"/>
+      <c r="S61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R62" s="2"/>
+      <c r="S62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R63" s="2"/>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R64" s="2"/>
+      <c r="S64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R65" s="2"/>
+      <c r="S65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R66" s="2"/>
+      <c r="S66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R67" s="2"/>
+      <c r="S67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AH52" t="s" s="2">
+      <c r="C68" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R68" s="2"/>
+      <c r="S68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AI52" t="s" s="2">
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R69" s="2"/>
+      <c r="S69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R70" s="2"/>
+      <c r="S70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R71" s="2"/>
+      <c r="S71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R72" s="2"/>
+      <c r="S72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Z72" s="2"/>
+      <c r="AA72" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R73" s="2"/>
+      <c r="S73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Z73" s="2"/>
+      <c r="AA73" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H74" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK52" t="s" s="2">
+      <c r="I74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R74" s="2"/>
+      <c r="S74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R75" s="2"/>
+      <c r="S75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Z75" s="2"/>
+      <c r="AA75" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R76" s="2"/>
+      <c r="S76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Z76" s="2"/>
+      <c r="AA76" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R77" s="2"/>
+      <c r="S77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Z77" s="2"/>
+      <c r="AA77" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R78" s="2"/>
+      <c r="S78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Z78" s="2"/>
+      <c r="AA78" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R79" s="2"/>
+      <c r="S79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R80" s="2"/>
+      <c r="S80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R81" s="2"/>
+      <c r="S81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R82" s="2"/>
+      <c r="S82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R83" s="2"/>
+      <c r="S83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R84" s="2"/>
+      <c r="S84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="Q85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R85" s="2"/>
+      <c r="S85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R86" s="2"/>
+      <c r="S86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R87" s="2"/>
+      <c r="S87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R88" s="2"/>
+      <c r="S88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Z88" s="2"/>
+      <c r="AA88" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R89" s="2"/>
+      <c r="S89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R90" s="2"/>
+      <c r="S90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R91" s="2"/>
+      <c r="S91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R92" s="2"/>
+      <c r="S92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R93" s="2"/>
+      <c r="S93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R94" s="2"/>
+      <c r="S94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R95" s="2"/>
+      <c r="S95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R96" s="2"/>
+      <c r="S96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R97" s="2"/>
+      <c r="S97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R98" s="2"/>
+      <c r="S98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Z98" s="2"/>
+      <c r="AA98" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R99" s="2"/>
+      <c r="S99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R100" s="2"/>
+      <c r="S100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R101" s="2"/>
+      <c r="S101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R102" s="2"/>
+      <c r="S102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R104" s="2"/>
+      <c r="S104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R105" s="2"/>
+      <c r="S105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Z105" s="2"/>
+      <c r="AA105" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R106" s="2"/>
+      <c r="S106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK108" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3697" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="324">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-01T16:30:13+00:00</t>
+    <t>2025-05-02T13:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,112 +262,89 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorInstitution
 </t>
   </si>
   <si>
     <t>Cet attribut représente la structure de l’auteur.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Author.person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPerson
 </t>
   </si>
   <si>
-    <t>Author.institution.id</t>
+    <t>author</t>
+  </si>
+  <si>
+    <t>Author.role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut représente le rôle fonctionnel joué par l’auteur vis-à-vis du patient/usager lors de la création du document, c'est-à-dire à quel titre l’auteur est intervenu vis-à-vis du patient (ex : médecin traitant, Responsable de l'admission, Membre de l'équipe de soins, etc.). </t>
+  </si>
+  <si>
+    <t>**Author Role**</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS</t>
+  </si>
+  <si>
+    <t>Author.specialty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut représente la profession éventuellement associée au savoir-faire de l’auteur professionnel caractérisé par sa profession ou la profession associée au genre d’activité pour l’auteur professionnel caractérisé par son rôle. </t>
+  </si>
+  <si>
+    <t>**AutorSpecialty**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J56-AuthorSpecialty-DMP/FHIR/JDV-J56-AuthorSpecialty-DMP</t>
+  </si>
+  <si>
+    <t>AuthorInstitution</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorInstitution</t>
+  </si>
+  <si>
+    <t>AuthorInstitution (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut représente la structure de l’auteur. Pour les documents d’expression personnelle du patient, cette métadonnée est absente, cela signifie que l’élément XML &lt;rim:Slot name='authorInstitution'&gt; n’est pas transmis. </t>
+  </si>
+  <si>
+    <t>AuthorInstitution.1</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Author.institution.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Author.institution.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Author.institution.XON1</t>
-  </si>
-  <si>
     <t>Nom de la structure</t>
   </si>
   <si>
-    <t>Author.institution.XON6</t>
+    <t>AuthorInstitution.6</t>
   </si>
   <si>
     <t>Autorité d’affectation</t>
   </si>
   <si>
-    <t>Author.institution.XON7</t>
+    <t>AuthorInstitution.7</t>
   </si>
   <si>
     <t>Type d’identifiant</t>
   </si>
   <si>
-    <t>Author.institution.XON10</t>
+    <t>AuthorInstitution.10</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {elementdefinition-identifier}
@@ -377,40 +354,37 @@
     <t xml:space="preserve"> Identifiant de la structure (Struct_IdNat)</t>
   </si>
   <si>
-    <t>Author.person</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>Author.person.id</t>
-  </si>
-  <si>
-    <t>Author.person.extension</t>
-  </si>
-  <si>
-    <t>Author.person.modifierExtension</t>
-  </si>
-  <si>
-    <t>Author.person.XCN1</t>
+    <t>AuthorPerson</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPerson</t>
+  </si>
+  <si>
+    <t>AuthorPerson (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut représente l’auteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient. </t>
+  </si>
+  <si>
+    <t>AuthorPerson.1</t>
   </si>
   <si>
     <t>Identifiant (PS_IdNat)</t>
   </si>
   <si>
-    <t>Author.person.XCN2</t>
+    <t>AuthorPerson.2</t>
   </si>
   <si>
     <t>Nom d'exercice du professionnel, nom du patient, nom du système.</t>
   </si>
   <si>
-    <t>Author.person.XCN3</t>
+    <t>AuthorPerson.3</t>
   </si>
   <si>
     <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
   </si>
   <si>
-    <t>Author.person.XCN9</t>
+    <t>AuthorPerson.9</t>
   </si>
   <si>
     <t xml:space="preserve"> Autorité d’affectation </t>
@@ -419,44 +393,13 @@
     <t xml:space="preserve"> Autorité d’affectation</t>
   </si>
   <si>
-    <t>Author.person.XCN10</t>
+    <t>AuthorPerson.10</t>
   </si>
   <si>
     <t>Type de nom : Valeur en fonction de l’auteur : • D, pour les personnes physiques, • U, pour les systèmes.</t>
   </si>
   <si>
-    <t>Author.person.XCN13</t>
-  </si>
-  <si>
-    <t>Author.role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cet attribut représente le rôle fonctionnel joué par l’auteur vis-à-vis du patient/usager lors de la création du document, c'est-à-dire à quel titre l’auteur est intervenu vis-à-vis du patient (ex : médecin traitant, Responsable de l'admission, Membre de l'équipe de soins, etc.). </t>
-  </si>
-  <si>
-    <t>**Author Role**</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS</t>
-  </si>
-  <si>
-    <t>Author.specialty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cet attribut représente la profession éventuellement associée au savoir-faire de l’auteur professionnel caractérisé par sa profession ou la profession associée au genre d’activité pour l’auteur professionnel caractérisé par son rôle. </t>
-  </si>
-  <si>
-    <t>**AutorSpecialty**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J56-AuthorSpecialty-DMP/FHIR/JDV-J56-AuthorSpecialty-DMP</t>
+    <t>AuthorPerson.13</t>
   </si>
   <si>
     <t>DocumentEntry</t>
@@ -547,37 +490,14 @@
     <t>DocumentEntry.legalAuthenticator</t>
   </si>
   <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/LegalAuthenticator
+</t>
+  </si>
+  <si>
     <t>Cette métadonnée représente l'acteur prenant la responsabilité du contenu médical du document</t>
   </si>
   <si>
     <t>XCN</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator.id</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator.extension</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator.XCN1</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator.XCN2</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator.XCN3</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator.XCN9</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator.XCN10</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator.XCN13</t>
   </si>
   <si>
     <t>DocumentEntry.repositoryUniqueId</t>
@@ -609,115 +529,21 @@
     <t>DocumentEntry.sourcePatientID</t>
   </si>
   <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SourcePatientId
+</t>
+  </si>
+  <si>
     <t>Cette métadonnée contient l'identifiant secondaire du patient dans le système d'information du producteur (IPP) ou l'INS, s'il n'y a pas d'identifiant secondaire.</t>
   </si>
   <si>
-    <t>DocumentEntry.sourcePatientID.id</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientID.extension</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientID.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientID.CX1</t>
-  </si>
-  <si>
-    <t>Identifiant du patient, en l’occurrence, le matricule INS du patient tel que défini dans le cadre juridique</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientID.CX4</t>
-  </si>
-  <si>
-    <t>Identifiant de l’autorité d’affectation de l’INS utilisé.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientID.CX5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'NH' pour un maticule INS tel que défini dans le cadre juridique</t>
-  </si>
-  <si>
     <t>DocumentEntry.sourcePatientInfo</t>
   </si>
   <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SourcePatientInfo
+</t>
+  </si>
+  <si>
     <t>Cette métadonnée contient les traits d'identité du patient concerné par le document, connus par le producteur du document.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo.id</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo.extension</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo.PID3</t>
-  </si>
-  <si>
-    <t>Liste des identifiants du patient</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo.PID5</t>
-  </si>
-  <si>
-    <t>Nom et prénoms du patient</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo.PID7</t>
-  </si>
-  <si>
-    <t>Date/heure de naissance du patient</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo.PID8</t>
-  </si>
-  <si>
-    <t>Sexe du patient</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo.PID11</t>
-  </si>
-  <si>
-    <t>Adresse du patient</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo.PID13</t>
-  </si>
-  <si>
-    <t>Téléphone de la résidence du patient</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo.PID14</t>
-  </si>
-  <si>
-    <t>Téléphone professionnel du patient</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo.PID15</t>
-  </si>
-  <si>
-    <t>Langue du patient</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo.PID16</t>
-  </si>
-  <si>
-    <t>Statut marital du patient</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo.PID18</t>
-  </si>
-  <si>
-    <t>Numéro de compte du patient</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo.PID21</t>
-  </si>
-  <si>
-    <t>Identifiant de la mère du patient</t>
   </si>
   <si>
     <t>DocumentEntry.URI</t>
@@ -866,16 +692,11 @@
     <t>DocumentEntry.referenceIdList</t>
   </si>
   <si>
+    <t xml:space="preserve">Base
+</t>
+  </si>
+  <si>
     <t>Cette métadonnée contient une liste d'un ou plusieurs identifiant(s) d'objet(s) associé(s) au document.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.referenceIdList.id</t>
-  </si>
-  <si>
-    <t>DocumentEntry.referenceIdList.extension</t>
-  </si>
-  <si>
-    <t>DocumentEntry.referenceIdList.modifierExtension</t>
   </si>
   <si>
     <t>DocumentEntry.referenceIdList.CX1</t>
@@ -927,6 +748,39 @@
     <t>Cet attribut peut contenir le code représentant : • un évènement documenté (acte, traitement, diagnostic, etc…),  • une modalité d'acquisition, • une région anatomique.</t>
   </si>
   <si>
+    <t>LegalAuthenticator</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/LegalAuthenticator</t>
+  </si>
+  <si>
+    <t>LegalAuthenticator (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente l’acteur prenant la responsabilité du contenu médical du document : 
+-  soit le professionnel qui prend la responsabilité du document (CDA ou DICOM KOS) produit par un professionnel (lui-même ou un autre) ou par un système rattaché à une structure (ES, …). 
+-  soit le patient/usager responsable du document d'expression personnelle • soit un système : exceptionnellement et uniquement pour le cas ci-dessous : 
+  - système via un SNR responsable du document produit via ce SNR. </t>
+  </si>
+  <si>
+    <t>LegalAuthenticator.1</t>
+  </si>
+  <si>
+    <t>LegalAuthenticator.2</t>
+  </si>
+  <si>
+    <t>LegalAuthenticator.3</t>
+  </si>
+  <si>
+    <t>LegalAuthenticator.9</t>
+  </si>
+  <si>
+    <t>LegalAuthenticator.10</t>
+  </si>
+  <si>
+    <t>LegalAuthenticator.13</t>
+  </si>
+  <si>
     <t>PatientId</t>
   </si>
   <si>
@@ -940,13 +794,128 @@
 PatientID représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient. </t>
   </si>
   <si>
-    <t>PatientId.CX1</t>
-  </si>
-  <si>
-    <t>PatientId.CX4</t>
-  </si>
-  <si>
-    <t>PatientId.CX5</t>
+    <t>PatientId.1</t>
+  </si>
+  <si>
+    <t>Identifiant du patient, en l’occurrence, le matricule INS du patient tel que défini dans le cadre juridique</t>
+  </si>
+  <si>
+    <t>PatientId.4</t>
+  </si>
+  <si>
+    <t>Identifiant de l’autorité d’affectation de l’INS utilisé.</t>
+  </si>
+  <si>
+    <t>PatientId.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'NH' pour un maticule INS tel que défini dans le cadre juridique</t>
+  </si>
+  <si>
+    <t>SourcePatientId</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SourcePatientId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SourcePatientId (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée contient l’identifiant secondaire du patient dans le système d’information du producteur (IPP) ou l’INS, s’il n’y a pas d’identifiant secondaire. Pour les documents d’expression personnelle du patient, cette métadonnée contient l’INS du patient, à savoir le même identifiant que patientId. </t>
+  </si>
+  <si>
+    <t>SourcePatientId.1</t>
+  </si>
+  <si>
+    <t>SourcePatientId.4</t>
+  </si>
+  <si>
+    <t>SourcePatientId.5</t>
+  </si>
+  <si>
+    <t>SourcePatientInfo</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SourcePatientInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SourcePatientInfo (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée contient les traits d’identité du patient concerné par le document, connus par le producteur du document. Les informations présentes dans la métadonnée sourcePatientInfo ne doivent en aucun cas être réutilisées pour calculer un identifiant, ni être mises à jour après la soumission du document. 
+</t>
+  </si>
+  <si>
+    <t>SourcePatientInfo.PID</t>
+  </si>
+  <si>
+    <t>type PID</t>
+  </si>
+  <si>
+    <t>SourcePatientInfo.PID.3</t>
+  </si>
+  <si>
+    <t>Liste des identifiants du patient</t>
+  </si>
+  <si>
+    <t>SourcePatientInfo.PID.5</t>
+  </si>
+  <si>
+    <t>Nom et prénoms du patient</t>
+  </si>
+  <si>
+    <t>SourcePatientInfo.PID.7</t>
+  </si>
+  <si>
+    <t>Date/heure de naissance du patient</t>
+  </si>
+  <si>
+    <t>SourcePatientInfo.PID.8</t>
+  </si>
+  <si>
+    <t>Sexe du patient</t>
+  </si>
+  <si>
+    <t>SourcePatientInfo.PID.11</t>
+  </si>
+  <si>
+    <t>Adresse du patient</t>
+  </si>
+  <si>
+    <t>SourcePatientInfo.PID.13</t>
+  </si>
+  <si>
+    <t>Téléphone de la résidence du patient</t>
+  </si>
+  <si>
+    <t>SourcePatientInfo.PID.14</t>
+  </si>
+  <si>
+    <t>Téléphone professionnel du patient</t>
+  </si>
+  <si>
+    <t>SourcePatientInfo.PID.15</t>
+  </si>
+  <si>
+    <t>Langue du patient</t>
+  </si>
+  <si>
+    <t>SourcePatientInfo.PID.16</t>
+  </si>
+  <si>
+    <t>Statut marital du patient</t>
+  </si>
+  <si>
+    <t>SourcePatientInfo.PID.18</t>
+  </si>
+  <si>
+    <t>Numéro de compte du patient</t>
+  </si>
+  <si>
+    <t>SourcePatientInfo.PID.21</t>
+  </si>
+  <si>
+    <t>Identifiant de la mère du patient</t>
   </si>
   <si>
     <t>SubmissionSet</t>
@@ -958,7 +927,8 @@
     <t>SubmissionSet (LM)</t>
   </si>
   <si>
-    <t>Model logique d'un lot de soummission</t>
+    <t xml:space="preserve">Model logique d'un lot de soummission.
+</t>
   </si>
   <si>
     <t>SubmissionSet.entryUUID</t>
@@ -974,6 +944,9 @@
   </si>
   <si>
     <t>Cette métadonnée représente la pertinence d'un lot de soumission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'urn:oasis:names:tc:ebxml-regrep:StatusType:Approved': version à jour du lot de soumission. 'urn:asip:ci-sis:2010:StatusType:Archived': version archivée du lot de soumission, dans le cas où toutes les fiches du lot ont leur métadonnée availabilityStatus prenant la valeur  'urn:asip:ci-sis:2010:StatusType:Archived'. </t>
   </si>
   <si>
     <t>SubmissionSet.submissionTime</t>
@@ -1179,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1364,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -1372,7 +1345,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -1388,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -1396,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>144</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1450,7 +1423,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>145</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -1486,7 +1459,7 @@
         <v>30</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -1526,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>287</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
@@ -1534,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>288</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -1550,7 +1523,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>287</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
@@ -1558,7 +1531,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>289</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49">
@@ -1612,7 +1585,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>290</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56">
@@ -1648,7 +1621,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>288</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61">
@@ -1688,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>294</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66">
@@ -1696,7 +1669,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>295</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67">
@@ -1712,7 +1685,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>294</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69">
@@ -1720,7 +1693,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>296</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70">
@@ -1774,7 +1747,7 @@
         <v>22</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>297</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77">
@@ -1810,7 +1783,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>295</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82">
@@ -1850,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>301</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87">
@@ -1858,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>302</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88">
@@ -1874,7 +1847,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>301</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90">
@@ -1882,7 +1855,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>303</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91">
@@ -1936,7 +1909,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>304</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98">
@@ -1972,7 +1945,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>302</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103">
@@ -1996,6 +1969,816 @@
         <v>35</v>
       </c>
       <c r="B105" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B190" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B210" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -2006,7 +2789,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK108"/>
+  <dimension ref="A1:AK96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2015,11 +2798,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.01953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="43.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="15.88671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.6015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="35.6015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="18.19140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.6796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
@@ -2029,13 +2812,13 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="229.828125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="10.3984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="7.6953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="249.7109375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -2044,7 +2827,7 @@
     <col min="27" max="27" width="105.8203125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="35.6015625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2368,7 +3151,7 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -2376,10 +3159,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -2387,7 +3170,7 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
@@ -2402,13 +3185,13 @@
         <v>73</v>
       </c>
       <c r="L4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="N4" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -2459,10 +3242,10 @@
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>79</v>
@@ -2479,21 +3262,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>73</v>
@@ -2505,17 +3288,15 @@
         <v>73</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
         <v>73</v>
@@ -2540,43 +3321,41 @@
         <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Z5" s="2"/>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AB5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -2584,46 +3363,42 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O6" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="P6" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
         <v>73</v>
       </c>
@@ -2647,13 +3422,11 @@
         <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Z6" s="2"/>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>73</v>
@@ -2671,30 +3444,30 @@
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2702,10 +3475,10 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>73</v>
@@ -2717,13 +3490,13 @@
         <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2774,13 +3547,13 @@
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>73</v>
@@ -2791,13 +3564,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2820,13 +3593,13 @@
         <v>73</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2877,7 +3650,7 @@
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>79</v>
@@ -2894,13 +3667,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2923,13 +3696,13 @@
         <v>73</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2980,7 +3753,7 @@
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>79</v>
@@ -2997,13 +3770,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3026,13 +3799,13 @@
         <v>73</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -3083,7 +3856,7 @@
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>79</v>
@@ -3100,13 +3873,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3129,13 +3902,13 @@
         <v>73</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -3186,7 +3959,7 @@
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>79</v>
@@ -3198,18 +3971,18 @@
         <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3220,7 +3993,7 @@
         <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>73</v>
@@ -3232,13 +4005,13 @@
         <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3289,13 +4062,13 @@
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>73</v>
@@ -3306,24 +4079,24 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>73</v>
@@ -3335,17 +4108,15 @@
         <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>73</v>
@@ -3382,78 +4153,74 @@
         <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
         <v>73</v>
       </c>
@@ -3501,30 +4268,30 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3547,13 +4314,13 @@
         <v>73</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -3604,7 +4371,7 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
@@ -3621,13 +4388,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3650,13 +4417,13 @@
         <v>73</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -3707,7 +4474,7 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>79</v>
@@ -3724,13 +4491,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3753,13 +4520,13 @@
         <v>73</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3810,7 +4577,7 @@
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
@@ -3827,13 +4594,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3856,13 +4623,13 @@
         <v>73</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -3913,7 +4680,7 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
@@ -3930,13 +4697,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3944,10 +4711,10 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>73</v>
@@ -3959,13 +4726,13 @@
         <v>73</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -4016,13 +4783,13 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -4033,13 +4800,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4062,13 +4829,13 @@
         <v>73</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -4119,7 +4886,7 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4136,7 +4903,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>132</v>
@@ -4171,7 +4938,7 @@
         <v>134</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4198,11 +4965,13 @@
         <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z21" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA21" t="s" s="2">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
         <v>73</v>
@@ -4237,13 +5006,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4251,7 +5020,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4266,13 +5035,13 @@
         <v>73</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -4299,11 +5068,13 @@
         <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z22" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA22" t="s" s="2">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>73</v>
@@ -4321,10 +5092,10 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
@@ -4338,13 +5109,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4352,10 +5123,10 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>73</v>
@@ -4367,13 +5138,13 @@
         <v>73</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4400,13 +5171,11 @@
         <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Z23" s="2"/>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>73</v>
@@ -4424,13 +5193,13 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>73</v>
@@ -4441,13 +5210,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4470,13 +5239,13 @@
         <v>73</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4527,7 +5296,7 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4544,13 +5313,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4573,13 +5342,13 @@
         <v>73</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4630,7 +5399,7 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4647,13 +5416,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4676,13 +5445,13 @@
         <v>73</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -4733,7 +5502,7 @@
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -4750,13 +5519,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4767,7 +5536,7 @@
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>73</v>
@@ -4779,13 +5548,13 @@
         <v>73</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -4812,11 +5581,13 @@
         <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z27" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA27" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>73</v>
@@ -4834,13 +5605,13 @@
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -4851,13 +5622,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4880,13 +5651,13 @@
         <v>73</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4937,7 +5708,7 @@
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
@@ -4954,13 +5725,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4983,13 +5754,13 @@
         <v>73</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -5040,7 +5811,7 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5057,13 +5828,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5086,13 +5857,13 @@
         <v>73</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5143,7 +5914,7 @@
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5160,13 +5931,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5174,10 +5945,10 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>73</v>
@@ -5189,13 +5960,13 @@
         <v>73</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5246,13 +6017,13 @@
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -5263,13 +6034,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5292,13 +6063,13 @@
         <v>73</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -5349,7 +6120,7 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -5361,18 +6132,18 @@
         <v>73</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5380,7 +6151,7 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5395,13 +6166,13 @@
         <v>73</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5452,10 +6223,10 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
@@ -5469,24 +6240,24 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>73</v>
@@ -5498,17 +6269,15 @@
         <v>73</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>73</v>
@@ -5545,78 +6314,74 @@
         <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>73</v>
       </c>
@@ -5664,30 +6429,30 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5695,7 +6460,7 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5710,13 +6475,13 @@
         <v>73</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -5767,10 +6532,10 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
@@ -5784,7 +6549,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>176</v>
@@ -5813,13 +6578,13 @@
         <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -5887,13 +6652,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5916,13 +6681,13 @@
         <v>73</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -5973,7 +6738,7 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -5990,13 +6755,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6019,13 +6784,13 @@
         <v>73</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -6052,13 +6817,11 @@
         <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Z39" s="2"/>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>73</v>
@@ -6076,7 +6839,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6093,13 +6856,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6110,7 +6873,7 @@
         <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>73</v>
@@ -6122,13 +6885,13 @@
         <v>73</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6155,13 +6918,11 @@
         <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Z40" s="2"/>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="AB40" t="s" s="2">
         <v>73</v>
@@ -6179,13 +6940,13 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -6196,13 +6957,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6210,10 +6971,10 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>73</v>
@@ -6225,13 +6986,13 @@
         <v>73</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6282,13 +7043,13 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
@@ -6299,13 +7060,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6328,13 +7089,13 @@
         <v>73</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -6361,13 +7122,11 @@
         <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Z42" s="2"/>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="AB42" t="s" s="2">
         <v>73</v>
@@ -6385,7 +7144,7 @@
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6402,13 +7161,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6431,13 +7190,13 @@
         <v>73</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -6464,13 +7223,11 @@
         <v>73</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Z43" s="2"/>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="AB43" t="s" s="2">
         <v>73</v>
@@ -6488,7 +7245,7 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -6505,13 +7262,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6519,7 +7276,7 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6534,13 +7291,13 @@
         <v>73</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -6567,13 +7324,11 @@
         <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Z44" s="2"/>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="AB44" t="s" s="2">
         <v>73</v>
@@ -6591,10 +7346,10 @@
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -6608,13 +7363,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6637,13 +7392,13 @@
         <v>73</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -6670,13 +7425,11 @@
         <v>73</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Z45" s="2"/>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>73</v>
@@ -6694,7 +7447,7 @@
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -6706,18 +7459,18 @@
         <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6740,13 +7493,13 @@
         <v>73</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -6797,7 +7550,7 @@
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
@@ -6814,24 +7567,24 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>73</v>
@@ -6843,17 +7596,15 @@
         <v>73</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>73</v>
@@ -6890,78 +7641,74 @@
         <v>73</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>102</v>
+        <v>216</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P48" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>73</v>
       </c>
@@ -7009,30 +7756,30 @@
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7040,10 +7787,10 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>73</v>
@@ -7055,13 +7802,13 @@
         <v>73</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -7112,13 +7859,13 @@
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>73</v>
@@ -7129,13 +7876,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7158,13 +7905,13 @@
         <v>73</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7215,7 +7962,7 @@
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -7232,13 +7979,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7261,13 +8008,13 @@
         <v>73</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -7318,7 +8065,7 @@
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
@@ -7335,13 +8082,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7364,13 +8111,13 @@
         <v>73</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -7397,13 +8144,11 @@
         <v>73</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Z52" s="2"/>
       <c r="AA52" t="s" s="2">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="AB52" t="s" s="2">
         <v>73</v>
@@ -7421,7 +8166,7 @@
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
@@ -7433,18 +8178,18 @@
         <v>73</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7467,13 +8212,13 @@
         <v>73</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>86</v>
+        <v>227</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -7524,7 +8269,7 @@
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
@@ -7541,17 +8286,17 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" t="s" s="2">
@@ -7570,17 +8315,15 @@
         <v>73</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>73</v>
@@ -7617,19 +8360,19 @@
         <v>73</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
@@ -7641,54 +8384,50 @@
         <v>73</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>73</v>
       </c>
@@ -7736,30 +8475,30 @@
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7770,7 +8509,7 @@
         <v>74</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>73</v>
@@ -7782,13 +8521,13 @@
         <v>73</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -7839,13 +8578,13 @@
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -7856,13 +8595,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7873,7 +8612,7 @@
         <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>73</v>
@@ -7885,13 +8624,13 @@
         <v>73</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -7942,13 +8681,13 @@
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
@@ -7959,13 +8698,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7973,7 +8712,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -7988,13 +8727,13 @@
         <v>73</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -8045,10 +8784,10 @@
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
@@ -8062,13 +8801,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8076,7 +8815,7 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8091,13 +8830,13 @@
         <v>73</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -8148,10 +8887,10 @@
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
@@ -8165,13 +8904,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8179,7 +8918,7 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8194,13 +8933,13 @@
         <v>73</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -8251,10 +8990,10 @@
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
@@ -8268,13 +9007,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8282,7 +9021,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -8297,13 +9036,13 @@
         <v>73</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -8354,10 +9093,10 @@
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
@@ -8371,13 +9110,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8385,7 +9124,7 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -8400,13 +9139,13 @@
         <v>73</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8457,10 +9196,10 @@
         <v>73</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
@@ -8474,13 +9213,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8491,7 +9230,7 @@
         <v>74</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>73</v>
@@ -8503,13 +9242,13 @@
         <v>73</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -8560,13 +9299,13 @@
         <v>73</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>73</v>
@@ -8577,13 +9316,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8591,7 +9330,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -8606,13 +9345,13 @@
         <v>73</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -8663,10 +9402,10 @@
         <v>73</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
@@ -8680,13 +9419,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8694,7 +9433,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -8709,13 +9448,13 @@
         <v>73</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -8766,10 +9505,10 @@
         <v>73</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
@@ -8783,13 +9522,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8797,7 +9536,7 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -8812,13 +9551,13 @@
         <v>73</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -8869,10 +9608,10 @@
         <v>73</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
@@ -8886,13 +9625,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8900,10 +9639,10 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>73</v>
@@ -8915,13 +9654,13 @@
         <v>73</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -8972,13 +9711,13 @@
         <v>73</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>73</v>
@@ -8989,13 +9728,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9018,13 +9757,13 @@
         <v>73</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -9075,7 +9814,7 @@
         <v>73</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
@@ -9092,13 +9831,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9106,7 +9845,7 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9121,13 +9860,13 @@
         <v>73</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -9178,10 +9917,10 @@
         <v>73</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
@@ -9195,13 +9934,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9224,13 +9963,13 @@
         <v>73</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -9281,7 +10020,7 @@
         <v>73</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -9298,13 +10037,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9312,10 +10051,10 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>73</v>
@@ -9327,13 +10066,13 @@
         <v>73</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -9384,13 +10123,13 @@
         <v>73</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>73</v>
@@ -9401,13 +10140,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9430,13 +10169,13 @@
         <v>73</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -9463,11 +10202,13 @@
         <v>73</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z72" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA72" t="s" s="2">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="AB72" t="s" s="2">
         <v>73</v>
@@ -9485,7 +10226,7 @@
         <v>73</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -9502,13 +10243,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9516,10 +10257,10 @@
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>73</v>
@@ -9534,10 +10275,10 @@
         <v>133</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -9564,11 +10305,13 @@
         <v>73</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z73" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA73" t="s" s="2">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="AB73" t="s" s="2">
         <v>73</v>
@@ -9586,13 +10329,13 @@
         <v>73</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>73</v>
@@ -9603,13 +10346,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9617,7 +10360,7 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>75</v>
@@ -9632,13 +10375,13 @@
         <v>73</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -9689,10 +10432,10 @@
         <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>75</v>
@@ -9706,13 +10449,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9720,7 +10463,7 @@
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -9735,13 +10478,13 @@
         <v>73</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -9768,11 +10511,13 @@
         <v>73</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z75" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA75" t="s" s="2">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="AB75" t="s" s="2">
         <v>73</v>
@@ -9790,10 +10535,10 @@
         <v>73</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
@@ -9807,13 +10552,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9821,7 +10566,7 @@
       </c>
       <c r="F76" s="2"/>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -9836,13 +10581,13 @@
         <v>73</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -9869,11 +10614,13 @@
         <v>73</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z76" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA76" t="s" s="2">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="AB76" t="s" s="2">
         <v>73</v>
@@ -9891,10 +10638,10 @@
         <v>73</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>79</v>
@@ -9908,13 +10655,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -9922,7 +10669,7 @@
       </c>
       <c r="F77" s="2"/>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -9937,13 +10684,13 @@
         <v>73</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -9970,11 +10717,13 @@
         <v>73</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z77" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA77" t="s" s="2">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="AB77" t="s" s="2">
         <v>73</v>
@@ -9992,10 +10741,10 @@
         <v>73</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
@@ -10009,13 +10758,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10023,7 +10772,7 @@
       </c>
       <c r="F78" s="2"/>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -10038,13 +10787,13 @@
         <v>73</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -10071,11 +10820,13 @@
         <v>73</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z78" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA78" t="s" s="2">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>73</v>
@@ -10093,10 +10844,10 @@
         <v>73</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
@@ -10110,13 +10861,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10139,13 +10890,13 @@
         <v>73</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -10196,7 +10947,7 @@
         <v>73</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>74</v>
@@ -10213,13 +10964,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10242,13 +10993,13 @@
         <v>73</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -10299,7 +11050,7 @@
         <v>73</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>74</v>
@@ -10316,13 +11067,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10330,7 +11081,7 @@
       </c>
       <c r="F81" s="2"/>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -10345,13 +11096,13 @@
         <v>73</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -10402,10 +11153,10 @@
         <v>73</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
@@ -10419,13 +11170,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10436,7 +11187,7 @@
         <v>74</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>73</v>
@@ -10448,13 +11199,13 @@
         <v>73</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -10505,30 +11256,30 @@
         <v>73</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10551,13 +11302,13 @@
         <v>73</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>85</v>
+        <v>289</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -10608,7 +11359,7 @@
         <v>73</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>74</v>
@@ -10625,17 +11376,17 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" t="s" s="2">
@@ -10654,17 +11405,15 @@
         <v>73</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>91</v>
+        <v>292</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
         <v>73</v>
@@ -10701,19 +11450,19 @@
         <v>73</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AE84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>74</v>
@@ -10725,54 +11474,50 @@
         <v>73</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
         <v>73</v>
       </c>
@@ -10820,30 +11565,30 @@
         <v>73</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -10866,13 +11611,13 @@
         <v>73</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -10887,7 +11632,7 @@
         <v>73</v>
       </c>
       <c r="U86" t="s" s="2">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="V86" t="s" s="2">
         <v>73</v>
@@ -10899,13 +11644,11 @@
         <v>73</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Z86" s="2"/>
       <c r="AA86" t="s" s="2">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="AB86" t="s" s="2">
         <v>73</v>
@@ -10923,7 +11666,7 @@
         <v>73</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
@@ -10940,13 +11683,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -10969,13 +11712,13 @@
         <v>73</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -11026,7 +11769,7 @@
         <v>73</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
@@ -11043,13 +11786,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11057,7 +11800,7 @@
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -11072,13 +11815,13 @@
         <v>73</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -11105,11 +11848,13 @@
         <v>73</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z88" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA88" t="s" s="2">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="AB88" t="s" s="2">
         <v>73</v>
@@ -11127,10 +11872,10 @@
         <v>73</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
@@ -11144,13 +11889,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11173,13 +11918,13 @@
         <v>73</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -11230,7 +11975,7 @@
         <v>73</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>74</v>
@@ -11247,13 +11992,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11261,10 +12006,10 @@
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>73</v>
@@ -11276,13 +12021,13 @@
         <v>73</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11333,13 +12078,13 @@
         <v>73</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>73</v>
@@ -11350,13 +12095,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11379,13 +12124,13 @@
         <v>73</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -11436,7 +12181,7 @@
         <v>73</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -11453,13 +12198,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11467,10 +12212,10 @@
       </c>
       <c r="F92" s="2"/>
       <c r="G92" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>73</v>
@@ -11482,13 +12227,13 @@
         <v>73</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -11539,13 +12284,13 @@
         <v>73</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>73</v>
@@ -11556,13 +12301,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11585,13 +12330,13 @@
         <v>73</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>195</v>
+        <v>315</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -11618,13 +12363,11 @@
         <v>73</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Z93" s="2"/>
       <c r="AA93" t="s" s="2">
-        <v>73</v>
+        <v>317</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>73</v>
@@ -11642,7 +12385,7 @@
         <v>73</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -11659,13 +12402,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -11688,13 +12431,13 @@
         <v>73</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>197</v>
+        <v>319</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>197</v>
+        <v>319</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -11745,7 +12488,7 @@
         <v>73</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -11762,13 +12505,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -11776,7 +12519,7 @@
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
@@ -11791,13 +12534,13 @@
         <v>73</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>199</v>
+        <v>321</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>199</v>
+        <v>321</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -11848,10 +12591,10 @@
         <v>73</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>79</v>
@@ -11865,13 +12608,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -11894,13 +12637,13 @@
         <v>73</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -11951,7 +12694,7 @@
         <v>73</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>74</v>
@@ -11963,1238 +12706,6 @@
         <v>73</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F97" s="2"/>
-      <c r="G97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R97" s="2"/>
-      <c r="S97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F98" s="2"/>
-      <c r="G98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R98" s="2"/>
-      <c r="S98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z98" s="2"/>
-      <c r="AA98" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F99" s="2"/>
-      <c r="G99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R99" s="2"/>
-      <c r="S99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F100" s="2"/>
-      <c r="G100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R100" s="2"/>
-      <c r="S100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F101" s="2"/>
-      <c r="G101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R101" s="2"/>
-      <c r="S101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F102" s="2"/>
-      <c r="G102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R102" s="2"/>
-      <c r="S102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F103" s="2"/>
-      <c r="G103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R103" s="2"/>
-      <c r="S103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F104" s="2"/>
-      <c r="G104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R104" s="2"/>
-      <c r="S104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F105" s="2"/>
-      <c r="G105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R105" s="2"/>
-      <c r="S105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z105" s="2"/>
-      <c r="AA105" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F106" s="2"/>
-      <c r="G106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R106" s="2"/>
-      <c r="S106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F107" s="2"/>
-      <c r="G107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R107" s="2"/>
-      <c r="S107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F108" s="2"/>
-      <c r="G108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R108" s="2"/>
-      <c r="S108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK108" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:14+00:00</t>
+    <t>2025-05-02T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:57+00:00</t>
+    <t>2025-05-02T14:15:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -347,359 +347,367 @@
     <t>AuthorInstitution.10</t>
   </si>
   <si>
+    <t xml:space="preserve">integer {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/StructIdNat}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifiant de la structure (Struct_IdNat)</t>
+  </si>
+  <si>
+    <t>AuthorPerson</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPerson</t>
+  </si>
+  <si>
+    <t>AuthorPerson (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut représente l’auteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient. </t>
+  </si>
+  <si>
+    <t>AuthorPerson.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat}
+</t>
+  </si>
+  <si>
+    <t>Identifiant (PS_IdNat)</t>
+  </si>
+  <si>
+    <t>AuthorPerson.2</t>
+  </si>
+  <si>
+    <t>Nom d'exercice du professionnel, nom du patient, nom du système.</t>
+  </si>
+  <si>
+    <t>AuthorPerson.3</t>
+  </si>
+  <si>
+    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
+  </si>
+  <si>
+    <t>AuthorPerson.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autorité d’affectation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autorité d’affectation</t>
+  </si>
+  <si>
+    <t>AuthorPerson.10</t>
+  </si>
+  <si>
+    <t>Type de nom : Valeur en fonction de l’auteur : • D, pour les personnes physiques, • U, pour les systèmes.</t>
+  </si>
+  <si>
+    <t>AuthorPerson.13</t>
+  </si>
+  <si>
+    <t>DocumentEntry</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/DocumentEntry</t>
+  </si>
+  <si>
+    <t>Document Entry (LM)</t>
+  </si>
+  <si>
+    <t>Model logique  d’une fiche</t>
+  </si>
+  <si>
+    <t>DocumentEntry.entryUUID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uuid
+</t>
+  </si>
+  <si>
+    <t>Identifiant unique affecté à la version de la fiche référençant le document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.logicalId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente un identifiant invariable pour toutes les versions de la fiche d'un document, à la différence de la métadonnée entryUUID qui a une valeur différente pour chaque version de la fiche</t>
+  </si>
+  <si>
+    <t>DocumentEntry.mimeType</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente le type de contenu du document, défini par le standard MIME.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.availabilityStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente la pertinence de la version de la fiche d'un document. </t>
+  </si>
+  <si>
+    <t>**Availability Status**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J52-AvailabilityStatus-CISIS/FHIR/JDV-J52-AvailabilityStatus-CISIS</t>
+  </si>
+  <si>
+    <t>DocumentEntry.hash</t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient le résultat du hachage du document déposé</t>
+  </si>
+  <si>
+    <t>DocumentEntry.size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée correspond à la taille du document déposé.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.languageCode</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente le code de la langue dans laquelle le document est rédigé.</t>
+  </si>
+  <si>
+    <t>Pour tous les documents produits système initiateur français : 'fr-FR'</t>
+  </si>
+  <si>
+    <t>DocumentEntry.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Author
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente les personnes physiques et/ou les systèmes (dispositifs, automates, services numériques référencés…) auteurs d’un document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/LegalAuthenticator
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l'acteur prenant la responsabilité du contenu médical du document</t>
+  </si>
+  <si>
+    <t>XCN</t>
+  </si>
+  <si>
+    <t>DocumentEntry.repositoryUniqueId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oid
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l'identifiant unique global de l'entrepôt de documents dans lequel est stocké le document</t>
+  </si>
+  <si>
+    <t>DocumentEntry.serviceStartTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente la date de début de l'acte de référence.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.serviceEndTime</t>
+  </si>
+  <si>
+    <t>Cette métadonnée correspond à la date de fin de l'acte de référence, si connue.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SourcePatientId
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient l'identifiant secondaire du patient dans le système d'information du producteur (IPP) ou l'INS, s'il n'y a pas d'identifiant secondaire.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.sourcePatientInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SourcePatientInfo
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient les traits d'identité du patient concerné par le document, connus par le producteur du document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.URI</t>
+  </si>
+  <si>
+    <t>Cette métadonnée n'est exploitée que par la transaction XDM 'Distribute document set on media ITI-32'</t>
+  </si>
+  <si>
+    <t>DocumentEntry.title</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente le titre du document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.comments</t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient le commentaire associé au document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.patientID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PatientId
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.uniqueId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant unique affecté au document par son créateur. </t>
+  </si>
+  <si>
+    <t>Identifiant unique affecté au document par son créateur.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.class</t>
+  </si>
+  <si>
+    <t>class représente la classe du document (compte rendu, imagerie médicale, traitement, certificat, etc.).</t>
+  </si>
+  <si>
+    <t>**Class Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J57-ClassCode-DMP/FHIR/JDV-J57-ClassCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.confidentiality</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Métadonnée contenant les informations définissant le niveau de confidentialité d'un document déposé dans l'entrepôt. Dans le cadre de la mise en œuvre du masquage et de la non-visibilité, ces métadonnées sont utilisées pour rendre inaccessible un document à l'utilisateur</t>
+  </si>
+  <si>
+    <t>**Confidentiality Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J58-ConfidentialityCode-DMP/FHIR/JDV-J58-ConfidentialityCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.eventCodeList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/EventCode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée contient les codes, libellés et codes système représentant :  • un évènement documenté (acte, traitement, diagnostic, etc…), • une modalité d'acquisition (contexte imagerie), • une région anatomique (contexte imagerie). </t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient les codes, libellés et codes système représentant :  • un évènement documenté (acte, traitement, diagnostic, etc…), • une modalité d'acquisition (contexte imagerie), • une région anatomique (contexte imagerie).</t>
+  </si>
+  <si>
+    <t>DocumentEntry.format</t>
+  </si>
+  <si>
+    <t>Métadonnée contenant les informations définissant le format du document.</t>
+  </si>
+  <si>
+    <t>**Format Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J60-FormatCode-DMP/FHIR/JDV-J60-FormatCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.healthcareFacilityTypeCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secteur d'activité lié à la prise en charge de la personne, en lien avec le document produit. </t>
+  </si>
+  <si>
+    <t>Healthcare Facility Type Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J61-HealthcareFacilityTypeCode-DMP/FHIR/JDV-J61-HealthcareFacilityTypeCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.practiceSetting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contexte de l’acte qui a engendré la création du document. </t>
+  </si>
+  <si>
+    <t>**Practice Setting**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J62-PracticeSettingCode-DMP/FHIR/JDV-J62-PracticeSettingCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.type</t>
+  </si>
+  <si>
+    <t>Métadonnée représentant le type du document.</t>
+  </si>
+  <si>
+    <t>**Type Code**</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J66-TypeCode-DMP/FHIR/JDV-J66-TypeCode-DMP</t>
+  </si>
+  <si>
+    <t>DocumentEntry.documentAvailability</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente '’accessibilité du document en indiquant si celui-ci est accessible en ligne ou non</t>
+  </si>
+  <si>
+    <t>DocumentEntry.homeCommunityId</t>
+  </si>
+  <si>
+    <t>Cette métadonnée correspond à l'identifiant de la communauté représentée par le système cible, si celui-ci offre les fonctionnalités de communication avec d'autres communautés, présentées dans le profil XCA d'IHE. Elle n'est pas utilisée par les transactions décrites dans ce volet.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.creationTime</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente la date et l’heure de la création du document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.referenceIdList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base
+</t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient une liste d'un ou plusieurs identifiant(s) d'objet(s) associé(s) au document.</t>
+  </si>
+  <si>
+    <t>DocumentEntry.referenceIdList.CX1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {elementdefinition-identifier}
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Identifiant de la structure (Struct_IdNat)</t>
-  </si>
-  <si>
-    <t>AuthorPerson</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPerson</t>
-  </si>
-  <si>
-    <t>AuthorPerson (LM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cet attribut représente l’auteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient. </t>
-  </si>
-  <si>
-    <t>AuthorPerson.1</t>
-  </si>
-  <si>
-    <t>Identifiant (PS_IdNat)</t>
-  </si>
-  <si>
-    <t>AuthorPerson.2</t>
-  </si>
-  <si>
-    <t>Nom d'exercice du professionnel, nom du patient, nom du système.</t>
-  </si>
-  <si>
-    <t>AuthorPerson.3</t>
-  </si>
-  <si>
-    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
-  </si>
-  <si>
-    <t>AuthorPerson.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Autorité d’affectation </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Autorité d’affectation</t>
-  </si>
-  <si>
-    <t>AuthorPerson.10</t>
-  </si>
-  <si>
-    <t>Type de nom : Valeur en fonction de l’auteur : • D, pour les personnes physiques, • U, pour les systèmes.</t>
-  </si>
-  <si>
-    <t>AuthorPerson.13</t>
-  </si>
-  <si>
-    <t>DocumentEntry</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/DocumentEntry</t>
-  </si>
-  <si>
-    <t>Document Entry (LM)</t>
-  </si>
-  <si>
-    <t>Model logique  d’une fiche</t>
-  </si>
-  <si>
-    <t>DocumentEntry.entryUUID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uuid
-</t>
-  </si>
-  <si>
-    <t>Identifiant unique affecté à la version de la fiche référençant le document.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.logicalId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente un identifiant invariable pour toutes les versions de la fiche d'un document, à la différence de la métadonnée entryUUID qui a une valeur différente pour chaque version de la fiche</t>
-  </si>
-  <si>
-    <t>DocumentEntry.mimeType</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente le type de contenu du document, défini par le standard MIME.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.availabilityStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette métadonnée représente la pertinence de la version de la fiche d'un document. </t>
-  </si>
-  <si>
-    <t>**Availability Status**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J52-AvailabilityStatus-CISIS/FHIR/JDV-J52-AvailabilityStatus-CISIS</t>
-  </si>
-  <si>
-    <t>DocumentEntry.hash</t>
-  </si>
-  <si>
-    <t>Cette métadonnée contient le résultat du hachage du document déposé</t>
-  </si>
-  <si>
-    <t>DocumentEntry.size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>Cette métadonnée correspond à la taille du document déposé.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.languageCode</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente le code de la langue dans laquelle le document est rédigé.</t>
-  </si>
-  <si>
-    <t>Pour tous les documents produits système initiateur français : 'fr-FR'</t>
-  </si>
-  <si>
-    <t>DocumentEntry.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Author
-</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente les personnes physiques et/ou les systèmes (dispositifs, automates, services numériques référencés…) auteurs d’un document.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/LegalAuthenticator
-</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente l'acteur prenant la responsabilité du contenu médical du document</t>
-  </si>
-  <si>
-    <t>XCN</t>
-  </si>
-  <si>
-    <t>DocumentEntry.repositoryUniqueId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oid
-</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente l'identifiant unique global de l'entrepôt de documents dans lequel est stocké le document</t>
-  </si>
-  <si>
-    <t>DocumentEntry.serviceStartTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente la date de début de l'acte de référence.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.serviceEndTime</t>
-  </si>
-  <si>
-    <t>Cette métadonnée correspond à la date de fin de l'acte de référence, si connue.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SourcePatientId
-</t>
-  </si>
-  <si>
-    <t>Cette métadonnée contient l'identifiant secondaire du patient dans le système d'information du producteur (IPP) ou l'INS, s'il n'y a pas d'identifiant secondaire.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.sourcePatientInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SourcePatientInfo
-</t>
-  </si>
-  <si>
-    <t>Cette métadonnée contient les traits d'identité du patient concerné par le document, connus par le producteur du document.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.URI</t>
-  </si>
-  <si>
-    <t>Cette métadonnée n'est exploitée que par la transaction XDM 'Distribute document set on media ITI-32'</t>
-  </si>
-  <si>
-    <t>DocumentEntry.title</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente le titre du document.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.comments</t>
-  </si>
-  <si>
-    <t>Cette métadonnée contient le commentaire associé au document.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.patientID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PatientId
-</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.uniqueId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant unique affecté au document par son créateur. </t>
-  </si>
-  <si>
-    <t>Identifiant unique affecté au document par son créateur.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.class</t>
-  </si>
-  <si>
-    <t>class représente la classe du document (compte rendu, imagerie médicale, traitement, certificat, etc.).</t>
-  </si>
-  <si>
-    <t>**Class Code**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J57-ClassCode-DMP/FHIR/JDV-J57-ClassCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.confidentiality</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Métadonnée contenant les informations définissant le niveau de confidentialité d'un document déposé dans l'entrepôt. Dans le cadre de la mise en œuvre du masquage et de la non-visibilité, ces métadonnées sont utilisées pour rendre inaccessible un document à l'utilisateur</t>
-  </si>
-  <si>
-    <t>**Confidentiality Code**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J58-ConfidentialityCode-DMP/FHIR/JDV-J58-ConfidentialityCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.eventCodeList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/EventCode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette métadonnée contient les codes, libellés et codes système représentant :  • un évènement documenté (acte, traitement, diagnostic, etc…), • une modalité d'acquisition (contexte imagerie), • une région anatomique (contexte imagerie). </t>
-  </si>
-  <si>
-    <t>Cette métadonnée contient les codes, libellés et codes système représentant :  • un évènement documenté (acte, traitement, diagnostic, etc…), • une modalité d'acquisition (contexte imagerie), • une région anatomique (contexte imagerie).</t>
-  </si>
-  <si>
-    <t>DocumentEntry.format</t>
-  </si>
-  <si>
-    <t>Métadonnée contenant les informations définissant le format du document.</t>
-  </si>
-  <si>
-    <t>**Format Code**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J60-FormatCode-DMP/FHIR/JDV-J60-FormatCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.healthcareFacilityTypeCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secteur d'activité lié à la prise en charge de la personne, en lien avec le document produit. </t>
-  </si>
-  <si>
-    <t>Healthcare Facility Type Code**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J61-HealthcareFacilityTypeCode-DMP/FHIR/JDV-J61-HealthcareFacilityTypeCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.practiceSetting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contexte de l’acte qui a engendré la création du document. </t>
-  </si>
-  <si>
-    <t>**Practice Setting**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J62-PracticeSettingCode-DMP/FHIR/JDV-J62-PracticeSettingCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.type</t>
-  </si>
-  <si>
-    <t>Métadonnée représentant le type du document.</t>
-  </si>
-  <si>
-    <t>**Type Code**</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J66-TypeCode-DMP/FHIR/JDV-J66-TypeCode-DMP</t>
-  </si>
-  <si>
-    <t>DocumentEntry.documentAvailability</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente '’accessibilité du document en indiquant si celui-ci est accessible en ligne ou non</t>
-  </si>
-  <si>
-    <t>DocumentEntry.homeCommunityId</t>
-  </si>
-  <si>
-    <t>Cette métadonnée correspond à l'identifiant de la communauté représentée par le système cible, si celui-ci offre les fonctionnalités de communication avec d'autres communautés, présentées dans le profil XCA d'IHE. Elle n'est pas utilisée par les transactions décrites dans ce volet.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.creationTime</t>
-  </si>
-  <si>
-    <t>Cette métadonnée représente la date et l’heure de la création du document.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.referenceIdList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base
-</t>
-  </si>
-  <si>
-    <t>Cette métadonnée contient une liste d'un ou plusieurs identifiant(s) d'objet(s) associé(s) au document.</t>
-  </si>
-  <si>
-    <t>DocumentEntry.referenceIdList.CX1</t>
   </si>
   <si>
     <t>Identifiant de l'objet référencé</t>
@@ -781,6 +789,106 @@
     <t>LegalAuthenticator.13</t>
   </si>
   <si>
+    <t>PSIdNat</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PSIdNat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identification nationale principale du professionnel propre aux SI de l’ANS et au CI-SIS. (Correspondance dans le MOS : idNat_PS) 
+L’identification nationale du PS est construite selon le tableau dessous :
+-  0 + N° ADELI 
+- 1 + Identifiant cabinet ADELI/identifiant interne 
+- 3 + FINESS/identifiant interne 
+- 4 + SIREN/identifiant interne 
+- 5 + SIRET/identifiant interne 
+- 6 + Identifiant cabinet RPPS/identifiant interne 
+- 8 + N° RPPS 
+</t>
+  </si>
+  <si>
+    <t>primitive-type</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/integer</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>Primitive Type integer</t>
+  </si>
+  <si>
+    <t>A whole number</t>
+  </si>
+  <si>
+    <t>32 bit number; for values larger than this, use decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>integer.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>integer.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>integer.value</t>
+  </si>
+  <si>
+    <t>Primitive value for integer</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>-2147483648</t>
+  </si>
+  <si>
+    <t>2147483647</t>
+  </si>
+  <si>
     <t>PatientId</t>
   </si>
   <si>
@@ -916,6 +1024,25 @@
   </si>
   <si>
     <t>Identifiant de la mère du patient</t>
+  </si>
+  <si>
+    <t>StructIdNat</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/StructIdNat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StructIdNat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identification nationale principale d’une structure propre aux SI de l'ANS et au CI-SIS 4. 
+L’identification nationale d’une structure est construite selon le tableau dessous :
+-  0 + Identifiant cabinet ADELI 
+- 1 + N° FINESS 2 + N° SIREN 
+- 3 + N° SIRET 
+- 4 + N° RPPS-rang 
+- Néant + N° technique 
+</t>
   </si>
   <si>
     <t>SubmissionSet</t>
@@ -1152,7 +1279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B210"/>
+  <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1661,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66">
@@ -1669,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67">
@@ -1685,7 +1812,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69">
@@ -1693,7 +1820,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70">
@@ -1747,7 +1874,7 @@
         <v>22</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77">
@@ -1783,7 +1910,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82">
@@ -1823,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87">
@@ -1831,7 +1958,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88">
@@ -1847,7 +1974,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90">
@@ -1855,7 +1982,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91">
@@ -1909,7 +2036,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98">
@@ -1945,7 +2072,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103">
@@ -1985,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108">
@@ -1993,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109">
@@ -2009,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111">
@@ -2017,7 +2144,7 @@
         <v>9</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112">
@@ -2071,7 +2198,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119">
@@ -2107,7 +2234,7 @@
         <v>30</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124">
@@ -2147,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129">
@@ -2155,7 +2282,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130">
@@ -2171,7 +2298,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132">
@@ -2179,7 +2306,7 @@
         <v>9</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133">
@@ -2233,7 +2360,7 @@
         <v>22</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140">
@@ -2261,7 +2388,7 @@
         <v>28</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>29</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144">
@@ -2269,7 +2396,7 @@
         <v>30</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="145">
@@ -2277,7 +2404,7 @@
         <v>31</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>32</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146">
@@ -2293,7 +2420,7 @@
         <v>35</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>36</v>
+        <v>254</v>
       </c>
     </row>
     <row r="148">
@@ -2309,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="150">
@@ -2317,7 +2444,7 @@
         <v>4</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="151">
@@ -2333,7 +2460,7 @@
         <v>8</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153">
@@ -2341,7 +2468,7 @@
         <v>9</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="154">
@@ -2395,7 +2522,7 @@
         <v>22</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="161">
@@ -2431,7 +2558,7 @@
         <v>30</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="166">
@@ -2471,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>262</v>
+        <v>286</v>
       </c>
     </row>
     <row r="171">
@@ -2479,7 +2606,7 @@
         <v>4</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="172">
@@ -2495,7 +2622,7 @@
         <v>8</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>262</v>
+        <v>286</v>
       </c>
     </row>
     <row r="174">
@@ -2503,7 +2630,7 @@
         <v>9</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>264</v>
+        <v>288</v>
       </c>
     </row>
     <row r="175">
@@ -2557,7 +2684,7 @@
         <v>22</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="182">
@@ -2593,7 +2720,7 @@
         <v>30</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="187">
@@ -2633,7 +2760,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="192">
@@ -2641,7 +2768,7 @@
         <v>4</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="193">
@@ -2657,7 +2784,7 @@
         <v>8</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="195">
@@ -2665,7 +2792,7 @@
         <v>9</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="196">
@@ -2719,7 +2846,7 @@
         <v>22</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="203">
@@ -2755,7 +2882,7 @@
         <v>30</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="208">
@@ -2779,6 +2906,330 @@
         <v>35</v>
       </c>
       <c r="B210" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B232" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B247" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B248" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B251" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B252" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -2789,7 +3240,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK96"/>
+  <dimension ref="A1:AK104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2802,7 +3253,7 @@
     <col min="2" max="2" width="35.6015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="35.6015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="7.6796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.83984375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
@@ -2812,7 +3263,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="10.3984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.828125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -4108,13 +4559,13 @@
         <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -4185,10 +4636,10 @@
         <v>109</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -4214,10 +4665,10 @@
         <v>100</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -4268,7 +4719,7 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
@@ -4288,10 +4739,10 @@
         <v>109</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -4317,10 +4768,10 @@
         <v>100</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4371,7 +4822,7 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
@@ -4391,10 +4842,10 @@
         <v>109</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4420,10 +4871,10 @@
         <v>100</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -4474,7 +4925,7 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>79</v>
@@ -4494,10 +4945,10 @@
         <v>109</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4523,10 +4974,10 @@
         <v>100</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4577,7 +5028,7 @@
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
@@ -4597,10 +5048,10 @@
         <v>109</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4680,7 +5131,7 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
@@ -4697,13 +5148,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4729,10 +5180,10 @@
         <v>76</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -4800,13 +5251,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4829,13 +5280,13 @@
         <v>73</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -4886,7 +5337,7 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4903,13 +5354,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4932,13 +5383,13 @@
         <v>73</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4989,7 +5440,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -5006,13 +5457,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -5038,10 +5489,10 @@
         <v>86</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -5092,7 +5543,7 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -5109,13 +5560,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -5141,10 +5592,10 @@
         <v>86</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -5175,7 +5626,7 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>73</v>
@@ -5193,7 +5644,7 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -5210,13 +5661,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -5242,10 +5693,10 @@
         <v>100</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -5296,7 +5747,7 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -5313,13 +5764,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5342,13 +5793,13 @@
         <v>73</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -5399,7 +5850,7 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -5416,13 +5867,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5448,10 +5899,10 @@
         <v>100</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -5502,7 +5953,7 @@
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -5519,13 +5970,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5548,13 +5999,13 @@
         <v>73</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -5605,7 +6056,7 @@
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -5622,13 +6073,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5651,13 +6102,13 @@
         <v>73</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -5708,7 +6159,7 @@
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
@@ -5725,13 +6176,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5754,13 +6205,13 @@
         <v>73</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -5811,7 +6262,7 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5828,13 +6279,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5857,13 +6308,13 @@
         <v>73</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5914,7 +6365,7 @@
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5931,13 +6382,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5960,13 +6411,13 @@
         <v>73</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -6017,7 +6468,7 @@
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -6034,13 +6485,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -6063,13 +6514,13 @@
         <v>73</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -6120,7 +6571,7 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -6137,13 +6588,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -6166,13 +6617,13 @@
         <v>73</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -6223,7 +6674,7 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -6240,13 +6691,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6272,10 +6723,10 @@
         <v>100</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -6326,7 +6777,7 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -6343,13 +6794,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6375,10 +6826,10 @@
         <v>100</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -6429,7 +6880,7 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6446,13 +6897,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6478,10 +6929,10 @@
         <v>100</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -6532,7 +6983,7 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
@@ -6549,13 +7000,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6578,13 +7029,13 @@
         <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -6635,7 +7086,7 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6652,13 +7103,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6681,13 +7132,13 @@
         <v>73</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -6738,7 +7189,7 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6755,13 +7206,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6787,10 +7238,10 @@
         <v>86</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -6821,7 +7272,7 @@
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>73</v>
@@ -6839,7 +7290,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6856,13 +7307,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6873,7 +7324,7 @@
         <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>73</v>
@@ -6888,10 +7339,10 @@
         <v>86</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6922,7 +7373,7 @@
       </c>
       <c r="Z40" s="2"/>
       <c r="AA40" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AB40" t="s" s="2">
         <v>73</v>
@@ -6940,13 +7391,13 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -6957,13 +7408,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6986,13 +7437,13 @@
         <v>73</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -7043,7 +7494,7 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -7060,13 +7511,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7092,10 +7543,10 @@
         <v>86</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -7126,7 +7577,7 @@
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AB42" t="s" s="2">
         <v>73</v>
@@ -7144,7 +7595,7 @@
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7161,13 +7612,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7193,10 +7644,10 @@
         <v>86</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -7227,7 +7678,7 @@
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB43" t="s" s="2">
         <v>73</v>
@@ -7245,7 +7696,7 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -7262,13 +7713,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7294,10 +7745,10 @@
         <v>86</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -7328,7 +7779,7 @@
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AB44" t="s" s="2">
         <v>73</v>
@@ -7346,7 +7797,7 @@
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7363,13 +7814,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7395,10 +7846,10 @@
         <v>86</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -7429,7 +7880,7 @@
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>73</v>
@@ -7447,7 +7898,7 @@
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7464,13 +7915,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7496,10 +7947,10 @@
         <v>100</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -7550,7 +8001,7 @@
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
@@ -7567,13 +8018,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7596,13 +8047,13 @@
         <v>73</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -7653,7 +8104,7 @@
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
@@ -7670,13 +8121,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7699,13 +8150,13 @@
         <v>73</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -7756,7 +8207,7 @@
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -7773,13 +8224,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7802,13 +8253,13 @@
         <v>73</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -7859,7 +8310,7 @@
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
@@ -7876,13 +8327,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7905,13 +8356,13 @@
         <v>73</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7962,7 +8413,7 @@
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -7979,13 +8430,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -8008,13 +8459,13 @@
         <v>73</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -8065,7 +8516,7 @@
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
@@ -8082,13 +8533,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8148,7 +8599,7 @@
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AB52" t="s" s="2">
         <v>73</v>
@@ -8166,7 +8617,7 @@
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
@@ -8183,13 +8634,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8212,13 +8663,13 @@
         <v>73</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -8269,7 +8720,7 @@
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
@@ -8286,13 +8737,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8318,10 +8769,10 @@
         <v>76</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -8389,13 +8840,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8421,10 +8872,10 @@
         <v>86</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -8475,7 +8926,7 @@
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8492,13 +8943,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8524,10 +8975,10 @@
         <v>76</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -8595,13 +9046,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8624,13 +9075,13 @@
         <v>73</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -8681,7 +9132,7 @@
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -8698,13 +9149,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8730,10 +9181,10 @@
         <v>100</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -8784,7 +9235,7 @@
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
@@ -8801,13 +9252,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8833,10 +9284,10 @@
         <v>100</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -8887,7 +9338,7 @@
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -8904,13 +9355,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8936,10 +9387,10 @@
         <v>100</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -8990,7 +9441,7 @@
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -9007,13 +9458,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9039,10 +9490,10 @@
         <v>100</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -9093,7 +9544,7 @@
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -9110,13 +9561,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9196,7 +9647,7 @@
         <v>73</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
@@ -9213,13 +9664,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9245,12 +9696,14 @@
         <v>76</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>73</v>
@@ -9299,7 +9752,7 @@
         <v>73</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
@@ -9311,18 +9764,18 @@
         <v>73</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9330,7 +9783,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9345,13 +9798,13 @@
         <v>73</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -9402,10 +9855,10 @@
         <v>73</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
@@ -9419,24 +9872,24 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>73</v>
+        <v>264</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>73</v>
@@ -9448,15 +9901,17 @@
         <v>73</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
         <v>73</v>
@@ -9505,30 +9960,30 @@
         <v>73</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>73</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9536,7 +9991,7 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9551,13 +10006,13 @@
         <v>73</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -9575,10 +10030,10 @@
         <v>73</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>73</v>
+        <v>275</v>
       </c>
       <c r="X66" t="s" s="2">
         <v>73</v>
@@ -9608,10 +10063,10 @@
         <v>73</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
@@ -9625,13 +10080,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9657,10 +10112,10 @@
         <v>76</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -9728,13 +10183,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9757,13 +10212,13 @@
         <v>73</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -9814,7 +10269,7 @@
         <v>73</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
@@ -9831,13 +10286,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9863,10 +10318,10 @@
         <v>100</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -9917,7 +10372,7 @@
         <v>73</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -9934,13 +10389,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9966,10 +10421,10 @@
         <v>100</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -10020,7 +10475,7 @@
         <v>73</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -10037,13 +10492,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10069,10 +10524,10 @@
         <v>76</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -10140,13 +10595,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10169,13 +10624,13 @@
         <v>73</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -10226,7 +10681,7 @@
         <v>73</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10243,13 +10698,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10257,7 +10712,7 @@
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10272,13 +10727,13 @@
         <v>73</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -10329,10 +10784,10 @@
         <v>73</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
@@ -10346,13 +10801,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10363,7 +10818,7 @@
         <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>73</v>
@@ -10378,10 +10833,10 @@
         <v>100</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -10432,13 +10887,13 @@
         <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>73</v>
@@ -10449,13 +10904,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10466,7 +10921,7 @@
         <v>74</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>73</v>
@@ -10478,13 +10933,13 @@
         <v>73</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -10535,13 +10990,13 @@
         <v>73</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>73</v>
@@ -10552,13 +11007,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10566,7 +11021,7 @@
       </c>
       <c r="F76" s="2"/>
       <c r="G76" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10581,13 +11036,13 @@
         <v>73</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -10638,10 +11093,10 @@
         <v>73</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>79</v>
@@ -10655,13 +11110,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10684,13 +11139,13 @@
         <v>73</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -10741,7 +11196,7 @@
         <v>73</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>74</v>
@@ -10758,13 +11213,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10772,10 +11227,10 @@
       </c>
       <c r="F78" s="2"/>
       <c r="G78" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>73</v>
@@ -10790,10 +11245,10 @@
         <v>100</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -10844,13 +11299,13 @@
         <v>73</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>73</v>
@@ -10861,13 +11316,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10893,10 +11348,10 @@
         <v>100</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -10947,7 +11402,7 @@
         <v>73</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>74</v>
@@ -10964,13 +11419,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10996,10 +11451,10 @@
         <v>100</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -11050,7 +11505,7 @@
         <v>73</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>74</v>
@@ -11067,13 +11522,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11099,10 +11554,10 @@
         <v>100</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -11153,7 +11608,7 @@
         <v>73</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>74</v>
@@ -11170,13 +11625,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11202,10 +11657,10 @@
         <v>100</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -11256,7 +11711,7 @@
         <v>73</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>74</v>
@@ -11273,13 +11728,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11305,10 +11760,10 @@
         <v>100</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -11359,7 +11814,7 @@
         <v>73</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>74</v>
@@ -11376,13 +11831,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11393,7 +11848,7 @@
         <v>74</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>73</v>
@@ -11405,13 +11860,13 @@
         <v>73</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -11462,13 +11917,13 @@
         <v>73</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>73</v>
@@ -11479,13 +11934,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11493,7 +11948,7 @@
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11508,13 +11963,13 @@
         <v>73</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -11565,10 +12020,10 @@
         <v>73</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
@@ -11582,13 +12037,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11596,7 +12051,7 @@
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -11611,13 +12066,13 @@
         <v>73</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -11632,7 +12087,7 @@
         <v>73</v>
       </c>
       <c r="U86" t="s" s="2">
-        <v>299</v>
+        <v>73</v>
       </c>
       <c r="V86" t="s" s="2">
         <v>73</v>
@@ -11644,11 +12099,13 @@
         <v>73</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Z86" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA86" t="s" s="2">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="AB86" t="s" s="2">
         <v>73</v>
@@ -11666,10 +12123,10 @@
         <v>73</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>79</v>
@@ -11683,13 +12140,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11697,7 +12154,7 @@
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -11712,13 +12169,13 @@
         <v>73</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -11769,10 +12226,10 @@
         <v>73</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
@@ -11786,13 +12243,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11803,7 +12260,7 @@
         <v>74</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>73</v>
@@ -11815,15 +12272,17 @@
         <v>73</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
         <v>73</v>
@@ -11872,30 +12331,30 @@
         <v>73</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11921,10 +12380,10 @@
         <v>100</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -11975,7 +12434,7 @@
         <v>73</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>74</v>
@@ -11992,24 +12451,24 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>73</v>
+        <v>264</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>73</v>
@@ -12021,15 +12480,17 @@
         <v>73</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
         <v>73</v>
@@ -12078,30 +12539,30 @@
         <v>73</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>73</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12109,7 +12570,7 @@
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
@@ -12124,13 +12585,13 @@
         <v>73</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -12148,10 +12609,10 @@
         <v>73</v>
       </c>
       <c r="V91" t="s" s="2">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>73</v>
+        <v>275</v>
       </c>
       <c r="X91" t="s" s="2">
         <v>73</v>
@@ -12181,10 +12642,10 @@
         <v>73</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>79</v>
@@ -12198,13 +12659,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12212,10 +12673,10 @@
       </c>
       <c r="F92" s="2"/>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>73</v>
@@ -12227,13 +12688,13 @@
         <v>73</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -12284,13 +12745,13 @@
         <v>73</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>73</v>
@@ -12301,13 +12762,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12330,13 +12791,13 @@
         <v>73</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -12363,11 +12824,13 @@
         <v>73</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Z93" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA93" t="s" s="2">
-        <v>317</v>
+        <v>73</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>73</v>
@@ -12385,7 +12848,7 @@
         <v>73</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -12402,13 +12865,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12431,13 +12894,13 @@
         <v>73</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -12452,7 +12915,7 @@
         <v>73</v>
       </c>
       <c r="U94" t="s" s="2">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="V94" t="s" s="2">
         <v>73</v>
@@ -12464,13 +12927,11 @@
         <v>73</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Z94" s="2"/>
       <c r="AA94" t="s" s="2">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="AB94" t="s" s="2">
         <v>73</v>
@@ -12488,7 +12949,7 @@
         <v>73</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -12505,13 +12966,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12519,7 +12980,7 @@
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
@@ -12534,13 +12995,13 @@
         <v>73</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -12591,10 +13052,10 @@
         <v>73</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>79</v>
@@ -12608,13 +13069,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12625,7 +13086,7 @@
         <v>74</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>73</v>
@@ -12640,10 +13101,10 @@
         <v>100</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -12694,18 +13155,840 @@
         <v>73</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R97" s="2"/>
+      <c r="S97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R98" s="2"/>
+      <c r="S98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R99" s="2"/>
+      <c r="S99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R100" s="2"/>
+      <c r="S100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R101" s="2"/>
+      <c r="S101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="Z101" s="2"/>
+      <c r="AA101" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R102" s="2"/>
+      <c r="S102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H104" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AJ96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK96" t="s" s="2">
+      <c r="I104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R104" s="2"/>
+      <c r="S104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK104" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T11:17:55+00:00</t>
+    <t>2025-05-03T14:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:02:53+00:00</t>
+    <t>2025-05-03T14:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -20233,7 +20233,7 @@
         <v>73</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="M151" t="s" s="2">
         <v>434</v>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5931" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5668" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -24,64 +24,544 @@
     <t>ID</t>
   </si>
   <si>
+    <t>ActorPS</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>ActorPS (LM)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-05-03T15:10:00+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut représente l'acteur  PS. </t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorXDS</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>specialization</t>
+  </si>
+  <si>
+    <t>Structure.ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>ActorPS.XCN1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat)
+</t>
+  </si>
+  <si>
+    <t>Identifiant</t>
+  </si>
+  <si>
+    <t>3750100125/1453</t>
+  </si>
+  <si>
+    <t>ActorXDS.XCN1</t>
+  </si>
+  <si>
+    <t>ActorPS.XCN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Nom d'exercice du professionnel</t>
+  </si>
+  <si>
+    <t>Nom d'exercice du professionnel, nom du patient, nom du système.</t>
+  </si>
+  <si>
+    <t>ActorXDS.XCN2</t>
+  </si>
+  <si>
+    <t>ActorPS.XCN3</t>
+  </si>
+  <si>
+    <t>Prénom usuel de la personne</t>
+  </si>
+  <si>
+    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
+  </si>
+  <si>
+    <t>ActorXDS.XCN3</t>
+  </si>
+  <si>
+    <t>ActorPS.XCN9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autorité d’affectation</t>
+  </si>
+  <si>
+    <t>ActorXDS.XCN9</t>
+  </si>
+  <si>
+    <t>ActorPS.XCN9.composant1</t>
+  </si>
+  <si>
+    <t>Vide, pas de valeur</t>
+  </si>
+  <si>
+    <t>ActorXDS.XCN9.composant1</t>
+  </si>
+  <si>
+    <t>ActorPS.XCN9.composant2</t>
+  </si>
+  <si>
+    <t>1.2.250.1.71.4.2.1 (OID de gestion de personnes)</t>
+  </si>
+  <si>
+    <t>Valeur de Universal ID</t>
+  </si>
+  <si>
+    <t>ActorXDS.XCN9.composant2</t>
+  </si>
+  <si>
+    <t>ActorPS.XCN9.composant3</t>
+  </si>
+  <si>
+    <t>Valeur de Universal ID type (ID)</t>
+  </si>
+  <si>
+    <t>ActorXDS.XCN9.composant3</t>
+  </si>
+  <si>
+    <t>ActorPS.XCN10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Type de nom : Valeur en fonction de l’auteur :  D, pour les personnes physiques, • U, pour les systèmes.</t>
+  </si>
+  <si>
+    <t>ActorXDS.XCN10</t>
+  </si>
+  <si>
+    <t>ActorPS.XCN13</t>
+  </si>
+  <si>
+    <t>IDNPS</t>
+  </si>
+  <si>
+    <t>Type d’identifiant</t>
+  </si>
+  <si>
+    <t>ActorXDS.XCN13</t>
+  </si>
+  <si>
+    <t>ActorPatient</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatient</t>
+  </si>
+  <si>
+    <t>ActorPatient (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut représente l'acteur  Patient. </t>
+  </si>
+  <si>
+    <t>ActorPatient.XCN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS)
+</t>
+  </si>
+  <si>
+    <t>124018852493334</t>
+  </si>
+  <si>
+    <t>ActorPatient.XCN2</t>
+  </si>
+  <si>
+    <t>Nom du patient</t>
+  </si>
+  <si>
+    <t>ActorPatient.XCN3</t>
+  </si>
+  <si>
+    <t>Prénom du patient</t>
+  </si>
+  <si>
+    <t>ActorPatient.XCN9</t>
+  </si>
+  <si>
+    <t>ActorPatient.XCN9.composant1</t>
+  </si>
+  <si>
+    <t>ActorPatient.XCN9.composant2</t>
+  </si>
+  <si>
+    <t>Valeur de l'OID de l’autorité d’affectation de l’identifiant</t>
+  </si>
+  <si>
+    <t>ActorPatient.XCN9.composant3</t>
+  </si>
+  <si>
+    <t>ActorPatient.XCN10</t>
+  </si>
+  <si>
+    <t>ActorPatient.XCN13</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>ActorSNR</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSNR</t>
+  </si>
+  <si>
+    <t>ActorSNR (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut représente l'acteur  SNR. </t>
+  </si>
+  <si>
+    <t>ActorSNR.XCN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR)
+</t>
+  </si>
+  <si>
+    <t>9.8.7.6.5.4.3.2.1</t>
+  </si>
+  <si>
+    <t>ActorSNR.XCN2</t>
+  </si>
+  <si>
+    <t>Nom du système</t>
+  </si>
+  <si>
+    <t>ActorSNR.XCN3</t>
+  </si>
+  <si>
+    <t>Nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
+  </si>
+  <si>
+    <t>ActorSNR.XCN9</t>
+  </si>
+  <si>
+    <t>ActorSNR.XCN9.composant1</t>
+  </si>
+  <si>
+    <t>ActorSNR.XCN9.composant2</t>
+  </si>
+  <si>
+    <t>OID de l'éditeur</t>
+  </si>
+  <si>
+    <t>9.8.7.6.5.4.3.2.1.</t>
+  </si>
+  <si>
+    <t>ActorSNR.XCN9.composant3</t>
+  </si>
+  <si>
+    <t>ActorSNR.XCN10</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>ActorSNR.XCN13</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>ActorSystem</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem</t>
+  </si>
+  <si>
+    <t>ActorSystem (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut représente l'actteur  System. </t>
+  </si>
+  <si>
+    <t>ActorSystem.XCN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme)
+</t>
+  </si>
+  <si>
+    <t>3750100125/88</t>
+  </si>
+  <si>
+    <t>ActorSystem.XCN2</t>
+  </si>
+  <si>
+    <t>ActorSystem.XCN3</t>
+  </si>
+  <si>
+    <t>ActorSystem.XCN9</t>
+  </si>
+  <si>
+    <t>ActorSystem.XCN9.composant1</t>
+  </si>
+  <si>
+    <t>ActorSystem.XCN9.composant2</t>
+  </si>
+  <si>
+    <t>1.2.250.1.71.4.2.1 (OID de gestion de personnes/systèmes)</t>
+  </si>
+  <si>
+    <t>ActorSystem.XCN9.composant3</t>
+  </si>
+  <si>
+    <t>ActorSystem.XCN10</t>
+  </si>
+  <si>
+    <t>ActorSystem.XCN13</t>
+  </si>
+  <si>
+    <t>ActorXDS</t>
+  </si>
+  <si>
+    <t>ActorXDS (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut représente un acteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient. </t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme)
+</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Author</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>0.1.0</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Author (LM)</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2025-05-03T14:33:40+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>FRANCE</t>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t xml:space="preserve">Modèle logique d'un auteur.
@@ -91,176 +571,10 @@
 - Le patient/usager (personne physique) via Mon espace Santé, 
 - Un système de structure (dispositif, automate, appareil connecté…), 
 - Un SNR (Service Numérique Référencé), 
-author est un ensemble constitué des sous-attributs authorInstitution, authorPerson, authorRole et authorSpecialty et ne porte pas de valeur par lui-même. </t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>logical</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Derivation</t>
-  </si>
-  <si>
-    <t>specialization</t>
-  </si>
-  <si>
-    <t>Structure.ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>Base</t>
+author est un ensemble constitué des sous-attributs authorInstitution, ActorXDS, authorRole et authorSpecialty et ne porte pas de valeur par lui-même. </t>
   </si>
   <si>
     <t>Author.institution</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorInstitution
@@ -273,7 +587,7 @@
     <t>Author.person</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonPS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonPatient|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonSNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonSystem)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatient|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem)
 </t>
   </si>
   <si>
@@ -327,10 +641,6 @@
     <t>AuthorInstitution.XON1</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Nom de la structure</t>
   </si>
   <si>
@@ -340,42 +650,22 @@
     <t>AuthorInstitution.XON6</t>
   </si>
   <si>
-    <t xml:space="preserve">Base
-</t>
-  </si>
-  <si>
     <t>Autorité d’affectation</t>
   </si>
   <si>
     <t>AuthorInstitution.XON6.composant1</t>
   </si>
   <si>
-    <t>Vide, pas de valeur</t>
-  </si>
-  <si>
     <t>AuthorInstitution.XON6.composant2</t>
   </si>
   <si>
-    <t>Valeur de Universal ID</t>
-  </si>
-  <si>
     <t>1.3.2 (OID SIRENE)</t>
   </si>
   <si>
     <t>AuthorInstitution.XON6.composant3</t>
   </si>
   <si>
-    <t>Valeur de Universal ID type (ID)</t>
-  </si>
-  <si>
     <t>AuthorInstitution.XON7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Type d’identifiant</t>
   </si>
   <si>
     <t>SIREN</t>
@@ -391,296 +681,6 @@
     <t xml:space="preserve"> Identifiant de la structure (Struct_IdNat)</t>
   </si>
   <si>
-    <t>AuthorPerson</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPerson</t>
-  </si>
-  <si>
-    <t>AuthorPerson (LM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cet attribut représente l’auteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient. </t>
-  </si>
-  <si>
-    <t>AuthorPerson.XCN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme)
-</t>
-  </si>
-  <si>
-    <t>Identifiant</t>
-  </si>
-  <si>
-    <t>AuthorPerson.XCN2</t>
-  </si>
-  <si>
-    <t>Nom d'exercice du professionnel, nom du patient, nom du système.</t>
-  </si>
-  <si>
-    <t>AuthorPerson.XCN3</t>
-  </si>
-  <si>
-    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
-  </si>
-  <si>
-    <t>AuthorPerson.XCN9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Autorité d’affectation</t>
-  </si>
-  <si>
-    <t>AuthorPerson.XCN9.composant1</t>
-  </si>
-  <si>
-    <t>AuthorPerson.XCN9.composant2</t>
-  </si>
-  <si>
-    <t>AuthorPerson.XCN9.composant3</t>
-  </si>
-  <si>
-    <t>AuthorPerson.XCN10</t>
-  </si>
-  <si>
-    <t>Type de nom : Valeur en fonction de l’auteur :  D, pour les personnes physiques, • U, pour les systèmes.</t>
-  </si>
-  <si>
-    <t>AuthorPerson.XCN13</t>
-  </si>
-  <si>
-    <t>AuthorPersonPS</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonPS</t>
-  </si>
-  <si>
-    <t>AuthorPersonPS (LM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cet attribut représente l’auteur PS. </t>
-  </si>
-  <si>
-    <t>AuthorPersonPS.XCN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat)
-</t>
-  </si>
-  <si>
-    <t>3750100125/1453</t>
-  </si>
-  <si>
-    <t>AuthorPersonPS.XCN2</t>
-  </si>
-  <si>
-    <t>Nom d'exercice du professionnel</t>
-  </si>
-  <si>
-    <t>AuthorPersonPS.XCN3</t>
-  </si>
-  <si>
-    <t>Prénom usuel de la personne</t>
-  </si>
-  <si>
-    <t>AuthorPersonPS.XCN9</t>
-  </si>
-  <si>
-    <t>AuthorPersonPS.XCN9.composant1</t>
-  </si>
-  <si>
-    <t>AuthorPersonPS.XCN9.composant2</t>
-  </si>
-  <si>
-    <t>1.2.250.1.71.4.2.1 (OID de gestion de personnes)</t>
-  </si>
-  <si>
-    <t>AuthorPersonPS.XCN9.composant3</t>
-  </si>
-  <si>
-    <t>AuthorPersonPS.XCN10</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>AuthorPersonPS.XCN13</t>
-  </si>
-  <si>
-    <t>IDNPS</t>
-  </si>
-  <si>
-    <t>AuthorPersonPatient</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonPatient</t>
-  </si>
-  <si>
-    <t>AuthorPersonPatient (LM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cet attribut représente l’auteur Patient. </t>
-  </si>
-  <si>
-    <t>AuthorPersonPatient.XCN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS)
-</t>
-  </si>
-  <si>
-    <t>124018852493334</t>
-  </si>
-  <si>
-    <t>AuthorPersonPatient.XCN2</t>
-  </si>
-  <si>
-    <t>Nom du patient</t>
-  </si>
-  <si>
-    <t>AuthorPersonPatient.XCN3</t>
-  </si>
-  <si>
-    <t>Prénom du patient</t>
-  </si>
-  <si>
-    <t>AuthorPersonPatient.XCN9</t>
-  </si>
-  <si>
-    <t>AuthorPersonPatient.XCN9.composant1</t>
-  </si>
-  <si>
-    <t>AuthorPersonPatient.XCN9.composant2</t>
-  </si>
-  <si>
-    <t>Valeur de l'OID de l’autorité d’affectation de l’identifiant</t>
-  </si>
-  <si>
-    <t>AuthorPersonPatient.XCN9.composant3</t>
-  </si>
-  <si>
-    <t>AuthorPersonPatient.XCN10</t>
-  </si>
-  <si>
-    <t>AuthorPersonPatient.XCN13</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>AuthorPersonSNR</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonSNR</t>
-  </si>
-  <si>
-    <t>AuthorPersonSNR (LM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cet attribut représente l’auteur SNR. </t>
-  </si>
-  <si>
-    <t>AuthorPersonSNR.XCN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR)
-</t>
-  </si>
-  <si>
-    <t>9.8.7.6.5.4.3.2.1</t>
-  </si>
-  <si>
-    <t>AuthorPersonSNR.XCN2</t>
-  </si>
-  <si>
-    <t>Nom du système</t>
-  </si>
-  <si>
-    <t>AuthorPersonSNR.XCN3</t>
-  </si>
-  <si>
-    <t>Nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
-  </si>
-  <si>
-    <t>AuthorPersonSNR.XCN9</t>
-  </si>
-  <si>
-    <t>AuthorPersonSNR.XCN9.composant1</t>
-  </si>
-  <si>
-    <t>AuthorPersonSNR.XCN9.composant2</t>
-  </si>
-  <si>
-    <t>OID de l'éditeur</t>
-  </si>
-  <si>
-    <t>9.8.7.6.5.4.3.2.1.</t>
-  </si>
-  <si>
-    <t>AuthorPersonSNR.XCN9.composant3</t>
-  </si>
-  <si>
-    <t>AuthorPersonSNR.XCN10</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>AuthorPersonSNR.XCN13</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>AuthorPersonSystem</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonSystem</t>
-  </si>
-  <si>
-    <t>AuthorPersonSystem (LM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cet attribut représente l’auteur System. </t>
-  </si>
-  <si>
-    <t>AuthorPersonSystem.XCN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme)
-</t>
-  </si>
-  <si>
-    <t>3750100125/88</t>
-  </si>
-  <si>
-    <t>AuthorPersonSystem.XCN2</t>
-  </si>
-  <si>
-    <t>AuthorPersonSystem.XCN3</t>
-  </si>
-  <si>
-    <t>AuthorPersonSystem.XCN9</t>
-  </si>
-  <si>
-    <t>AuthorPersonSystem.XCN9.composant1</t>
-  </si>
-  <si>
-    <t>AuthorPersonSystem.XCN9.composant2</t>
-  </si>
-  <si>
-    <t>1.2.250.1.71.4.2.1 (OID de gestion de personnes/systèmes)</t>
-  </si>
-  <si>
-    <t>AuthorPersonSystem.XCN9.composant3</t>
-  </si>
-  <si>
-    <t>AuthorPersonSystem.XCN10</t>
-  </si>
-  <si>
-    <t>AuthorPersonSystem.XCN13</t>
-  </si>
-  <si>
     <t>DocumentEntry</t>
   </si>
   <si>
@@ -769,7 +769,7 @@
     <t>DocumentEntry.legalAuthenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/LegalAuthenticator
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatient|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem)
 </t>
   </si>
   <si>
@@ -1123,52 +1123,6 @@
   </si>
   <si>
     <t>2147483647</t>
-  </si>
-  <si>
-    <t>LegalAuthenticator</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/LegalAuthenticator</t>
-  </si>
-  <si>
-    <t>LegalAuthenticator (LM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette métadonnée représente l’acteur prenant la responsabilité du contenu médical du document : 
--  soit le professionnel qui prend la responsabilité du document (CDA ou DICOM KOS) produit par un professionnel (lui-même ou un autre) ou par un système rattaché à une structure (ES, …). 
--  soit le patient/usager responsable du document d'expression personnelle • soit un système : exceptionnellement et uniquement pour le cas ci-dessous : 
-  - système via un SNR responsable du document produit via ce SNR. </t>
-  </si>
-  <si>
-    <t>LegalAuthenticator.XCN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat}
-</t>
-  </si>
-  <si>
-    <t>Identifiant (PS_IdNat)</t>
-  </si>
-  <si>
-    <t>LegalAuthenticator.XCN2</t>
-  </si>
-  <si>
-    <t>LegalAuthenticator.XCN3</t>
-  </si>
-  <si>
-    <t>LegalAuthenticator.XCN9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Autorité d’affectation </t>
-  </si>
-  <si>
-    <t>LegalAuthenticator.XCN10</t>
-  </si>
-  <si>
-    <t>Type de nom : Valeur en fonction de l’auteur : • D, pour les personnes physiques, • U, pour les systèmes.</t>
-  </si>
-  <si>
-    <t>LegalAuthenticator.XCN13</t>
   </si>
   <si>
     <t>MatriculeINS</t>
@@ -1601,7 +1555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B399"/>
+  <dimension ref="A1:B378"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1786,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
@@ -1794,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -1810,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -1818,7 +1772,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -1872,7 +1826,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -1908,7 +1862,7 @@
         <v>30</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45">
@@ -1956,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46">
@@ -1972,7 +1926,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48">
@@ -1980,7 +1934,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49">
@@ -2034,7 +1988,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
@@ -2070,7 +2024,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -2110,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66">
@@ -2118,7 +2072,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67">
@@ -2134,7 +2088,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69">
@@ -2142,7 +2096,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70">
@@ -2196,7 +2150,7 @@
         <v>22</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
@@ -2232,7 +2186,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82">
@@ -2240,7 +2194,7 @@
         <v>31</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>121</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -2272,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87">
@@ -2280,7 +2234,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>160</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -2296,7 +2250,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90">
@@ -2304,7 +2258,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91">
@@ -2358,7 +2312,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98">
@@ -2394,7 +2348,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>160</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -2402,7 +2356,7 @@
         <v>31</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>121</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104">
@@ -2434,7 +2388,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108">
@@ -2442,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109">
@@ -2458,7 +2412,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111">
@@ -2466,7 +2420,7 @@
         <v>9</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112">
@@ -2520,7 +2474,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119">
@@ -2556,7 +2510,7 @@
         <v>30</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124">
@@ -2564,7 +2518,7 @@
         <v>31</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>121</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125">
@@ -2596,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129">
@@ -2604,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130">
@@ -2620,7 +2574,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132">
@@ -2628,7 +2582,7 @@
         <v>9</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133">
@@ -2682,7 +2636,7 @@
         <v>22</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140">
@@ -2718,7 +2672,7 @@
         <v>30</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145">
@@ -2726,7 +2680,7 @@
         <v>31</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>121</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146">
@@ -2888,7 +2842,7 @@
         <v>31</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>32</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167">
@@ -3050,7 +3004,7 @@
         <v>31</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>32</v>
+        <v>175</v>
       </c>
     </row>
     <row r="188">
@@ -3358,7 +3312,7 @@
         <v>28</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>29</v>
+        <v>329</v>
       </c>
     </row>
     <row r="228">
@@ -3366,7 +3320,7 @@
         <v>30</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="229">
@@ -3374,7 +3328,7 @@
         <v>31</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>32</v>
+        <v>331</v>
       </c>
     </row>
     <row r="230">
@@ -3390,7 +3344,7 @@
         <v>35</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>36</v>
+        <v>332</v>
       </c>
     </row>
     <row r="232">
@@ -3406,7 +3360,7 @@
         <v>2</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="234">
@@ -3414,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="235">
@@ -3430,7 +3384,7 @@
         <v>8</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="237">
@@ -3438,7 +3392,7 @@
         <v>9</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="238">
@@ -3492,7 +3446,7 @@
         <v>22</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="245">
@@ -3568,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="255">
@@ -3576,7 +3530,7 @@
         <v>4</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="256">
@@ -3592,7 +3546,7 @@
         <v>8</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="258">
@@ -3600,7 +3554,7 @@
         <v>9</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="259">
@@ -3654,7 +3608,7 @@
         <v>22</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="266">
@@ -3682,7 +3636,7 @@
         <v>28</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>329</v>
+        <v>29</v>
       </c>
     </row>
     <row r="270">
@@ -3690,7 +3644,7 @@
         <v>30</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>330</v>
+        <v>363</v>
       </c>
     </row>
     <row r="271">
@@ -3698,7 +3652,7 @@
         <v>31</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>331</v>
+        <v>175</v>
       </c>
     </row>
     <row r="272">
@@ -3714,7 +3668,7 @@
         <v>35</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>332</v>
+        <v>36</v>
       </c>
     </row>
     <row r="274">
@@ -3730,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="276">
@@ -3738,7 +3692,7 @@
         <v>4</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="277">
@@ -3754,7 +3708,7 @@
         <v>8</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="279">
@@ -3762,7 +3716,7 @@
         <v>9</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="280">
@@ -3816,7 +3770,7 @@
         <v>22</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="287">
@@ -3844,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>29</v>
+        <v>329</v>
       </c>
     </row>
     <row r="291">
@@ -3852,7 +3806,7 @@
         <v>30</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>377</v>
+        <v>330</v>
       </c>
     </row>
     <row r="292">
@@ -3860,7 +3814,7 @@
         <v>31</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>32</v>
+        <v>331</v>
       </c>
     </row>
     <row r="293">
@@ -3876,7 +3830,7 @@
         <v>35</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>36</v>
+        <v>332</v>
       </c>
     </row>
     <row r="295">
@@ -3892,7 +3846,7 @@
         <v>2</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="297">
@@ -3900,7 +3854,7 @@
         <v>4</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="298">
@@ -3916,7 +3870,7 @@
         <v>8</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="300">
@@ -3924,7 +3878,7 @@
         <v>9</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="301">
@@ -3978,7 +3932,7 @@
         <v>22</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="308">
@@ -4006,7 +3960,7 @@
         <v>28</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>329</v>
+        <v>29</v>
       </c>
     </row>
     <row r="312">
@@ -4014,7 +3968,7 @@
         <v>30</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>330</v>
+        <v>377</v>
       </c>
     </row>
     <row r="313">
@@ -4022,7 +3976,7 @@
         <v>31</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>331</v>
+        <v>175</v>
       </c>
     </row>
     <row r="314">
@@ -4038,7 +3992,7 @@
         <v>35</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>332</v>
+        <v>36</v>
       </c>
     </row>
     <row r="316">
@@ -4054,7 +4008,7 @@
         <v>2</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="318">
@@ -4062,7 +4016,7 @@
         <v>4</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="319">
@@ -4078,7 +4032,7 @@
         <v>8</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="321">
@@ -4086,7 +4040,7 @@
         <v>9</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="322">
@@ -4140,7 +4094,7 @@
         <v>22</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="329">
@@ -4176,7 +4130,7 @@
         <v>30</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="334">
@@ -4184,7 +4138,7 @@
         <v>31</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>32</v>
+        <v>175</v>
       </c>
     </row>
     <row r="335">
@@ -4216,7 +4170,7 @@
         <v>2</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="339">
@@ -4224,7 +4178,7 @@
         <v>4</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="340">
@@ -4240,7 +4194,7 @@
         <v>8</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="342">
@@ -4248,7 +4202,7 @@
         <v>9</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="343">
@@ -4302,7 +4256,7 @@
         <v>22</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="350">
@@ -4330,7 +4284,7 @@
         <v>28</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>29</v>
+        <v>329</v>
       </c>
     </row>
     <row r="354">
@@ -4338,7 +4292,7 @@
         <v>30</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>398</v>
+        <v>330</v>
       </c>
     </row>
     <row r="355">
@@ -4346,7 +4300,7 @@
         <v>31</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>32</v>
+        <v>331</v>
       </c>
     </row>
     <row r="356">
@@ -4362,7 +4316,7 @@
         <v>35</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>36</v>
+        <v>332</v>
       </c>
     </row>
     <row r="358">
@@ -4378,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="360">
@@ -4386,7 +4340,7 @@
         <v>4</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="361">
@@ -4402,7 +4356,7 @@
         <v>8</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="363">
@@ -4410,7 +4364,7 @@
         <v>9</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="364">
@@ -4464,7 +4418,7 @@
         <v>22</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="371">
@@ -4492,7 +4446,7 @@
         <v>28</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>329</v>
+        <v>29</v>
       </c>
     </row>
     <row r="375">
@@ -4500,7 +4454,7 @@
         <v>30</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>330</v>
+        <v>414</v>
       </c>
     </row>
     <row r="376">
@@ -4508,7 +4462,7 @@
         <v>31</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>331</v>
+        <v>175</v>
       </c>
     </row>
     <row r="377">
@@ -4524,168 +4478,6 @@
         <v>35</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B379" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B380" t="s" s="2">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B381" t="s" s="2">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B382" t="s" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B383" t="s" s="2">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="B384" t="s" s="2">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B385" t="s" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B386" s="2"/>
-    </row>
-    <row r="387">
-      <c r="A387" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B387" t="s" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B388" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B389" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B390" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B391" t="s" s="2">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B392" s="2"/>
-    </row>
-    <row r="393">
-      <c r="A393" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B393" s="2"/>
-    </row>
-    <row r="394">
-      <c r="A394" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B394" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B395" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B396" t="s" s="2">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B397" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B398" t="s" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B399" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -4696,7 +4488,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK161"/>
+  <dimension ref="A1:AK154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4705,7 +4497,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.38671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.6015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="35.6015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4974,7 +4766,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
@@ -5010,7 +4802,7 @@
         <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s" s="2">
         <v>73</v>
@@ -5046,10 +4838,10 @@
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -5066,10 +4858,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -5092,13 +4884,13 @@
         <v>73</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -5149,7 +4941,7 @@
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>79</v>
@@ -5169,10 +4961,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -5195,13 +4987,13 @@
         <v>73</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -5228,11 +5020,13 @@
         <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Z5" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA5" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
         <v>73</v>
@@ -5250,7 +5044,7 @@
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
@@ -5270,10 +5064,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -5281,7 +5075,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -5296,13 +5090,13 @@
         <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -5329,11 +5123,13 @@
         <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Z6" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA6" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>73</v>
@@ -5351,10 +5147,10 @@
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
@@ -5368,13 +5164,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -5382,10 +5178,10 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>73</v>
@@ -5397,10 +5193,10 @@
         <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s" s="2">
         <v>98</v>
@@ -5454,13 +5250,13 @@
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>73</v>
@@ -5471,13 +5267,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -5500,13 +5296,13 @@
         <v>73</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s" s="2">
         <v>101</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -5521,7 +5317,7 @@
         <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
         <v>73</v>
@@ -5557,7 +5353,7 @@
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>79</v>
@@ -5574,13 +5370,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -5603,7 +5399,7 @@
         <v>73</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s" s="2">
         <v>105</v>
@@ -5660,7 +5456,7 @@
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>79</v>
@@ -5677,13 +5473,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -5706,13 +5502,13 @@
         <v>73</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -5763,7 +5559,7 @@
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>79</v>
@@ -5780,13 +5576,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -5809,13 +5605,13 @@
         <v>73</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -5830,7 +5626,7 @@
         <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
         <v>73</v>
@@ -5866,7 +5662,7 @@
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>79</v>
@@ -5883,13 +5679,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -5897,10 +5693,10 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>73</v>
@@ -5912,13 +5708,13 @@
         <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -5969,13 +5765,13 @@
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>73</v>
@@ -5986,13 +5782,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -6015,13 +5811,13 @@
         <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -6036,7 +5832,7 @@
         <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="V13" t="s" s="2">
         <v>73</v>
@@ -6072,7 +5868,7 @@
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
@@ -6089,13 +5885,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -6118,13 +5914,13 @@
         <v>73</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -6175,7 +5971,7 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
@@ -6192,13 +5988,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -6206,10 +6002,10 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>73</v>
@@ -6221,13 +6017,13 @@
         <v>73</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -6278,13 +6074,13 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
@@ -6295,13 +6091,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -6324,13 +6120,13 @@
         <v>73</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -6381,7 +6177,7 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>79</v>
@@ -6398,13 +6194,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -6427,13 +6223,13 @@
         <v>73</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -6484,7 +6280,7 @@
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
@@ -6501,7 +6297,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>129</v>
@@ -6530,13 +6326,13 @@
         <v>73</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>130</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -6587,7 +6383,7 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
@@ -6604,7 +6400,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>131</v>
@@ -6633,13 +6429,13 @@
         <v>73</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -6690,7 +6486,7 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
@@ -6707,13 +6503,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -6736,13 +6532,13 @@
         <v>73</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -6793,7 +6589,7 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -6810,13 +6606,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -6839,13 +6635,13 @@
         <v>73</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -6896,7 +6692,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -6913,7 +6709,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>135</v>
@@ -6927,10 +6723,10 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>73</v>
@@ -6942,13 +6738,13 @@
         <v>73</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -6999,13 +6795,13 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>73</v>
@@ -7016,13 +6812,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -7045,13 +6841,13 @@
         <v>73</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -7066,7 +6862,7 @@
         <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="V23" t="s" s="2">
         <v>73</v>
@@ -7102,7 +6898,7 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -7119,13 +6915,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -7148,13 +6944,13 @@
         <v>73</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -7205,7 +7001,7 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -7222,13 +7018,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -7236,10 +7032,10 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>73</v>
@@ -7251,13 +7047,13 @@
         <v>73</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -7308,13 +7104,13 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -7325,13 +7121,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -7354,13 +7150,13 @@
         <v>73</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -7375,7 +7171,7 @@
         <v>73</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="V26" t="s" s="2">
         <v>73</v>
@@ -7411,7 +7207,7 @@
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -7428,13 +7224,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -7457,13 +7253,13 @@
         <v>73</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -7514,7 +7310,7 @@
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -7531,7 +7327,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>148</v>
@@ -7560,13 +7356,13 @@
         <v>73</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>149</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -7581,7 +7377,7 @@
         <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="V28" t="s" s="2">
         <v>73</v>
@@ -7617,7 +7413,7 @@
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
@@ -7634,13 +7430,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -7663,13 +7459,13 @@
         <v>73</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -7720,7 +7516,7 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -7737,13 +7533,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -7766,13 +7562,13 @@
         <v>73</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -7823,7 +7619,7 @@
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -7840,13 +7636,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -7869,13 +7665,13 @@
         <v>73</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -7926,7 +7722,7 @@
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -7943,13 +7739,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -7957,10 +7753,10 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>73</v>
@@ -7972,13 +7768,13 @@
         <v>73</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -8029,13 +7825,13 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>73</v>
@@ -8046,13 +7842,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -8075,13 +7871,13 @@
         <v>73</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -8096,7 +7892,7 @@
         <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="V33" t="s" s="2">
         <v>73</v>
@@ -8132,7 +7928,7 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -8149,13 +7945,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -8178,13 +7974,13 @@
         <v>73</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -8235,7 +8031,7 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -8252,13 +8048,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -8266,10 +8062,10 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>73</v>
@@ -8281,13 +8077,13 @@
         <v>73</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -8338,13 +8134,13 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>73</v>
@@ -8355,13 +8151,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -8384,13 +8180,13 @@
         <v>73</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -8405,7 +8201,7 @@
         <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
         <v>73</v>
@@ -8441,7 +8237,7 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -8458,7 +8254,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>166</v>
@@ -8487,13 +8283,13 @@
         <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -8544,7 +8340,7 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -8561,13 +8357,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -8590,13 +8386,13 @@
         <v>73</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -8647,7 +8443,7 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -8664,13 +8460,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -8693,13 +8489,13 @@
         <v>73</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -8750,7 +8546,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -8767,13 +8563,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -8796,13 +8592,13 @@
         <v>73</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -8853,7 +8649,7 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -8870,13 +8666,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -8899,13 +8695,13 @@
         <v>73</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -8956,7 +8752,7 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -8973,13 +8769,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -8987,10 +8783,10 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>73</v>
@@ -9002,13 +8798,13 @@
         <v>73</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -9059,13 +8855,13 @@
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>73</v>
@@ -9076,13 +8872,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -9105,13 +8901,13 @@
         <v>73</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -9162,7 +8958,7 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -9179,13 +8975,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -9208,13 +9004,13 @@
         <v>73</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -9265,7 +9061,7 @@
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -9282,13 +9078,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -9296,10 +9092,10 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>73</v>
@@ -9311,13 +9107,13 @@
         <v>73</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -9368,13 +9164,13 @@
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>73</v>
@@ -9385,13 +9181,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -9414,13 +9210,13 @@
         <v>73</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -9435,7 +9231,7 @@
         <v>73</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="V46" t="s" s="2">
         <v>73</v>
@@ -9471,7 +9267,7 @@
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -9488,13 +9284,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -9517,13 +9313,13 @@
         <v>73</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -9574,7 +9370,7 @@
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -9591,13 +9387,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -9620,13 +9416,13 @@
         <v>73</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -9677,7 +9473,7 @@
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -9694,13 +9490,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -9723,13 +9519,13 @@
         <v>73</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -9780,7 +9576,7 @@
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -9797,13 +9593,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -9826,13 +9622,13 @@
         <v>73</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -9883,7 +9679,7 @@
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -9900,13 +9696,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -9929,13 +9725,13 @@
         <v>73</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -9950,7 +9746,7 @@
         <v>73</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="V51" t="s" s="2">
         <v>73</v>
@@ -9986,7 +9782,7 @@
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
@@ -10003,13 +9799,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -10017,10 +9813,10 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>73</v>
@@ -10032,13 +9828,13 @@
         <v>73</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -10089,13 +9885,13 @@
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>73</v>
@@ -10106,13 +9902,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -10120,7 +9916,7 @@
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -10135,13 +9931,13 @@
         <v>73</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -10192,10 +9988,10 @@
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -10209,13 +10005,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -10238,13 +10034,13 @@
         <v>73</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -10295,7 +10091,7 @@
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -10312,13 +10108,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -10326,10 +10122,10 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>73</v>
@@ -10341,13 +10137,13 @@
         <v>73</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -10374,13 +10170,11 @@
         <v>73</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z55" s="2"/>
       <c r="AA55" t="s" s="2">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="AB55" t="s" s="2">
         <v>73</v>
@@ -10398,13 +10192,13 @@
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>73</v>
@@ -10415,13 +10209,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -10429,7 +10223,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -10444,13 +10238,13 @@
         <v>73</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -10465,7 +10259,7 @@
         <v>73</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="V56" t="s" s="2">
         <v>73</v>
@@ -10477,13 +10271,11 @@
         <v>73</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z56" s="2"/>
       <c r="AA56" t="s" s="2">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="AB56" t="s" s="2">
         <v>73</v>
@@ -10501,10 +10293,10 @@
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
@@ -10518,13 +10310,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -10532,10 +10324,10 @@
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>73</v>
@@ -10547,13 +10339,13 @@
         <v>73</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -10604,13 +10396,13 @@
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
@@ -10621,13 +10413,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -10650,13 +10442,13 @@
         <v>73</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -10671,7 +10463,7 @@
         <v>73</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="V58" t="s" s="2">
         <v>73</v>
@@ -10707,7 +10499,7 @@
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
@@ -10724,13 +10516,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -10753,13 +10545,13 @@
         <v>73</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -10810,7 +10602,7 @@
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -10827,13 +10619,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -10856,13 +10648,13 @@
         <v>73</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -10913,7 +10705,7 @@
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -10930,13 +10722,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -10959,13 +10751,13 @@
         <v>73</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -10980,7 +10772,7 @@
         <v>73</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="V61" t="s" s="2">
         <v>73</v>
@@ -11016,7 +10808,7 @@
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -11033,13 +10825,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -11062,13 +10854,13 @@
         <v>73</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -11119,7 +10911,7 @@
         <v>73</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
@@ -11136,13 +10928,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -11165,13 +10957,13 @@
         <v>73</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="N63" t="s" s="2">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -11186,7 +10978,7 @@
         <v>73</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="V63" t="s" s="2">
         <v>73</v>
@@ -11222,7 +11014,7 @@
         <v>73</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -11239,13 +11031,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -11268,13 +11060,13 @@
         <v>73</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -11325,7 +11117,7 @@
         <v>73</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -11680,7 +11472,7 @@
         <v>73</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>226</v>
@@ -11783,7 +11575,7 @@
         <v>73</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>228</v>
@@ -11816,7 +11608,7 @@
         <v>73</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" t="s" s="2">
@@ -11884,7 +11676,7 @@
         <v>73</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>232</v>
@@ -12090,7 +11882,7 @@
         <v>73</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>237</v>
@@ -12914,7 +12706,7 @@
         <v>73</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>261</v>
@@ -13017,7 +12809,7 @@
         <v>73</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>263</v>
@@ -13120,7 +12912,7 @@
         <v>73</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>265</v>
@@ -13429,7 +13221,7 @@
         <v>73</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>273</v>
@@ -13462,7 +13254,7 @@
         <v>73</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="Z85" s="2"/>
       <c r="AA85" t="s" s="2">
@@ -13530,7 +13322,7 @@
         <v>73</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>278</v>
@@ -13563,7 +13355,7 @@
         <v>73</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="Z86" s="2"/>
       <c r="AA86" t="s" s="2">
@@ -13734,7 +13526,7 @@
         <v>73</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>286</v>
@@ -13767,7 +13559,7 @@
         <v>73</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="Z88" s="2"/>
       <c r="AA88" t="s" s="2">
@@ -13835,7 +13627,7 @@
         <v>73</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>290</v>
@@ -13868,7 +13660,7 @@
         <v>73</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="Z89" s="2"/>
       <c r="AA89" t="s" s="2">
@@ -13936,7 +13728,7 @@
         <v>73</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>294</v>
@@ -13969,7 +13761,7 @@
         <v>73</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="Z90" s="2"/>
       <c r="AA90" t="s" s="2">
@@ -14037,7 +13829,7 @@
         <v>73</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>298</v>
@@ -14070,7 +13862,7 @@
         <v>73</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="Z91" s="2"/>
       <c r="AA91" t="s" s="2">
@@ -14138,7 +13930,7 @@
         <v>73</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>302</v>
@@ -14447,7 +14239,7 @@
         <v>73</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>308</v>
@@ -14756,13 +14548,13 @@
         <v>73</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -14789,7 +14581,7 @@
         <v>73</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="Z98" s="2"/>
       <c r="AA98" t="s" s="2">
@@ -15063,7 +14855,7 @@
         <v>73</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>323</v>
@@ -15271,7 +15063,7 @@
         <v>73</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>338</v>
@@ -15556,10 +15348,10 @@
         <v>354</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -15585,12 +15377,14 @@
         <v>76</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O106" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
         <v>73</v>
@@ -15639,7 +15433,7 @@
         <v>73</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>74</v>
@@ -15651,7 +15445,7 @@
         <v>73</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
     </row>
     <row r="107">
@@ -15659,10 +15453,10 @@
         <v>354</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -15670,7 +15464,7 @@
       </c>
       <c r="F107" s="2"/>
       <c r="G107" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>79</v>
@@ -15685,13 +15479,13 @@
         <v>73</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>359</v>
+        <v>85</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
@@ -15742,10 +15536,10 @@
         <v>73</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>79</v>
@@ -15762,21 +15556,21 @@
         <v>354</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>73</v>
@@ -15788,15 +15582,17 @@
         <v>73</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>100</v>
+        <v>343</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>128</v>
+        <v>344</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="O108" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
         <v>73</v>
@@ -15845,19 +15641,19 @@
         <v>73</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109">
@@ -15865,10 +15661,10 @@
         <v>354</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -15876,7 +15672,7 @@
       </c>
       <c r="F109" s="2"/>
       <c r="G109" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>79</v>
@@ -15891,13 +15687,13 @@
         <v>73</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>130</v>
+        <v>351</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -15915,10 +15711,10 @@
         <v>73</v>
       </c>
       <c r="V109" t="s" s="2">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>73</v>
+        <v>353</v>
       </c>
       <c r="X109" t="s" s="2">
         <v>73</v>
@@ -15948,10 +15744,10 @@
         <v>73</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>79</v>
@@ -15965,13 +15761,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -15979,10 +15775,10 @@
       </c>
       <c r="F110" s="2"/>
       <c r="G110" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>73</v>
@@ -15994,15 +15790,17 @@
         <v>73</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O110" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
         <v>73</v>
@@ -16051,30 +15849,30 @@
         <v>73</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -16082,7 +15880,7 @@
       </c>
       <c r="F111" s="2"/>
       <c r="G111" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>79</v>
@@ -16097,13 +15895,13 @@
         <v>73</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -16154,10 +15952,10 @@
         <v>73</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>79</v>
@@ -16171,24 +15969,24 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>73</v>
@@ -16200,15 +15998,17 @@
         <v>73</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>100</v>
+        <v>343</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>115</v>
+        <v>344</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
         <v>73</v>
@@ -16257,30 +16057,30 @@
         <v>73</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -16291,7 +16091,7 @@
         <v>74</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>73</v>
@@ -16303,17 +16103,15 @@
         <v>73</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" t="s" s="2">
         <v>73</v>
@@ -16329,10 +16127,10 @@
         <v>73</v>
       </c>
       <c r="V113" t="s" s="2">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>73</v>
+        <v>353</v>
       </c>
       <c r="X113" t="s" s="2">
         <v>73</v>
@@ -16362,30 +16160,30 @@
         <v>73</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -16396,7 +16194,7 @@
         <v>74</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>73</v>
@@ -16408,13 +16206,13 @@
         <v>73</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
@@ -16465,13 +16263,13 @@
         <v>73</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>73</v>
@@ -16482,24 +16280,24 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>73</v>
@@ -16511,17 +16309,15 @@
         <v>73</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>343</v>
+        <v>223</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
         <v>73</v>
@@ -16570,30 +16366,30 @@
         <v>73</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B116" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="B116" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="C116" t="s" s="2">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -16601,7 +16397,7 @@
       </c>
       <c r="F116" s="2"/>
       <c r="G116" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>79</v>
@@ -16616,13 +16412,13 @@
         <v>73</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
@@ -16640,10 +16436,10 @@
         <v>73</v>
       </c>
       <c r="V116" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="X116" t="s" s="2">
         <v>73</v>
@@ -16673,10 +16469,10 @@
         <v>73</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>79</v>
@@ -16690,13 +16486,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -16704,10 +16500,10 @@
       </c>
       <c r="F117" s="2"/>
       <c r="G117" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I117" t="s" s="2">
         <v>73</v>
@@ -16719,17 +16515,15 @@
         <v>73</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="O117" s="2"/>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
         <v>73</v>
@@ -16778,19 +16572,19 @@
         <v>73</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118">
@@ -16798,10 +16592,10 @@
         <v>372</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -16812,7 +16606,7 @@
         <v>74</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>73</v>
@@ -16824,15 +16618,17 @@
         <v>73</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O118" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
         <v>73</v>
@@ -16881,19 +16677,19 @@
         <v>73</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
     </row>
     <row r="119">
@@ -16901,21 +16697,21 @@
         <v>372</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>73</v>
@@ -16927,17 +16723,15 @@
         <v>73</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="O119" s="2"/>
       <c r="P119" s="2"/>
       <c r="Q119" t="s" s="2">
         <v>73</v>
@@ -16986,19 +16780,19 @@
         <v>73</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120">
@@ -17006,21 +16800,21 @@
         <v>372</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>73</v>
@@ -17032,15 +16826,17 @@
         <v>73</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O120" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
         <v>73</v>
@@ -17056,10 +16852,10 @@
         <v>73</v>
       </c>
       <c r="V120" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="X120" t="s" s="2">
         <v>73</v>
@@ -17089,30 +16885,30 @@
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -17123,7 +16919,7 @@
         <v>74</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>73</v>
@@ -17135,13 +16931,13 @@
         <v>73</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
@@ -17159,10 +16955,10 @@
         <v>73</v>
       </c>
       <c r="V121" t="s" s="2">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>73</v>
+        <v>353</v>
       </c>
       <c r="X121" t="s" s="2">
         <v>73</v>
@@ -17192,13 +16988,13 @@
         <v>73</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>73</v>
@@ -17212,10 +17008,10 @@
         <v>376</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -17223,10 +17019,10 @@
       </c>
       <c r="F122" s="2"/>
       <c r="G122" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>73</v>
@@ -17238,13 +17034,13 @@
         <v>73</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -17295,13 +17091,13 @@
         <v>73</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>73</v>
@@ -17315,10 +17111,10 @@
         <v>376</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -17341,13 +17137,13 @@
         <v>73</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -17398,7 +17194,7 @@
         <v>73</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>79</v>
@@ -17418,10 +17214,10 @@
         <v>376</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -17444,13 +17240,13 @@
         <v>73</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -17501,7 +17297,7 @@
         <v>73</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>79</v>
@@ -17518,13 +17314,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -17532,10 +17328,10 @@
       </c>
       <c r="F125" s="2"/>
       <c r="G125" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I125" t="s" s="2">
         <v>73</v>
@@ -17547,17 +17343,15 @@
         <v>73</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" s="2"/>
       <c r="Q125" t="s" s="2">
         <v>73</v>
@@ -17606,30 +17400,30 @@
         <v>73</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -17640,7 +17434,7 @@
         <v>74</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I126" t="s" s="2">
         <v>73</v>
@@ -17652,13 +17446,13 @@
         <v>73</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
@@ -17709,13 +17503,13 @@
         <v>73</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>73</v>
@@ -17726,24 +17520,24 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I127" t="s" s="2">
         <v>73</v>
@@ -17755,17 +17549,15 @@
         <v>73</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>343</v>
+        <v>223</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="O127" s="2"/>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
         <v>73</v>
@@ -17814,30 +17606,30 @@
         <v>73</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17845,10 +17637,10 @@
       </c>
       <c r="F128" s="2"/>
       <c r="G128" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>73</v>
@@ -17860,13 +17652,13 @@
         <v>73</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
@@ -17884,10 +17676,10 @@
         <v>73</v>
       </c>
       <c r="V128" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="X128" t="s" s="2">
         <v>73</v>
@@ -17917,13 +17709,13 @@
         <v>73</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>73</v>
@@ -17934,13 +17726,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17951,7 +17743,7 @@
         <v>74</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>73</v>
@@ -17963,13 +17755,13 @@
         <v>73</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>392</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -18020,13 +17812,13 @@
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>73</v>
@@ -18037,13 +17829,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -18051,7 +17843,7 @@
       </c>
       <c r="F130" s="2"/>
       <c r="G130" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>79</v>
@@ -18066,13 +17858,13 @@
         <v>73</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
@@ -18123,10 +17915,10 @@
         <v>73</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>79</v>
@@ -18140,7 +17932,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>395</v>
@@ -18154,7 +17946,7 @@
       </c>
       <c r="F131" s="2"/>
       <c r="G131" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>79</v>
@@ -18169,13 +17961,13 @@
         <v>73</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
@@ -18229,7 +18021,7 @@
         <v>395</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>79</v>
@@ -18243,13 +18035,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -18257,7 +18049,7 @@
       </c>
       <c r="F132" s="2"/>
       <c r="G132" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>79</v>
@@ -18272,13 +18064,13 @@
         <v>73</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
@@ -18329,10 +18121,10 @@
         <v>73</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>79</v>
@@ -18346,13 +18138,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18363,7 +18155,7 @@
         <v>74</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I133" t="s" s="2">
         <v>73</v>
@@ -18375,10 +18167,10 @@
         <v>73</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N133" t="s" s="2">
         <v>400</v>
@@ -18432,13 +18224,13 @@
         <v>73</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>73</v>
@@ -18449,7 +18241,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>401</v>
@@ -18478,7 +18270,7 @@
         <v>73</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>402</v>
@@ -18552,7 +18344,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>403</v>
@@ -18566,10 +18358,10 @@
       </c>
       <c r="F135" s="2"/>
       <c r="G135" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>73</v>
@@ -18581,7 +18373,7 @@
         <v>73</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M135" t="s" s="2">
         <v>404</v>
@@ -18641,10 +18433,10 @@
         <v>403</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>73</v>
@@ -18655,7 +18447,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>405</v>
@@ -18684,7 +18476,7 @@
         <v>73</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M136" t="s" s="2">
         <v>406</v>
@@ -18758,7 +18550,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>407</v>
@@ -18787,7 +18579,7 @@
         <v>73</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M137" t="s" s="2">
         <v>408</v>
@@ -18861,13 +18653,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>409</v>
+        <v>330</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>409</v>
+        <v>330</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18878,7 +18670,7 @@
         <v>74</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>73</v>
@@ -18890,15 +18682,17 @@
         <v>73</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O138" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>73</v>
@@ -18947,30 +18741,30 @@
         <v>73</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>409</v>
+        <v>330</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>411</v>
+        <v>337</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>411</v>
+        <v>337</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18993,13 +18787,13 @@
         <v>73</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>412</v>
+        <v>338</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>412</v>
+        <v>339</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
@@ -19050,7 +18844,7 @@
         <v>73</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>74</v>
@@ -19067,24 +18861,24 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>73</v>
@@ -19096,15 +18890,17 @@
         <v>73</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>100</v>
+        <v>343</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>414</v>
+        <v>344</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O140" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>73</v>
@@ -19153,30 +18949,30 @@
         <v>73</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>413</v>
+        <v>347</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19199,13 +18995,13 @@
         <v>73</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>416</v>
+        <v>350</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>416</v>
+        <v>351</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -19223,10 +19019,10 @@
         <v>73</v>
       </c>
       <c r="V141" t="s" s="2">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>73</v>
+        <v>353</v>
       </c>
       <c r="X141" t="s" s="2">
         <v>73</v>
@@ -19256,7 +19052,7 @@
         <v>73</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>74</v>
@@ -19273,13 +19069,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -19290,7 +19086,7 @@
         <v>74</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>73</v>
@@ -19302,13 +19098,13 @@
         <v>73</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -19359,13 +19155,13 @@
         <v>73</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>73</v>
@@ -19376,13 +19172,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19390,7 +19186,7 @@
       </c>
       <c r="F143" s="2"/>
       <c r="G143" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>79</v>
@@ -19405,13 +19201,13 @@
         <v>73</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -19462,10 +19258,10 @@
         <v>73</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>79</v>
@@ -19479,13 +19275,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19493,7 +19289,7 @@
       </c>
       <c r="F144" s="2"/>
       <c r="G144" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>79</v>
@@ -19508,13 +19304,13 @@
         <v>73</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
@@ -19529,7 +19325,7 @@
         <v>73</v>
       </c>
       <c r="U144" t="s" s="2">
-        <v>73</v>
+        <v>422</v>
       </c>
       <c r="V144" t="s" s="2">
         <v>73</v>
@@ -19541,13 +19337,11 @@
         <v>73</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z144" s="2"/>
       <c r="AA144" t="s" s="2">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="AB144" t="s" s="2">
         <v>73</v>
@@ -19565,10 +19359,10 @@
         <v>73</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>79</v>
@@ -19582,13 +19376,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B145" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="B145" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="C145" t="s" s="2">
-        <v>330</v>
+        <v>423</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19596,10 +19390,10 @@
       </c>
       <c r="F145" s="2"/>
       <c r="G145" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>73</v>
@@ -19611,17 +19405,15 @@
         <v>73</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>333</v>
+        <v>424</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="O145" s="2"/>
       <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
         <v>73</v>
@@ -19670,30 +19462,30 @@
         <v>73</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>330</v>
+        <v>423</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>337</v>
+        <v>425</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>337</v>
+        <v>425</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19716,13 +19508,13 @@
         <v>73</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>338</v>
+        <v>426</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>339</v>
+        <v>427</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
@@ -19773,7 +19565,7 @@
         <v>73</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>340</v>
+        <v>425</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>74</v>
@@ -19790,24 +19582,24 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>341</v>
+        <v>428</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>341</v>
+        <v>428</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I147" t="s" s="2">
         <v>73</v>
@@ -19819,17 +19611,15 @@
         <v>73</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>344</v>
+        <v>429</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="O147" s="2"/>
       <c r="P147" s="2"/>
       <c r="Q147" t="s" s="2">
         <v>73</v>
@@ -19878,30 +19668,30 @@
         <v>73</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>347</v>
+        <v>428</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>349</v>
+        <v>431</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>349</v>
+        <v>431</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -19909,7 +19699,7 @@
       </c>
       <c r="F148" s="2"/>
       <c r="G148" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>79</v>
@@ -19924,13 +19714,13 @@
         <v>73</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>351</v>
+        <v>432</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -19948,10 +19738,10 @@
         <v>73</v>
       </c>
       <c r="V148" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="X148" t="s" s="2">
         <v>73</v>
@@ -19981,10 +19771,10 @@
         <v>73</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>349</v>
+        <v>431</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>79</v>
@@ -19998,13 +19788,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -20012,10 +19802,10 @@
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>73</v>
@@ -20027,13 +19817,13 @@
         <v>73</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
@@ -20084,13 +19874,13 @@
         <v>73</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>73</v>
@@ -20101,13 +19891,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20130,13 +19920,13 @@
         <v>73</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
@@ -20187,7 +19977,7 @@
         <v>73</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>79</v>
@@ -20204,13 +19994,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -20233,13 +20023,13 @@
         <v>73</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
@@ -20254,7 +20044,7 @@
         <v>73</v>
       </c>
       <c r="U151" t="s" s="2">
-        <v>436</v>
+        <v>73</v>
       </c>
       <c r="V151" t="s" s="2">
         <v>73</v>
@@ -20266,11 +20056,11 @@
         <v>73</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="Z151" s="2"/>
       <c r="AA151" t="s" s="2">
-        <v>230</v>
+        <v>440</v>
       </c>
       <c r="AB151" t="s" s="2">
         <v>73</v>
@@ -20288,7 +20078,7 @@
         <v>73</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>79</v>
@@ -20305,13 +20095,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20334,13 +20124,13 @@
         <v>73</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -20391,7 +20181,7 @@
         <v>73</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>79</v>
@@ -20408,13 +20198,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20437,13 +20227,13 @@
         <v>73</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -20494,7 +20284,7 @@
         <v>73</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>74</v>
@@ -20511,13 +20301,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20528,7 +20318,7 @@
         <v>74</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>73</v>
@@ -20540,13 +20330,13 @@
         <v>73</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -20597,737 +20387,18 @@
         <v>73</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C155" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F155" s="2"/>
-      <c r="G155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
-      <c r="Q155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R155" s="2"/>
-      <c r="S155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C156" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F156" s="2"/>
-      <c r="G156" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R156" s="2"/>
-      <c r="S156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C157" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F157" s="2"/>
-      <c r="G157" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R157" s="2"/>
-      <c r="S157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C158" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F158" s="2"/>
-      <c r="G158" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R158" s="2"/>
-      <c r="S158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Z158" s="2"/>
-      <c r="AA158" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C159" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F159" s="2"/>
-      <c r="G159" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R159" s="2"/>
-      <c r="S159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C160" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F160" s="2"/>
-      <c r="G160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R160" s="2"/>
-      <c r="S160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C161" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F161" s="2"/>
-      <c r="G161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
-      <c r="Q161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R161" s="2"/>
-      <c r="S161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK161" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:10:00+00:00</t>
+    <t>2025-05-03T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1349,7 +1349,7 @@
     <t>Cette métadonnée représente la pertinence d'un lot de soumission.</t>
   </si>
   <si>
-    <t xml:space="preserve">'urn:oasis:names:tc:ebxml-regrep:StatusType:Approved': version à jour du lot de soumission. 'urn:asip:ci-sis:2010:StatusType:Archived': version archivée du lot de soumission, dans le cas où toutes les fiches du lot ont leur métadonnée availabilityStatus prenant la valeur  'urn:asip:ci-sis:2010:StatusType:Archived'. </t>
+    <t xml:space="preserve">'urn:asip:ci-sis:2010:StatusType:Archived </t>
   </si>
   <si>
     <t>SubmissionSet.submissionTime</t>
@@ -4517,7 +4517,7 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="7.6953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="249.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="34.046875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5668" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="469">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:16:04+00:00</t>
+    <t>2025-05-03T16:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -571,7 +571,7 @@
 - Le patient/usager (personne physique) via Mon espace Santé, 
 - Un système de structure (dispositif, automate, appareil connecté…), 
 - Un SNR (Service Numérique Référencé), 
-author est un ensemble constitué des sous-attributs authorInstitution, ActorXDS, authorRole et authorSpecialty et ne porte pas de valeur par lui-même. </t>
+author est un ensemble constitué des sous-attributs authorInstitution , authorPerson, authorRole et authorSpecialty et ne porte pas de valeur par lui-même. </t>
   </si>
   <si>
     <t>Author.institution</t>
@@ -625,6 +625,45 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J56-AuthorSpecialty-DMP/FHIR/JDV-J56-AuthorSpecialty-DMP</t>
   </si>
   <si>
+    <t>AuthorDocumentEntry</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorDocumentEntry</t>
+  </si>
+  <si>
+    <t>AuthorDocumentEntry (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modèle logique d'un auteur d'un documeny
+Cette métadonnée représente les personnes physiques et/ou les systèmes (dispositifs, automates, services numériques référencés…) auteurs d’un document. 
+L’auteur peut être : 
+-  Un professionnel (personne physique) via son logiciel de professionnel, 
+- Le patient/usager (personne physique) via Mon espace Santé, 
+-  Un système de structure (dispositif, automate, appareil connecté…), 
+-  Un SNR (Service Numérique Référencé), </t>
+  </si>
+  <si>
+    <t>AuthorDocumentEntry.institution</t>
+  </si>
+  <si>
+    <t>Cet attribut représente la structure de l’auteur. Pour les documents d’expression personnelle du patient, cette métadonnée est absente.</t>
+  </si>
+  <si>
+    <t>AuthorDocumentEntry.person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut représente l’auteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient.  </t>
+  </si>
+  <si>
+    <t>AuthorDocumentEntry.role</t>
+  </si>
+  <si>
+    <t>ette métadonnée représente le rôle joué par l’auteur vis-à-vis du patient lors de la constitution du lot de soumission, c'est-à-dire à quel titre l’auteur est intervenu vis-à-vis du patient (ex : médecin traitant, Responsable de l'admission, Membre de l'équipe de soins, etc.).</t>
+  </si>
+  <si>
+    <t>AuthorDocumentEntry.specialty</t>
+  </si>
+  <si>
     <t>AuthorInstitution</t>
   </si>
   <si>
@@ -634,7 +673,7 @@
     <t>AuthorInstitution (LM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cet attribut représente la structure de l’auteur. 
+    <t xml:space="preserve">Cette métadonnée représente la structure émettrice du lot de soumission. 
 Pour les documents d’expression personnelle du patient, cette métadonnée est absente, cela signifie que l’élément XML &lt;rim:Slot name='authorInstitution'&gt; n’est pas transmis. </t>
   </si>
   <si>
@@ -681,6 +720,38 @@
     <t xml:space="preserve"> Identifiant de la structure (Struct_IdNat)</t>
   </si>
   <si>
+    <t>AuthorSubmissionSet</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorSubmissionSet</t>
+  </si>
+  <si>
+    <t>AuthorSubmissionSet (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modèle logique d'un auteur d'un lot de soumission
+Cette métadonnée représente les personnes physiques et/ou les systèmes auteurs d’un lot de soumission. 
+Constituée des sous-attributs **authorInstitution**, **authorPerson**, **authorRole** et **authorSpecialty**, elle ne porte pas de valeur par elle-même. </t>
+  </si>
+  <si>
+    <t>AuthorSubmissionSet.institution</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente la structure émettrice du lot de soumission</t>
+  </si>
+  <si>
+    <t>AuthorSubmissionSet.person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette métadonnée représente la personne physique ou le système émetteur du lot de soumission.Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient.  </t>
+  </si>
+  <si>
+    <t>AuthorSubmissionSet.role</t>
+  </si>
+  <si>
+    <t>AuthorSubmissionSet.specialty</t>
+  </si>
+  <si>
     <t>DocumentEntry</t>
   </si>
   <si>
@@ -759,7 +830,7 @@
     <t>DocumentEntry.author</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Author
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorDocumentEntry
 </t>
   </si>
   <si>
@@ -1349,7 +1420,7 @@
     <t>Cette métadonnée représente la pertinence d'un lot de soumission.</t>
   </si>
   <si>
-    <t xml:space="preserve">'urn:asip:ci-sis:2010:StatusType:Archived </t>
+    <t>urn:oasis:names:tc:ebxml-regrep:StatusType:Approved</t>
   </si>
   <si>
     <t>SubmissionSet.submissionTime</t>
@@ -1403,10 +1474,14 @@
     <t>**Submission Set**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J59-ContentTypeCode-DMP/FHIR/JDV-J59-ContentTypeCode-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J03-XdsContentTypeCode-CISIS/FHIR/JDV-J03-XdsContentTypeCode-CISIS</t>
   </si>
   <si>
     <t>SubmissionSet.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorSubmissionSet
+</t>
   </si>
   <si>
     <t>Représente la personne physique ou morale et/ou le dispositif auteur d’un lot de soumission</t>
@@ -1555,7 +1630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B378"/>
+  <dimension ref="A1:B420"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2680,7 +2755,7 @@
         <v>31</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146">
@@ -2712,7 +2787,7 @@
         <v>2</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150">
@@ -2720,7 +2795,7 @@
         <v>4</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151">
@@ -2736,7 +2811,7 @@
         <v>8</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153">
@@ -2744,7 +2819,7 @@
         <v>9</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154">
@@ -2798,7 +2873,7 @@
         <v>22</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="161">
@@ -2834,7 +2909,7 @@
         <v>30</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166">
@@ -2874,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>318</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171">
@@ -2882,7 +2957,7 @@
         <v>4</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>319</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172">
@@ -2898,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>318</v>
+        <v>226</v>
       </c>
     </row>
     <row r="174">
@@ -2906,7 +2981,7 @@
         <v>9</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>320</v>
+        <v>228</v>
       </c>
     </row>
     <row r="175">
@@ -2960,7 +3035,7 @@
         <v>22</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>321</v>
+        <v>229</v>
       </c>
     </row>
     <row r="182">
@@ -2996,7 +3071,7 @@
         <v>30</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>319</v>
+        <v>227</v>
       </c>
     </row>
     <row r="187">
@@ -3004,7 +3079,7 @@
         <v>31</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="188">
@@ -3036,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>325</v>
+        <v>236</v>
       </c>
     </row>
     <row r="192">
@@ -3044,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>326</v>
+        <v>237</v>
       </c>
     </row>
     <row r="193">
@@ -3060,7 +3135,7 @@
         <v>8</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>325</v>
+        <v>236</v>
       </c>
     </row>
     <row r="195">
@@ -3068,7 +3143,7 @@
         <v>9</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>327</v>
+        <v>238</v>
       </c>
     </row>
     <row r="196">
@@ -3122,7 +3197,7 @@
         <v>22</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>328</v>
+        <v>239</v>
       </c>
     </row>
     <row r="203">
@@ -3150,7 +3225,7 @@
         <v>28</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>329</v>
+        <v>29</v>
       </c>
     </row>
     <row r="207">
@@ -3158,7 +3233,7 @@
         <v>30</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>330</v>
+        <v>237</v>
       </c>
     </row>
     <row r="208">
@@ -3166,7 +3241,7 @@
         <v>31</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>331</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209">
@@ -3182,7 +3257,7 @@
         <v>35</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>332</v>
+        <v>36</v>
       </c>
     </row>
     <row r="211">
@@ -3198,7 +3273,7 @@
         <v>2</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="213">
@@ -3206,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="214">
@@ -3222,7 +3297,7 @@
         <v>8</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="216">
@@ -3230,7 +3305,7 @@
         <v>9</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="217">
@@ -3284,7 +3359,7 @@
         <v>22</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="224">
@@ -3312,7 +3387,7 @@
         <v>28</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>329</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228">
@@ -3320,7 +3395,7 @@
         <v>30</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="229">
@@ -3328,7 +3403,7 @@
         <v>31</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>331</v>
+        <v>175</v>
       </c>
     </row>
     <row r="230">
@@ -3344,7 +3419,7 @@
         <v>35</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>332</v>
+        <v>36</v>
       </c>
     </row>
     <row r="232">
@@ -3360,7 +3435,7 @@
         <v>2</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="234">
@@ -3368,7 +3443,7 @@
         <v>4</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="235">
@@ -3384,7 +3459,7 @@
         <v>8</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="237">
@@ -3392,7 +3467,7 @@
         <v>9</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="238">
@@ -3446,7 +3521,7 @@
         <v>22</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="245">
@@ -3474,7 +3549,7 @@
         <v>28</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>329</v>
+        <v>350</v>
       </c>
     </row>
     <row r="249">
@@ -3482,7 +3557,7 @@
         <v>30</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>330</v>
+        <v>351</v>
       </c>
     </row>
     <row r="250">
@@ -3490,7 +3565,7 @@
         <v>31</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>331</v>
+        <v>352</v>
       </c>
     </row>
     <row r="251">
@@ -3506,7 +3581,7 @@
         <v>35</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
     </row>
     <row r="253">
@@ -3522,7 +3597,7 @@
         <v>2</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="255">
@@ -3530,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="256">
@@ -3546,7 +3621,7 @@
         <v>8</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="258">
@@ -3554,7 +3629,7 @@
         <v>9</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="259">
@@ -3608,7 +3683,7 @@
         <v>22</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="266">
@@ -3636,7 +3711,7 @@
         <v>28</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>29</v>
+        <v>350</v>
       </c>
     </row>
     <row r="270">
@@ -3644,7 +3719,7 @@
         <v>30</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="271">
@@ -3652,7 +3727,7 @@
         <v>31</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>175</v>
+        <v>352</v>
       </c>
     </row>
     <row r="272">
@@ -3668,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>36</v>
+        <v>353</v>
       </c>
     </row>
     <row r="274">
@@ -3684,7 +3759,7 @@
         <v>2</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="276">
@@ -3692,7 +3767,7 @@
         <v>4</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="277">
@@ -3708,7 +3783,7 @@
         <v>8</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="279">
@@ -3716,7 +3791,7 @@
         <v>9</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="280">
@@ -3770,7 +3845,7 @@
         <v>22</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="287">
@@ -3798,7 +3873,7 @@
         <v>28</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>329</v>
+        <v>350</v>
       </c>
     </row>
     <row r="291">
@@ -3806,7 +3881,7 @@
         <v>30</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>330</v>
+        <v>351</v>
       </c>
     </row>
     <row r="292">
@@ -3814,7 +3889,7 @@
         <v>31</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>331</v>
+        <v>352</v>
       </c>
     </row>
     <row r="293">
@@ -3830,7 +3905,7 @@
         <v>35</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
     </row>
     <row r="295">
@@ -3846,7 +3921,7 @@
         <v>2</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="297">
@@ -3854,7 +3929,7 @@
         <v>4</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="298">
@@ -3870,7 +3945,7 @@
         <v>8</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="300">
@@ -3878,7 +3953,7 @@
         <v>9</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="301">
@@ -3932,7 +4007,7 @@
         <v>22</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="308">
@@ -3968,7 +4043,7 @@
         <v>30</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="313">
@@ -4008,7 +4083,7 @@
         <v>2</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="318">
@@ -4016,7 +4091,7 @@
         <v>4</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="319">
@@ -4032,7 +4107,7 @@
         <v>8</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="321">
@@ -4040,7 +4115,7 @@
         <v>9</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="322">
@@ -4094,7 +4169,7 @@
         <v>22</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="329">
@@ -4122,7 +4197,7 @@
         <v>28</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>29</v>
+        <v>350</v>
       </c>
     </row>
     <row r="333">
@@ -4130,7 +4205,7 @@
         <v>30</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>384</v>
+        <v>351</v>
       </c>
     </row>
     <row r="334">
@@ -4138,7 +4213,7 @@
         <v>31</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>175</v>
+        <v>352</v>
       </c>
     </row>
     <row r="335">
@@ -4154,7 +4229,7 @@
         <v>35</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>36</v>
+        <v>353</v>
       </c>
     </row>
     <row r="337">
@@ -4170,7 +4245,7 @@
         <v>2</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="339">
@@ -4178,7 +4253,7 @@
         <v>4</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="340">
@@ -4194,7 +4269,7 @@
         <v>8</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="342">
@@ -4202,7 +4277,7 @@
         <v>9</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="343">
@@ -4256,7 +4331,7 @@
         <v>22</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="350">
@@ -4284,7 +4359,7 @@
         <v>28</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>329</v>
+        <v>29</v>
       </c>
     </row>
     <row r="354">
@@ -4292,7 +4367,7 @@
         <v>30</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>330</v>
+        <v>398</v>
       </c>
     </row>
     <row r="355">
@@ -4300,7 +4375,7 @@
         <v>31</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>331</v>
+        <v>175</v>
       </c>
     </row>
     <row r="356">
@@ -4316,7 +4391,7 @@
         <v>35</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>332</v>
+        <v>36</v>
       </c>
     </row>
     <row r="358">
@@ -4332,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="360">
@@ -4340,7 +4415,7 @@
         <v>4</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="361">
@@ -4356,7 +4431,7 @@
         <v>8</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="363">
@@ -4364,7 +4439,7 @@
         <v>9</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="364">
@@ -4418,7 +4493,7 @@
         <v>22</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="371">
@@ -4454,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="376">
@@ -4478,6 +4553,330 @@
         <v>35</v>
       </c>
       <c r="B378" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B379" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B380" t="s" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B381" t="s" s="2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B382" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B383" t="s" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B384" t="s" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B385" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B386" s="2"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B387" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B388" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B389" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B390" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B391" t="s" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B392" s="2"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B393" s="2"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B394" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B395" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B396" t="s" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B397" t="s" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B398" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B399" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B400" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B401" t="s" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B402" t="s" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B403" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B404" t="s" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B405" t="s" s="2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B406" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B407" s="2"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B408" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B409" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B410" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B411" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B412" t="s" s="2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B413" s="2"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B414" s="2"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B415" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B416" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B417" t="s" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B418" t="s" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B419" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B420" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -4488,7 +4887,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK154"/>
+  <dimension ref="A1:AK164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4497,7 +4896,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.51171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.6015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="35.6015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4517,7 +4916,7 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="7.6953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="34.046875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="44.5546875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -10122,10 +10521,10 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>73</v>
@@ -10195,10 +10594,10 @@
         <v>187</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>73</v>
@@ -10427,7 +10826,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -10442,13 +10841,13 @@
         <v>73</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>202</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -10463,7 +10862,7 @@
         <v>73</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="V58" t="s" s="2">
         <v>73</v>
@@ -10499,10 +10898,10 @@
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
@@ -10519,10 +10918,10 @@
         <v>197</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -10545,13 +10944,13 @@
         <v>73</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -10602,7 +11001,7 @@
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -10622,10 +11021,10 @@
         <v>197</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -10633,10 +11032,10 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>73</v>
@@ -10648,13 +11047,13 @@
         <v>73</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -10681,13 +11080,11 @@
         <v>73</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z60" s="2"/>
       <c r="AA60" t="s" s="2">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="AB60" t="s" s="2">
         <v>73</v>
@@ -10705,13 +11102,13 @@
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>73</v>
@@ -10736,7 +11133,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -10751,13 +11148,13 @@
         <v>73</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -10772,7 +11169,7 @@
         <v>73</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="V61" t="s" s="2">
         <v>73</v>
@@ -10784,13 +11181,11 @@
         <v>73</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z61" s="2"/>
       <c r="AA61" t="s" s="2">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="AB61" t="s" s="2">
         <v>73</v>
@@ -10808,10 +11203,10 @@
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
@@ -10825,13 +11220,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -10839,10 +11234,10 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>73</v>
@@ -10854,13 +11249,13 @@
         <v>73</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -10911,13 +11306,13 @@
         <v>73</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>73</v>
@@ -10928,13 +11323,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -10957,13 +11352,13 @@
         <v>73</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -10978,7 +11373,7 @@
         <v>73</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="V63" t="s" s="2">
         <v>73</v>
@@ -11014,7 +11409,7 @@
         <v>73</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -11031,13 +11426,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -11060,13 +11455,13 @@
         <v>73</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -11117,7 +11512,7 @@
         <v>73</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -11134,13 +11529,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -11148,10 +11543,10 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>73</v>
@@ -11163,13 +11558,13 @@
         <v>73</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -11220,13 +11615,13 @@
         <v>73</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>73</v>
@@ -11237,13 +11632,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -11266,13 +11661,13 @@
         <v>73</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -11287,7 +11682,7 @@
         <v>73</v>
       </c>
       <c r="U66" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="V66" t="s" s="2">
         <v>73</v>
@@ -11323,7 +11718,7 @@
         <v>73</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -11340,13 +11735,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -11369,13 +11764,13 @@
         <v>73</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -11426,7 +11821,7 @@
         <v>73</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -11443,13 +11838,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -11472,13 +11867,13 @@
         <v>73</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -11493,7 +11888,7 @@
         <v>73</v>
       </c>
       <c r="U68" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="V68" t="s" s="2">
         <v>73</v>
@@ -11529,7 +11924,7 @@
         <v>73</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
@@ -11546,13 +11941,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -11575,13 +11970,13 @@
         <v>73</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -11608,11 +12003,13 @@
         <v>73</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z69" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA69" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="AB69" t="s" s="2">
         <v>73</v>
@@ -11630,7 +12027,7 @@
         <v>73</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -11647,13 +12044,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -11661,10 +12058,10 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>73</v>
@@ -11676,13 +12073,13 @@
         <v>73</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -11733,13 +12130,13 @@
         <v>73</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>73</v>
@@ -11750,13 +12147,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -11764,7 +12161,7 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -11779,13 +12176,13 @@
         <v>73</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -11836,10 +12233,10 @@
         <v>73</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
@@ -11853,13 +12250,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -11882,13 +12279,13 @@
         <v>73</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -11939,7 +12336,7 @@
         <v>73</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -11956,13 +12353,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -11970,7 +12367,7 @@
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
@@ -11985,13 +12382,13 @@
         <v>73</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -12018,13 +12415,11 @@
         <v>73</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z73" s="2"/>
       <c r="AA73" t="s" s="2">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="AB73" t="s" s="2">
         <v>73</v>
@@ -12042,10 +12437,10 @@
         <v>73</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
@@ -12059,13 +12454,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -12073,7 +12468,7 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -12088,13 +12483,13 @@
         <v>73</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -12121,13 +12516,11 @@
         <v>73</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z74" s="2"/>
       <c r="AA74" t="s" s="2">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="AB74" t="s" s="2">
         <v>73</v>
@@ -12145,10 +12538,10 @@
         <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
@@ -12162,13 +12555,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -12176,10 +12569,10 @@
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>73</v>
@@ -12191,13 +12584,13 @@
         <v>73</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -12248,13 +12641,13 @@
         <v>73</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>73</v>
@@ -12265,13 +12658,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -12294,13 +12687,13 @@
         <v>73</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -12351,7 +12744,7 @@
         <v>73</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -12368,13 +12761,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -12382,7 +12775,7 @@
       </c>
       <c r="F77" s="2"/>
       <c r="G77" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -12397,13 +12790,13 @@
         <v>73</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -12454,10 +12847,10 @@
         <v>73</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
@@ -12471,13 +12864,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -12500,13 +12893,13 @@
         <v>73</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -12557,7 +12950,7 @@
         <v>73</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
@@ -12574,13 +12967,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -12603,13 +12996,13 @@
         <v>73</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -12636,13 +13029,11 @@
         <v>73</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z79" s="2"/>
       <c r="AA79" t="s" s="2">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="AB79" t="s" s="2">
         <v>73</v>
@@ -12660,7 +13051,7 @@
         <v>73</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -12677,13 +13068,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -12709,10 +13100,10 @@
         <v>85</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -12763,7 +13154,7 @@
         <v>73</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
@@ -12780,13 +13171,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -12809,13 +13200,13 @@
         <v>73</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -12866,7 +13257,7 @@
         <v>73</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
@@ -12883,13 +13274,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -12897,7 +13288,7 @@
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -12915,10 +13306,10 @@
         <v>85</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -12969,10 +13360,10 @@
         <v>73</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
@@ -12986,13 +13377,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -13003,7 +13394,7 @@
         <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>73</v>
@@ -13015,13 +13406,13 @@
         <v>73</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -13072,13 +13463,13 @@
         <v>73</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>73</v>
@@ -13089,13 +13480,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -13118,13 +13509,13 @@
         <v>73</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -13175,7 +13566,7 @@
         <v>73</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
@@ -13192,13 +13583,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -13221,13 +13612,13 @@
         <v>73</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -13254,11 +13645,13 @@
         <v>73</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z85" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA85" t="s" s="2">
-        <v>275</v>
+        <v>73</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>73</v>
@@ -13276,7 +13669,7 @@
         <v>73</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>79</v>
@@ -13293,13 +13686,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -13310,7 +13703,7 @@
         <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>73</v>
@@ -13322,13 +13715,13 @@
         <v>73</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -13355,11 +13748,13 @@
         <v>73</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z86" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA86" t="s" s="2">
-        <v>280</v>
+        <v>73</v>
       </c>
       <c r="AB86" t="s" s="2">
         <v>73</v>
@@ -13377,13 +13772,13 @@
         <v>73</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>73</v>
@@ -13394,13 +13789,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -13411,7 +13806,7 @@
         <v>74</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>73</v>
@@ -13423,13 +13818,13 @@
         <v>73</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -13480,13 +13875,13 @@
         <v>73</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>73</v>
@@ -13497,13 +13892,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -13526,13 +13921,13 @@
         <v>73</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -13559,11 +13954,13 @@
         <v>73</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z88" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA88" t="s" s="2">
-        <v>288</v>
+        <v>73</v>
       </c>
       <c r="AB88" t="s" s="2">
         <v>73</v>
@@ -13581,7 +13978,7 @@
         <v>73</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
@@ -13598,13 +13995,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -13627,13 +14024,13 @@
         <v>73</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -13660,11 +14057,13 @@
         <v>73</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z89" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA89" t="s" s="2">
-        <v>292</v>
+        <v>73</v>
       </c>
       <c r="AB89" t="s" s="2">
         <v>73</v>
@@ -13682,7 +14081,7 @@
         <v>73</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
@@ -13699,13 +14098,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -13728,13 +14127,13 @@
         <v>73</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -13761,11 +14160,13 @@
         <v>73</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z90" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA90" t="s" s="2">
-        <v>296</v>
+        <v>73</v>
       </c>
       <c r="AB90" t="s" s="2">
         <v>73</v>
@@ -13783,7 +14184,7 @@
         <v>73</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
@@ -13800,13 +14201,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -13829,13 +14230,13 @@
         <v>73</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -13862,11 +14263,13 @@
         <v>73</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z91" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA91" t="s" s="2">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="AB91" t="s" s="2">
         <v>73</v>
@@ -13884,7 +14287,7 @@
         <v>73</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -13901,13 +14304,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -13933,10 +14336,10 @@
         <v>85</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -13987,7 +14390,7 @@
         <v>73</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>74</v>
@@ -14004,13 +14407,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -14018,7 +14421,7 @@
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -14033,13 +14436,13 @@
         <v>73</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -14090,10 +14493,10 @@
         <v>73</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>79</v>
@@ -14107,13 +14510,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -14136,13 +14539,13 @@
         <v>73</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -14193,7 +14596,7 @@
         <v>73</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -14210,13 +14613,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -14224,10 +14627,10 @@
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>73</v>
@@ -14239,13 +14642,13 @@
         <v>73</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -14272,13 +14675,11 @@
         <v>73</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z95" s="2"/>
       <c r="AA95" t="s" s="2">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="AB95" t="s" s="2">
         <v>73</v>
@@ -14296,13 +14697,13 @@
         <v>73</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>73</v>
@@ -14313,13 +14714,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -14330,7 +14731,7 @@
         <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>73</v>
@@ -14342,13 +14743,13 @@
         <v>73</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -14375,13 +14776,11 @@
         <v>73</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z96" s="2"/>
       <c r="AA96" t="s" s="2">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="AB96" t="s" s="2">
         <v>73</v>
@@ -14399,13 +14798,13 @@
         <v>73</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>73</v>
@@ -14416,13 +14815,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -14430,10 +14829,10 @@
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>73</v>
@@ -14445,13 +14844,13 @@
         <v>73</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -14502,13 +14901,13 @@
         <v>73</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>73</v>
@@ -14519,13 +14918,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -14551,10 +14950,10 @@
         <v>188</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>114</v>
+        <v>307</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -14585,7 +14984,7 @@
       </c>
       <c r="Z98" s="2"/>
       <c r="AA98" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AB98" t="s" s="2">
         <v>73</v>
@@ -14603,7 +15002,7 @@
         <v>73</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>79</v>
@@ -14620,13 +15019,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -14634,7 +15033,7 @@
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>79</v>
@@ -14649,13 +15048,13 @@
         <v>73</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -14682,13 +15081,11 @@
         <v>73</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z99" s="2"/>
       <c r="AA99" t="s" s="2">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="AB99" t="s" s="2">
         <v>73</v>
@@ -14706,10 +15103,10 @@
         <v>73</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>79</v>
@@ -14723,13 +15120,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -14737,10 +15134,10 @@
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>73</v>
@@ -14752,13 +15149,13 @@
         <v>73</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -14785,13 +15182,11 @@
         <v>73</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z100" s="2"/>
       <c r="AA100" t="s" s="2">
-        <v>73</v>
+        <v>317</v>
       </c>
       <c r="AB100" t="s" s="2">
         <v>73</v>
@@ -14809,13 +15204,13 @@
         <v>73</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>73</v>
@@ -14826,13 +15221,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B101" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="B101" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="C101" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -14858,10 +15253,10 @@
         <v>188</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -14888,13 +15283,11 @@
         <v>73</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z101" s="2"/>
       <c r="AA101" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="AB101" t="s" s="2">
         <v>73</v>
@@ -14912,7 +15305,7 @@
         <v>73</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>79</v>
@@ -14929,13 +15322,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14946,7 +15339,7 @@
         <v>74</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>73</v>
@@ -14958,17 +15351,15 @@
         <v>73</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
         <v>73</v>
@@ -15017,30 +15408,30 @@
         <v>73</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -15063,13 +15454,13 @@
         <v>73</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -15120,7 +15511,7 @@
         <v>73</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>74</v>
@@ -15137,24 +15528,24 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>73</v>
@@ -15166,17 +15557,15 @@
         <v>73</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>343</v>
+        <v>271</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
         <v>73</v>
@@ -15225,30 +15614,30 @@
         <v>73</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -15259,7 +15648,7 @@
         <v>74</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>73</v>
@@ -15271,13 +15660,13 @@
         <v>73</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -15295,10 +15684,10 @@
         <v>73</v>
       </c>
       <c r="V105" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="X105" t="s" s="2">
         <v>73</v>
@@ -15328,13 +15717,13 @@
         <v>73</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -15345,7 +15734,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>330</v>
@@ -15359,10 +15748,10 @@
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>73</v>
@@ -15374,17 +15763,15 @@
         <v>73</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
         <v>73</v>
@@ -15436,27 +15823,27 @@
         <v>330</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -15464,7 +15851,7 @@
       </c>
       <c r="F107" s="2"/>
       <c r="G107" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>79</v>
@@ -15479,13 +15866,13 @@
         <v>73</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
@@ -15536,10 +15923,10 @@
         <v>73</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>79</v>
@@ -15553,24 +15940,24 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>73</v>
@@ -15582,17 +15969,15 @@
         <v>73</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>343</v>
+        <v>188</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>344</v>
+        <v>114</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
         <v>73</v>
@@ -15617,13 +16002,11 @@
         <v>73</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z108" s="2"/>
       <c r="AA108" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AB108" t="s" s="2">
         <v>73</v>
@@ -15641,30 +16024,30 @@
         <v>73</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -15687,13 +16070,13 @@
         <v>73</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -15711,10 +16094,10 @@
         <v>73</v>
       </c>
       <c r="V109" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="X109" t="s" s="2">
         <v>73</v>
@@ -15744,7 +16127,7 @@
         <v>73</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>74</v>
@@ -15761,13 +16144,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -15793,14 +16176,12 @@
         <v>76</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
         <v>73</v>
@@ -15849,7 +16230,7 @@
         <v>73</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>74</v>
@@ -15861,18 +16242,18 @@
         <v>73</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -15880,7 +16261,7 @@
       </c>
       <c r="F111" s="2"/>
       <c r="G111" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>79</v>
@@ -15895,13 +16276,13 @@
         <v>73</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -15952,10 +16333,10 @@
         <v>73</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>79</v>
@@ -15969,17 +16350,17 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s" s="2">
@@ -15998,16 +16379,16 @@
         <v>73</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
@@ -16057,7 +16438,7 @@
         <v>73</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>74</v>
@@ -16069,18 +16450,18 @@
         <v>73</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="B113" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="C113" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -16103,13 +16484,13 @@
         <v>73</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -16127,10 +16508,10 @@
         <v>73</v>
       </c>
       <c r="V113" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="X113" t="s" s="2">
         <v>73</v>
@@ -16160,7 +16541,7 @@
         <v>73</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>74</v>
@@ -16177,7 +16558,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>362</v>
@@ -16187,7 +16568,7 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>73</v>
+        <v>363</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" t="s" s="2">
@@ -16206,15 +16587,17 @@
         <v>73</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O114" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
         <v>73</v>
@@ -16263,7 +16646,7 @@
         <v>73</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>74</v>
@@ -16275,18 +16658,18 @@
         <v>73</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>73</v>
+        <v>369</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -16294,7 +16677,7 @@
       </c>
       <c r="F115" s="2"/>
       <c r="G115" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>79</v>
@@ -16309,13 +16692,13 @@
         <v>73</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
@@ -16333,10 +16716,10 @@
         <v>73</v>
       </c>
       <c r="V115" t="s" s="2">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>73</v>
@@ -16366,10 +16749,10 @@
         <v>73</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>79</v>
@@ -16383,13 +16766,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -16397,10 +16780,10 @@
       </c>
       <c r="F116" s="2"/>
       <c r="G116" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>73</v>
@@ -16412,15 +16795,17 @@
         <v>73</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O116" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
         <v>73</v>
@@ -16469,30 +16854,30 @@
         <v>73</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>73</v>
+        <v>357</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -16500,7 +16885,7 @@
       </c>
       <c r="F117" s="2"/>
       <c r="G117" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>79</v>
@@ -16518,10 +16903,10 @@
         <v>85</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
@@ -16572,10 +16957,10 @@
         <v>73</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>79</v>
@@ -16589,17 +16974,17 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>73</v>
+        <v>363</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" t="s" s="2">
@@ -16618,16 +17003,16 @@
         <v>73</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
@@ -16677,7 +17062,7 @@
         <v>73</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>74</v>
@@ -16689,18 +17074,18 @@
         <v>73</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>336</v>
+        <v>369</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -16723,13 +17108,13 @@
         <v>73</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -16747,10 +17132,10 @@
         <v>73</v>
       </c>
       <c r="V119" t="s" s="2">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="X119" t="s" s="2">
         <v>73</v>
@@ -16780,7 +17165,7 @@
         <v>73</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>74</v>
@@ -16797,17 +17182,17 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" t="s" s="2">
@@ -16826,16 +17211,16 @@
         <v>73</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -16885,7 +17270,7 @@
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>74</v>
@@ -16897,18 +17282,18 @@
         <v>73</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16931,13 +17316,13 @@
         <v>73</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
@@ -16955,10 +17340,10 @@
         <v>73</v>
       </c>
       <c r="V121" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="X121" t="s" s="2">
         <v>73</v>
@@ -16988,7 +17373,7 @@
         <v>73</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>74</v>
@@ -17005,17 +17390,17 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>73</v>
+        <v>363</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" t="s" s="2">
@@ -17034,15 +17419,17 @@
         <v>73</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O122" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
         <v>73</v>
@@ -17091,7 +17478,7 @@
         <v>73</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>74</v>
@@ -17103,18 +17490,18 @@
         <v>73</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>73</v>
+        <v>369</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -17122,7 +17509,7 @@
       </c>
       <c r="F123" s="2"/>
       <c r="G123" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>79</v>
@@ -17137,13 +17524,13 @@
         <v>73</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -17161,10 +17548,10 @@
         <v>73</v>
       </c>
       <c r="V123" t="s" s="2">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="X123" t="s" s="2">
         <v>73</v>
@@ -17194,10 +17581,10 @@
         <v>73</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>79</v>
@@ -17211,13 +17598,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -17225,10 +17612,10 @@
       </c>
       <c r="F124" s="2"/>
       <c r="G124" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>73</v>
@@ -17240,13 +17627,13 @@
         <v>73</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -17297,13 +17684,13 @@
         <v>73</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>73</v>
@@ -17314,13 +17701,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -17343,13 +17730,13 @@
         <v>73</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -17400,7 +17787,7 @@
         <v>73</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>79</v>
@@ -17420,10 +17807,10 @@
         <v>383</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -17431,10 +17818,10 @@
       </c>
       <c r="F126" s="2"/>
       <c r="G126" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I126" t="s" s="2">
         <v>73</v>
@@ -17446,13 +17833,13 @@
         <v>73</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
@@ -17503,13 +17890,13 @@
         <v>73</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>73</v>
@@ -17523,10 +17910,10 @@
         <v>383</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17534,7 +17921,7 @@
       </c>
       <c r="F127" s="2"/>
       <c r="G127" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>79</v>
@@ -17549,13 +17936,13 @@
         <v>73</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -17606,10 +17993,10 @@
         <v>73</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>79</v>
@@ -17623,13 +18010,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17637,7 +18024,7 @@
       </c>
       <c r="F128" s="2"/>
       <c r="G128" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>75</v>
@@ -17652,15 +18039,17 @@
         <v>73</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O128" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
         <v>73</v>
@@ -17709,10 +18098,10 @@
         <v>73</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI128" t="s" s="2">
         <v>75</v>
@@ -17721,18 +18110,18 @@
         <v>73</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>73</v>
+        <v>357</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17758,10 +18147,10 @@
         <v>85</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -17812,7 +18201,7 @@
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>74</v>
@@ -17829,24 +18218,24 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>73</v>
+        <v>363</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>73</v>
@@ -17858,15 +18247,17 @@
         <v>73</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O130" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
         <v>73</v>
@@ -17915,30 +18306,30 @@
         <v>73</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>73</v>
+        <v>369</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17961,13 +18352,13 @@
         <v>73</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
@@ -17985,10 +18376,10 @@
         <v>73</v>
       </c>
       <c r="V131" t="s" s="2">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="X131" t="s" s="2">
         <v>73</v>
@@ -18018,7 +18409,7 @@
         <v>73</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>74</v>
@@ -18035,7 +18426,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>397</v>
@@ -18052,7 +18443,7 @@
         <v>74</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>73</v>
@@ -18064,13 +18455,13 @@
         <v>73</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
@@ -18121,13 +18512,13 @@
         <v>73</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>73</v>
@@ -18138,13 +18529,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18152,7 +18543,7 @@
       </c>
       <c r="F133" s="2"/>
       <c r="G133" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>79</v>
@@ -18167,13 +18558,13 @@
         <v>73</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -18224,10 +18615,10 @@
         <v>73</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>79</v>
@@ -18241,13 +18632,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -18255,7 +18646,7 @@
       </c>
       <c r="F134" s="2"/>
       <c r="G134" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>79</v>
@@ -18273,10 +18664,10 @@
         <v>85</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
@@ -18327,10 +18718,10 @@
         <v>73</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>79</v>
@@ -18344,7 +18735,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>403</v>
@@ -18358,7 +18749,7 @@
       </c>
       <c r="F135" s="2"/>
       <c r="G135" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>79</v>
@@ -18376,10 +18767,10 @@
         <v>85</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -18433,7 +18824,7 @@
         <v>403</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>79</v>
@@ -18447,13 +18838,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18464,7 +18855,7 @@
         <v>74</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I136" t="s" s="2">
         <v>73</v>
@@ -18476,13 +18867,13 @@
         <v>73</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M136" t="s" s="2">
         <v>406</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -18533,13 +18924,13 @@
         <v>73</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>73</v>
@@ -18550,13 +18941,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18579,13 +18970,13 @@
         <v>73</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -18636,7 +19027,7 @@
         <v>73</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>74</v>
@@ -18653,13 +19044,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18667,7 +19058,7 @@
       </c>
       <c r="F138" s="2"/>
       <c r="G138" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>75</v>
@@ -18682,17 +19073,15 @@
         <v>73</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="O138" s="2"/>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>73</v>
@@ -18741,10 +19130,10 @@
         <v>73</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>75</v>
@@ -18753,18 +19142,18 @@
         <v>73</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18790,10 +19179,10 @@
         <v>85</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
@@ -18844,7 +19233,7 @@
         <v>73</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>340</v>
+        <v>412</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>74</v>
@@ -18861,24 +19250,24 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>341</v>
+        <v>414</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>341</v>
+        <v>414</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>73</v>
@@ -18890,17 +19279,15 @@
         <v>73</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>344</v>
+        <v>415</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>73</v>
@@ -18949,30 +19336,30 @@
         <v>73</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>347</v>
+        <v>414</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>349</v>
+        <v>416</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>349</v>
+        <v>416</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18995,13 +19382,13 @@
         <v>73</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -19019,10 +19406,10 @@
         <v>73</v>
       </c>
       <c r="V141" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="X141" t="s" s="2">
         <v>73</v>
@@ -19052,7 +19439,7 @@
         <v>73</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>349</v>
+        <v>416</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>74</v>
@@ -19069,13 +19456,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -19086,7 +19473,7 @@
         <v>74</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>73</v>
@@ -19098,13 +19485,13 @@
         <v>73</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -19155,13 +19542,13 @@
         <v>73</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>73</v>
@@ -19172,13 +19559,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19186,7 +19573,7 @@
       </c>
       <c r="F143" s="2"/>
       <c r="G143" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>79</v>
@@ -19201,13 +19588,13 @@
         <v>73</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -19258,10 +19645,10 @@
         <v>73</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>79</v>
@@ -19275,13 +19662,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19289,7 +19676,7 @@
       </c>
       <c r="F144" s="2"/>
       <c r="G144" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>79</v>
@@ -19304,13 +19691,13 @@
         <v>73</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
@@ -19325,44 +19712,46 @@
         <v>73</v>
       </c>
       <c r="U144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG144" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="V144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z144" s="2"/>
-      <c r="AA144" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>419</v>
-      </c>
       <c r="AH144" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>79</v>
@@ -19376,13 +19765,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19390,7 +19779,7 @@
       </c>
       <c r="F145" s="2"/>
       <c r="G145" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>79</v>
@@ -19405,13 +19794,13 @@
         <v>73</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -19462,10 +19851,10 @@
         <v>73</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>79</v>
@@ -19479,13 +19868,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19511,7 +19900,7 @@
         <v>85</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N146" t="s" s="2">
         <v>427</v>
@@ -19565,7 +19954,7 @@
         <v>73</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>74</v>
@@ -19582,7 +19971,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>428</v>
@@ -19617,7 +20006,7 @@
         <v>429</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
@@ -19685,13 +20074,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>431</v>
+        <v>351</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>431</v>
+        <v>351</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -19699,10 +20088,10 @@
       </c>
       <c r="F148" s="2"/>
       <c r="G148" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>73</v>
@@ -19714,15 +20103,17 @@
         <v>73</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>432</v>
+        <v>354</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O148" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O148" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
         <v>73</v>
@@ -19771,30 +20162,30 @@
         <v>73</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>431</v>
+        <v>351</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>73</v>
+        <v>357</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>433</v>
+        <v>358</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>433</v>
+        <v>358</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19802,7 +20193,7 @@
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>79</v>
@@ -19817,13 +20208,13 @@
         <v>73</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>434</v>
+        <v>359</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>434</v>
+        <v>360</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
@@ -19874,10 +20265,10 @@
         <v>73</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>433</v>
+        <v>361</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>79</v>
@@ -19891,24 +20282,24 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>435</v>
+        <v>362</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>435</v>
+        <v>362</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>73</v>
+        <v>363</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>73</v>
@@ -19920,15 +20311,17 @@
         <v>73</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>247</v>
+        <v>364</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>436</v>
+        <v>365</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O150" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
         <v>73</v>
@@ -19977,30 +20370,30 @@
         <v>73</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>435</v>
+        <v>368</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>73</v>
+        <v>369</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>437</v>
+        <v>370</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>437</v>
+        <v>370</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -20008,7 +20401,7 @@
       </c>
       <c r="F151" s="2"/>
       <c r="G151" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>79</v>
@@ -20023,13 +20416,13 @@
         <v>73</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>439</v>
+        <v>372</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
@@ -20047,20 +20440,22 @@
         <v>73</v>
       </c>
       <c r="V151" t="s" s="2">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="X151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z151" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA151" t="s" s="2">
-        <v>440</v>
+        <v>73</v>
       </c>
       <c r="AB151" t="s" s="2">
         <v>73</v>
@@ -20078,10 +20473,10 @@
         <v>73</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>437</v>
+        <v>370</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>79</v>
@@ -20095,13 +20490,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20109,10 +20504,10 @@
       </c>
       <c r="F152" s="2"/>
       <c r="G152" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>73</v>
@@ -20124,13 +20519,13 @@
         <v>73</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -20181,13 +20576,13 @@
         <v>73</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>73</v>
@@ -20198,13 +20593,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20212,7 +20607,7 @@
       </c>
       <c r="F153" s="2"/>
       <c r="G153" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>79</v>
@@ -20227,13 +20622,13 @@
         <v>73</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -20284,10 +20679,10 @@
         <v>73</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>79</v>
@@ -20301,13 +20696,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20315,10 +20710,10 @@
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>73</v>
@@ -20330,13 +20725,13 @@
         <v>73</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -20351,7 +20746,7 @@
         <v>73</v>
       </c>
       <c r="U154" t="s" s="2">
-        <v>73</v>
+        <v>443</v>
       </c>
       <c r="V154" t="s" s="2">
         <v>73</v>
@@ -20363,13 +20758,11 @@
         <v>73</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z154" s="2"/>
       <c r="AA154" t="s" s="2">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="AB154" t="s" s="2">
         <v>73</v>
@@ -20387,18 +20780,1046 @@
         <v>73</v>
       </c>
       <c r="AG154" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C155" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AH154" t="s" s="2">
+      <c r="N155" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R155" s="2"/>
+      <c r="S155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C156" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F156" s="2"/>
+      <c r="G156" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AI154" t="s" s="2">
+      <c r="H156" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R156" s="2"/>
+      <c r="S156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C157" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F157" s="2"/>
+      <c r="G157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O157" s="2"/>
+      <c r="P157" s="2"/>
+      <c r="Q157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R157" s="2"/>
+      <c r="S157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C158" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F158" s="2"/>
+      <c r="G158" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="O158" s="2"/>
+      <c r="P158" s="2"/>
+      <c r="Q158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R158" s="2"/>
+      <c r="S158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C159" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F159" s="2"/>
+      <c r="G159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N159" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R159" s="2"/>
+      <c r="S159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F160" s="2"/>
+      <c r="G160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R160" s="2"/>
+      <c r="S160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C161" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F161" s="2"/>
+      <c r="G161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R161" s="2"/>
+      <c r="S161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y161" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Z161" s="2"/>
+      <c r="AA161" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG161" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK161" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R162" s="2"/>
+      <c r="S162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG162" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI162" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK162" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R163" s="2"/>
+      <c r="S163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG163" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AH163" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK163" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F164" s="2"/>
+      <c r="G164" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H164" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AJ154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK154" t="s" s="2">
+      <c r="I164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R164" s="2"/>
+      <c r="S164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG164" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AH164" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK164" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Cet attribut représente l'acteur  PS. </t>
+    <t xml:space="preserve">Cet attribut représente l'acteur PS. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -377,7 +377,7 @@
     <t>ActorPatient (LM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cet attribut représente l'acteur  Patient. </t>
+    <t xml:space="preserve">Cet attribut représente l'acteur Patient. </t>
   </si>
   <si>
     <t>ActorPatient.XCN1</t>
@@ -435,7 +435,7 @@
     <t>ActorSNR (LM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cet attribut représente l'acteur  SNR. </t>
+    <t xml:space="preserve">Cet attribut représente l'acteur SNR. </t>
   </si>
   <si>
     <t>ActorSNR.XCN1</t>
@@ -499,7 +499,7 @@
     <t>ActorSystem (LM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cet attribut représente l'actteur  System. </t>
+    <t xml:space="preserve">Cet attribut représente l'acteur System. </t>
   </si>
   <si>
     <t>ActorSystem.XCN1</t>
@@ -634,7 +634,7 @@
     <t>AuthorDocumentEntry (LM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Modèle logique d'un auteur d'un documeny
+    <t xml:space="preserve">Modèle logique d'un auteur d'un document
 Cette métadonnée représente les personnes physiques et/ou les systèmes (dispositifs, automates, services numériques référencés…) auteurs d’un document. 
 L’auteur peut être : 
 -  Un professionnel (personne physique) via son logiciel de professionnel, 
@@ -761,7 +761,7 @@
     <t>Document Entry (LM)</t>
   </si>
   <si>
-    <t>Model logique  d’une fiche</t>
+    <t>Modèle logique  d’une fiche</t>
   </si>
   <si>
     <t>DocumentEntry.entryUUID</t>
@@ -1082,7 +1082,7 @@
     <t>EventCode (LM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Model logique d'un eventCode.
+    <t xml:space="preserve">Modèle logique d'un eventCode.
 Un EventCode peut contenir le code représentant : 
 -  un évènement documenté (acte, traitement, diagnostic, etc…),  
 -  une modalité d’acquisition, 
@@ -1202,11 +1202,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS</t>
   </si>
   <si>
-    <t xml:space="preserve"> MatriculeINS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matricule INS (correspond au NIR (Numéro d’Identification au Répertoire des personnes physiques) ou au NIA (Numéro Identifiant Attente) de l’individu)
-</t>
+    <t>Matricule de l'Identité Nationale de Santé (INS). Il correspond au NIR (Numéro d’Identification au Répertoire des personnes physiques) ou au NIA (Numéro Identifiant Attente) de l’individu).</t>
   </si>
   <si>
     <t>PSIdNat</t>
@@ -1401,8 +1397,7 @@
     <t>SubmissionSet (LM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Model logique d'un lot de soummission.
-</t>
+    <t>Modèle logique d'un lot de soummission (SubmissionSet).</t>
   </si>
   <si>
     <t>SubmissionSet.entryUUID</t>
@@ -3629,7 +3624,7 @@
         <v>9</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="259">
@@ -3683,7 +3678,7 @@
         <v>22</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="266">
@@ -3759,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="276">
@@ -3767,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="277">
@@ -3783,7 +3778,7 @@
         <v>8</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="279">
@@ -3791,7 +3786,7 @@
         <v>9</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="280">
@@ -3845,7 +3840,7 @@
         <v>22</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="287">
@@ -3921,7 +3916,7 @@
         <v>2</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="297">
@@ -3929,7 +3924,7 @@
         <v>4</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="298">
@@ -3945,7 +3940,7 @@
         <v>8</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="300">
@@ -3953,7 +3948,7 @@
         <v>9</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="301">
@@ -4007,7 +4002,7 @@
         <v>22</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="308">
@@ -4043,7 +4038,7 @@
         <v>30</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="313">
@@ -4083,7 +4078,7 @@
         <v>2</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="318">
@@ -4091,7 +4086,7 @@
         <v>4</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="319">
@@ -4107,7 +4102,7 @@
         <v>8</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="321">
@@ -4115,7 +4110,7 @@
         <v>9</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="322">
@@ -4169,7 +4164,7 @@
         <v>22</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="329">
@@ -4245,7 +4240,7 @@
         <v>2</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="339">
@@ -4253,7 +4248,7 @@
         <v>4</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="340">
@@ -4269,7 +4264,7 @@
         <v>8</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="342">
@@ -4277,7 +4272,7 @@
         <v>9</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="343">
@@ -4331,7 +4326,7 @@
         <v>22</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="350">
@@ -4367,7 +4362,7 @@
         <v>30</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="355">
@@ -4407,7 +4402,7 @@
         <v>2</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="360">
@@ -4415,7 +4410,7 @@
         <v>4</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="361">
@@ -4431,7 +4426,7 @@
         <v>8</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="363">
@@ -4439,7 +4434,7 @@
         <v>9</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="364">
@@ -4493,7 +4488,7 @@
         <v>22</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="371">
@@ -4529,7 +4524,7 @@
         <v>30</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="376">
@@ -4569,7 +4564,7 @@
         <v>2</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="381">
@@ -4577,7 +4572,7 @@
         <v>4</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="382">
@@ -4593,7 +4588,7 @@
         <v>8</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="384">
@@ -4601,7 +4596,7 @@
         <v>9</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="385">
@@ -4655,7 +4650,7 @@
         <v>22</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="392">
@@ -4731,7 +4726,7 @@
         <v>2</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="402">
@@ -4739,7 +4734,7 @@
         <v>4</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="403">
@@ -4755,7 +4750,7 @@
         <v>8</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="405">
@@ -4763,7 +4758,7 @@
         <v>9</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="406">
@@ -4817,7 +4812,7 @@
         <v>22</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="413">
@@ -4853,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="418">
@@ -17182,7 +17177,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>351</v>
@@ -17287,7 +17282,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>358</v>
@@ -17390,7 +17385,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>362</v>
@@ -17495,7 +17490,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>370</v>
@@ -17598,13 +17593,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -17630,10 +17625,10 @@
         <v>76</v>
       </c>
       <c r="M124" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N124" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -17701,13 +17696,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -17733,10 +17728,10 @@
         <v>244</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -17787,7 +17782,7 @@
         <v>73</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>79</v>
@@ -17804,13 +17799,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -17836,10 +17831,10 @@
         <v>85</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
@@ -17890,7 +17885,7 @@
         <v>73</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>79</v>
@@ -17907,13 +17902,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17939,10 +17934,10 @@
         <v>85</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -17993,7 +17988,7 @@
         <v>73</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>79</v>
@@ -18010,7 +18005,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>351</v>
@@ -18115,7 +18110,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>358</v>
@@ -18218,7 +18213,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>362</v>
@@ -18323,7 +18318,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>370</v>
@@ -18426,13 +18421,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -18458,10 +18453,10 @@
         <v>76</v>
       </c>
       <c r="M132" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N132" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
@@ -18529,13 +18524,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18561,10 +18556,10 @@
         <v>244</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -18615,7 +18610,7 @@
         <v>73</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>79</v>
@@ -18632,13 +18627,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -18664,10 +18659,10 @@
         <v>85</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
@@ -18718,7 +18713,7 @@
         <v>73</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>79</v>
@@ -18735,13 +18730,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -18767,10 +18762,10 @@
         <v>85</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -18821,7 +18816,7 @@
         <v>73</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>79</v>
@@ -18838,13 +18833,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18870,10 +18865,10 @@
         <v>76</v>
       </c>
       <c r="M136" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -18941,13 +18936,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18973,10 +18968,10 @@
         <v>244</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -19027,7 +19022,7 @@
         <v>73</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>74</v>
@@ -19044,13 +19039,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -19076,10 +19071,10 @@
         <v>85</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
@@ -19130,7 +19125,7 @@
         <v>73</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>79</v>
@@ -19147,13 +19142,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -19179,10 +19174,10 @@
         <v>85</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
@@ -19233,7 +19228,7 @@
         <v>73</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>74</v>
@@ -19250,13 +19245,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -19282,10 +19277,10 @@
         <v>85</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
@@ -19336,7 +19331,7 @@
         <v>73</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>74</v>
@@ -19353,13 +19348,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19385,10 +19380,10 @@
         <v>85</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -19439,7 +19434,7 @@
         <v>73</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>74</v>
@@ -19456,13 +19451,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -19488,10 +19483,10 @@
         <v>85</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -19542,7 +19537,7 @@
         <v>73</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>74</v>
@@ -19559,13 +19554,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19591,10 +19586,10 @@
         <v>85</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -19645,7 +19640,7 @@
         <v>73</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>74</v>
@@ -19662,13 +19657,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19694,10 +19689,10 @@
         <v>85</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
@@ -19748,7 +19743,7 @@
         <v>73</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>74</v>
@@ -19765,13 +19760,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19797,10 +19792,10 @@
         <v>85</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -19851,7 +19846,7 @@
         <v>73</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>74</v>
@@ -19868,13 +19863,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19900,10 +19895,10 @@
         <v>85</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
@@ -19954,7 +19949,7 @@
         <v>73</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>74</v>
@@ -19971,13 +19966,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -20003,10 +19998,10 @@
         <v>85</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
@@ -20057,7 +20052,7 @@
         <v>73</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>74</v>
@@ -20074,7 +20069,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>351</v>
@@ -20179,7 +20174,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>358</v>
@@ -20282,7 +20277,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>362</v>
@@ -20387,7 +20382,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>370</v>
@@ -20490,13 +20485,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20522,10 +20517,10 @@
         <v>76</v>
       </c>
       <c r="M152" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -20593,13 +20588,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20625,10 +20620,10 @@
         <v>241</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -20679,7 +20674,7 @@
         <v>73</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>79</v>
@@ -20696,13 +20691,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20728,10 +20723,10 @@
         <v>108</v>
       </c>
       <c r="M154" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N154" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -20746,7 +20741,7 @@
         <v>73</v>
       </c>
       <c r="U154" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V154" t="s" s="2">
         <v>73</v>
@@ -20780,7 +20775,7 @@
         <v>73</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>79</v>
@@ -20797,13 +20792,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20829,10 +20824,10 @@
         <v>271</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -20883,7 +20878,7 @@
         <v>73</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>79</v>
@@ -20900,13 +20895,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20932,10 +20927,10 @@
         <v>85</v>
       </c>
       <c r="M156" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N156" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -20986,7 +20981,7 @@
         <v>73</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>74</v>
@@ -21003,13 +20998,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -21035,10 +21030,10 @@
         <v>85</v>
       </c>
       <c r="M157" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -21089,7 +21084,7 @@
         <v>73</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>74</v>
@@ -21106,13 +21101,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21138,10 +21133,10 @@
         <v>288</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
@@ -21192,7 +21187,7 @@
         <v>73</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>79</v>
@@ -21209,13 +21204,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21241,10 +21236,10 @@
         <v>268</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -21295,7 +21290,7 @@
         <v>73</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>79</v>
@@ -21312,13 +21307,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21344,10 +21339,10 @@
         <v>268</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -21398,7 +21393,7 @@
         <v>73</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>79</v>
@@ -21415,13 +21410,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21447,10 +21442,10 @@
         <v>188</v>
       </c>
       <c r="M161" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N161" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -21481,7 +21476,7 @@
       </c>
       <c r="Z161" s="2"/>
       <c r="AA161" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AB161" t="s" s="2">
         <v>73</v>
@@ -21499,7 +21494,7 @@
         <v>73</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>79</v>
@@ -21516,13 +21511,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -21545,13 +21540,13 @@
         <v>73</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M162" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="N162" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -21602,7 +21597,7 @@
         <v>73</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>79</v>
@@ -21619,13 +21614,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21651,10 +21646,10 @@
         <v>268</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
@@ -21705,7 +21700,7 @@
         <v>73</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>74</v>
@@ -21722,13 +21717,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -21754,10 +21749,10 @@
         <v>85</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
@@ -21808,7 +21803,7 @@
         <v>73</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>74</v>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="479">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -571,7 +571,7 @@
 - Le patient/usager (personne physique) via Mon espace Santé, 
 - Un système de structure (dispositif, automate, appareil connecté…), 
 - Un SNR (Service Numérique Référencé), 
-author est un ensemble constitué des sous-attributs authorInstitution , authorPerson, authorRole et authorSpecialty et ne porte pas de valeur par lui-même. </t>
+**author** est un ensemble constitué des sous-attributs **authorInstitution** , **authorPerson**, **authorRole** et **authorSpecialty** et ne porte pas de valeur par lui-même. </t>
   </si>
   <si>
     <t>Author.institution</t>
@@ -584,14 +584,11 @@
     <t>Cet attribut représente la structure de l’auteur.</t>
   </si>
   <si>
-    <t>Author.person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatient|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem)
-</t>
-  </si>
-  <si>
-    <t>author</t>
+    <t>Author.person[x]</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS
+https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatienthttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSNRhttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem</t>
   </si>
   <si>
     <t>Author.role</t>
@@ -649,7 +646,7 @@
     <t>Cet attribut représente la structure de l’auteur. Pour les documents d’expression personnelle du patient, cette métadonnée est absente.</t>
   </si>
   <si>
-    <t>AuthorDocumentEntry.person</t>
+    <t>AuthorDocumentEntry.person[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Cet attribut représente l’auteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient.  </t>
@@ -673,7 +670,7 @@
     <t>AuthorInstitution (LM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée représente la structure émettrice du lot de soumission. 
+    <t xml:space="preserve">Cet attribut représente la structure de l’auteur. 
 Pour les documents d’expression personnelle du patient, cette métadonnée est absente, cela signifie que l’élément XML &lt;rim:Slot name='authorInstitution'&gt; n’est pas transmis. </t>
   </si>
   <si>
@@ -683,7 +680,7 @@
     <t>Nom de la structure</t>
   </si>
   <si>
-    <t xml:space="preserve">NOM EDITEUR </t>
+    <t>Groupe Pitié Salpêtrière</t>
   </si>
   <si>
     <t>AuthorInstitution.XON6</t>
@@ -692,13 +689,16 @@
     <t>Autorité d’affectation</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifiant de l’organisme gérant l’identifiant de la structure. Cet identifiant, au format HL7 v.2.5 est constitué de trois sous-composants qui prennent les valeurs suivantes. </t>
+  </si>
+  <si>
     <t>AuthorInstitution.XON6.composant1</t>
   </si>
   <si>
     <t>AuthorInstitution.XON6.composant2</t>
   </si>
   <si>
-    <t>1.3.2 (OID SIRENE)</t>
+    <t>1.2.250.1.71.4.2.2</t>
   </si>
   <si>
     <t>AuthorInstitution.XON6.composant3</t>
@@ -707,13 +707,13 @@
     <t>AuthorInstitution.XON7</t>
   </si>
   <si>
-    <t>SIREN</t>
+    <t>IDNST</t>
   </si>
   <si>
     <t>AuthorInstitution.XON10</t>
   </si>
   <si>
-    <t xml:space="preserve">integer {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/StructIdNat}
+    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/StructIdNat}
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
     <t>Cette métadonnée représente la structure émettrice du lot de soumission</t>
   </si>
   <si>
-    <t>AuthorSubmissionSet.person</t>
+    <t>AuthorSubmissionSet.person[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Cette métadonnée représente la personne physique ou le système émetteur du lot de soumission.Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient.  </t>
@@ -1226,6 +1226,36 @@
 </t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/string</t>
+  </si>
+  <si>
+    <t>Primitive Type string</t>
+  </si>
+  <si>
+    <t>A sequence of Unicode characters</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>string.id</t>
+  </si>
+  <si>
+    <t>string.extension</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>1048576</t>
+  </si>
+  <si>
     <t>PatientId</t>
   </si>
   <si>
@@ -1467,6 +1497,9 @@
   </si>
   <si>
     <t>**Submission Set**</t>
+  </si>
+  <si>
+    <t>preferred</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J03-XdsContentTypeCode-CISIS/FHIR/JDV-J03-XdsContentTypeCode-CISIS</t>
@@ -2620,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129">
@@ -2628,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="130">
@@ -2644,7 +2677,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="132">
@@ -2652,7 +2685,7 @@
         <v>9</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133">
@@ -2706,7 +2739,7 @@
         <v>22</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140">
@@ -2742,7 +2775,7 @@
         <v>30</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145">
@@ -2782,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150">
@@ -2790,7 +2823,7 @@
         <v>4</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151">
@@ -2806,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153">
@@ -2814,7 +2847,7 @@
         <v>9</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154">
@@ -2868,7 +2901,7 @@
         <v>22</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="161">
@@ -2904,7 +2937,7 @@
         <v>30</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166">
@@ -3876,7 +3909,7 @@
         <v>30</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
     </row>
     <row r="292">
@@ -3884,7 +3917,7 @@
         <v>31</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>352</v>
+        <v>383</v>
       </c>
     </row>
     <row r="293">
@@ -3916,7 +3949,7 @@
         <v>2</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="297">
@@ -3924,7 +3957,7 @@
         <v>4</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="298">
@@ -3940,7 +3973,7 @@
         <v>8</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="300">
@@ -3948,7 +3981,7 @@
         <v>9</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="301">
@@ -4002,7 +4035,7 @@
         <v>22</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="308">
@@ -4038,7 +4071,7 @@
         <v>30</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="313">
@@ -4078,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="318">
@@ -4086,7 +4119,7 @@
         <v>4</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="319">
@@ -4102,7 +4135,7 @@
         <v>8</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="321">
@@ -4110,7 +4143,7 @@
         <v>9</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="322">
@@ -4164,7 +4197,7 @@
         <v>22</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="329">
@@ -4240,7 +4273,7 @@
         <v>2</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="339">
@@ -4248,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="340">
@@ -4264,7 +4297,7 @@
         <v>8</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="342">
@@ -4272,7 +4305,7 @@
         <v>9</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="343">
@@ -4326,7 +4359,7 @@
         <v>22</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="350">
@@ -4362,7 +4395,7 @@
         <v>30</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="355">
@@ -4402,7 +4435,7 @@
         <v>2</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="360">
@@ -4410,7 +4443,7 @@
         <v>4</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="361">
@@ -4426,7 +4459,7 @@
         <v>8</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="363">
@@ -4434,7 +4467,7 @@
         <v>9</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="364">
@@ -4488,7 +4521,7 @@
         <v>22</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="371">
@@ -4524,7 +4557,7 @@
         <v>30</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="376">
@@ -4564,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="381">
@@ -4572,7 +4605,7 @@
         <v>4</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="382">
@@ -4588,7 +4621,7 @@
         <v>8</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="384">
@@ -4596,7 +4629,7 @@
         <v>9</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="385">
@@ -4650,7 +4683,7 @@
         <v>22</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="392">
@@ -4686,7 +4719,7 @@
         <v>30</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
     </row>
     <row r="397">
@@ -4694,7 +4727,7 @@
         <v>31</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>352</v>
+        <v>383</v>
       </c>
     </row>
     <row r="398">
@@ -4726,7 +4759,7 @@
         <v>2</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="402">
@@ -4734,7 +4767,7 @@
         <v>4</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="403">
@@ -4750,7 +4783,7 @@
         <v>8</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="405">
@@ -4758,7 +4791,7 @@
         <v>9</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="406">
@@ -4812,7 +4845,7 @@
         <v>22</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="413">
@@ -4848,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="418">
@@ -5572,10 +5605,10 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>73</v>
@@ -5647,10 +5680,10 @@
         <v>99</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>73</v>
@@ -6602,10 +6635,10 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>73</v>
@@ -6677,10 +6710,10 @@
         <v>99</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
@@ -7632,10 +7665,10 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>73</v>
@@ -7707,10 +7740,10 @@
         <v>99</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -8662,10 +8695,10 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>73</v>
@@ -8737,10 +8770,10 @@
         <v>99</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -9692,10 +9725,10 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>73</v>
@@ -9767,10 +9800,10 @@
         <v>99</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>73</v>
@@ -10431,10 +10464,10 @@
         <v>185</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -10505,10 +10538,10 @@
         <v>177</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -10531,13 +10564,13 @@
         <v>73</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -10564,11 +10597,11 @@
         <v>73</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB55" t="s" s="2">
         <v>73</v>
@@ -10586,7 +10619,7 @@
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
@@ -10606,10 +10639,10 @@
         <v>177</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -10632,13 +10665,13 @@
         <v>73</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M56" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -10665,11 +10698,11 @@
         <v>73</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB56" t="s" s="2">
         <v>73</v>
@@ -10687,7 +10720,7 @@
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
@@ -10704,13 +10737,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -10736,10 +10769,10 @@
         <v>76</v>
       </c>
       <c r="M57" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -10807,13 +10840,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -10839,7 +10872,7 @@
         <v>182</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>183</v>
@@ -10910,13 +10943,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -10942,10 +10975,10 @@
         <v>185</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -11013,13 +11046,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -11042,13 +11075,13 @@
         <v>73</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -11075,11 +11108,11 @@
         <v>73</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB60" t="s" s="2">
         <v>73</v>
@@ -11097,7 +11130,7 @@
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>74</v>
@@ -11114,13 +11147,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -11143,13 +11176,13 @@
         <v>73</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M61" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -11176,11 +11209,11 @@
         <v>73</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB61" t="s" s="2">
         <v>73</v>
@@ -11198,7 +11231,7 @@
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
@@ -11215,13 +11248,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -11247,10 +11280,10 @@
         <v>76</v>
       </c>
       <c r="M62" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -11318,13 +11351,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -11350,10 +11383,10 @@
         <v>85</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -11368,7 +11401,7 @@
         <v>73</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="V63" t="s" s="2">
         <v>73</v>
@@ -11404,7 +11437,7 @@
         <v>73</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -11421,13 +11454,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -11453,7 +11486,7 @@
         <v>94</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>216</v>
@@ -11507,7 +11540,7 @@
         <v>73</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -11524,7 +11557,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>217</v>
@@ -11538,10 +11571,10 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>73</v>
@@ -11613,10 +11646,10 @@
         <v>217</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>73</v>
@@ -11627,7 +11660,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>218</v>
@@ -11730,7 +11763,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>220</v>
@@ -11833,7 +11866,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>221</v>
@@ -11936,7 +11969,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>223</v>
@@ -12280,7 +12313,7 @@
         <v>233</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -12377,13 +12410,13 @@
         <v>73</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -12410,11 +12443,11 @@
         <v>73</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z73" s="2"/>
       <c r="AA73" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB73" t="s" s="2">
         <v>73</v>
@@ -12432,7 +12465,7 @@
         <v>73</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>74</v>
@@ -12478,13 +12511,13 @@
         <v>73</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M74" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -12511,11 +12544,11 @@
         <v>73</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z74" s="2"/>
       <c r="AA74" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB74" t="s" s="2">
         <v>73</v>
@@ -12533,7 +12566,7 @@
         <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>74</v>
@@ -12888,7 +12921,7 @@
         <v>73</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>247</v>
@@ -12991,7 +13024,7 @@
         <v>73</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>249</v>
@@ -13024,7 +13057,7 @@
         <v>73</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z79" s="2"/>
       <c r="AA79" t="s" s="2">
@@ -14637,7 +14670,7 @@
         <v>73</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>294</v>
@@ -14670,7 +14703,7 @@
         <v>73</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z95" s="2"/>
       <c r="AA95" t="s" s="2">
@@ -14738,7 +14771,7 @@
         <v>73</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>299</v>
@@ -14771,7 +14804,7 @@
         <v>73</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z96" s="2"/>
       <c r="AA96" t="s" s="2">
@@ -14942,7 +14975,7 @@
         <v>73</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>307</v>
@@ -14975,7 +15008,7 @@
         <v>73</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z98" s="2"/>
       <c r="AA98" t="s" s="2">
@@ -15043,7 +15076,7 @@
         <v>73</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>311</v>
@@ -15076,7 +15109,7 @@
         <v>73</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z99" s="2"/>
       <c r="AA99" t="s" s="2">
@@ -15144,7 +15177,7 @@
         <v>73</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>315</v>
@@ -15177,7 +15210,7 @@
         <v>73</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z100" s="2"/>
       <c r="AA100" t="s" s="2">
@@ -15245,7 +15278,7 @@
         <v>73</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>319</v>
@@ -15278,7 +15311,7 @@
         <v>73</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z101" s="2"/>
       <c r="AA101" t="s" s="2">
@@ -15964,7 +15997,7 @@
         <v>73</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>114</v>
@@ -15997,7 +16030,7 @@
         <v>73</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z108" s="2"/>
       <c r="AA108" t="s" s="2">
@@ -16271,7 +16304,7 @@
         <v>73</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>344</v>
@@ -17180,10 +17213,10 @@
         <v>378</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -17209,13 +17242,13 @@
         <v>76</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -17265,7 +17298,7 @@
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>74</v>
@@ -17285,10 +17318,10 @@
         <v>378</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -17388,10 +17421,10 @@
         <v>378</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -17493,10 +17526,10 @@
         <v>378</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -17519,10 +17552,10 @@
         <v>73</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="N123" t="s" s="2">
         <v>372</v>
@@ -17543,13 +17576,13 @@
         <v>73</v>
       </c>
       <c r="V123" t="s" s="2">
-        <v>373</v>
+        <v>73</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>374</v>
+        <v>73</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>73</v>
+        <v>391</v>
       </c>
       <c r="Y123" t="s" s="2">
         <v>73</v>
@@ -17576,7 +17609,7 @@
         <v>73</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>74</v>
@@ -17593,13 +17626,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -17625,10 +17658,10 @@
         <v>76</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -17696,13 +17729,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -17728,10 +17761,10 @@
         <v>244</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -17782,7 +17815,7 @@
         <v>73</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>79</v>
@@ -17799,13 +17832,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -17831,10 +17864,10 @@
         <v>85</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
@@ -17885,7 +17918,7 @@
         <v>73</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>79</v>
@@ -17902,13 +17935,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17934,10 +17967,10 @@
         <v>85</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -17988,7 +18021,7 @@
         <v>73</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>79</v>
@@ -18005,7 +18038,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>351</v>
@@ -18110,7 +18143,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>358</v>
@@ -18213,7 +18246,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>362</v>
@@ -18318,7 +18351,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>370</v>
@@ -18421,13 +18454,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -18453,10 +18486,10 @@
         <v>76</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
@@ -18524,13 +18557,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18556,10 +18589,10 @@
         <v>244</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -18610,7 +18643,7 @@
         <v>73</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>79</v>
@@ -18627,13 +18660,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -18659,10 +18692,10 @@
         <v>85</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
@@ -18713,7 +18746,7 @@
         <v>73</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>79</v>
@@ -18730,13 +18763,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -18762,10 +18795,10 @@
         <v>85</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -18816,7 +18849,7 @@
         <v>73</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>79</v>
@@ -18833,13 +18866,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18865,10 +18898,10 @@
         <v>76</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -18936,13 +18969,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18968,10 +19001,10 @@
         <v>244</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -19022,7 +19055,7 @@
         <v>73</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>74</v>
@@ -19039,13 +19072,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -19071,10 +19104,10 @@
         <v>85</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
@@ -19125,7 +19158,7 @@
         <v>73</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>79</v>
@@ -19142,13 +19175,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -19174,10 +19207,10 @@
         <v>85</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
@@ -19228,7 +19261,7 @@
         <v>73</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>74</v>
@@ -19245,13 +19278,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -19277,10 +19310,10 @@
         <v>85</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
@@ -19331,7 +19364,7 @@
         <v>73</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>74</v>
@@ -19348,13 +19381,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19380,10 +19413,10 @@
         <v>85</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -19434,7 +19467,7 @@
         <v>73</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>74</v>
@@ -19451,13 +19484,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -19483,10 +19516,10 @@
         <v>85</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -19537,7 +19570,7 @@
         <v>73</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>74</v>
@@ -19554,13 +19587,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19586,10 +19619,10 @@
         <v>85</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -19640,7 +19673,7 @@
         <v>73</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>74</v>
@@ -19657,13 +19690,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19689,10 +19722,10 @@
         <v>85</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
@@ -19743,7 +19776,7 @@
         <v>73</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>74</v>
@@ -19760,13 +19793,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19792,10 +19825,10 @@
         <v>85</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -19846,7 +19879,7 @@
         <v>73</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>74</v>
@@ -19863,13 +19896,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19895,10 +19928,10 @@
         <v>85</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
@@ -19949,7 +19982,7 @@
         <v>73</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>74</v>
@@ -19966,13 +19999,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19998,10 +20031,10 @@
         <v>85</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
@@ -20052,7 +20085,7 @@
         <v>73</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>74</v>
@@ -20069,13 +20102,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -20101,13 +20134,13 @@
         <v>76</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
@@ -20157,7 +20190,7 @@
         <v>73</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>74</v>
@@ -20174,13 +20207,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -20277,13 +20310,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20382,13 +20415,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -20411,10 +20444,10 @@
         <v>73</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="N151" t="s" s="2">
         <v>372</v>
@@ -20435,13 +20468,13 @@
         <v>73</v>
       </c>
       <c r="V151" t="s" s="2">
-        <v>373</v>
+        <v>73</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>374</v>
+        <v>73</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>73</v>
+        <v>391</v>
       </c>
       <c r="Y151" t="s" s="2">
         <v>73</v>
@@ -20468,7 +20501,7 @@
         <v>73</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>74</v>
@@ -20485,13 +20518,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20517,10 +20550,10 @@
         <v>76</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -20588,13 +20621,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20620,10 +20653,10 @@
         <v>241</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -20674,7 +20707,7 @@
         <v>73</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>79</v>
@@ -20691,13 +20724,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20723,10 +20756,10 @@
         <v>108</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -20741,7 +20774,7 @@
         <v>73</v>
       </c>
       <c r="U154" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="V154" t="s" s="2">
         <v>73</v>
@@ -20753,7 +20786,7 @@
         <v>73</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z154" s="2"/>
       <c r="AA154" t="s" s="2">
@@ -20775,7 +20808,7 @@
         <v>73</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>79</v>
@@ -20792,13 +20825,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20824,10 +20857,10 @@
         <v>271</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -20878,7 +20911,7 @@
         <v>73</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>79</v>
@@ -20895,13 +20928,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20927,10 +20960,10 @@
         <v>85</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -20981,7 +21014,7 @@
         <v>73</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>74</v>
@@ -20998,13 +21031,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -21030,10 +21063,10 @@
         <v>85</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -21084,7 +21117,7 @@
         <v>73</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>74</v>
@@ -21101,13 +21134,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21133,10 +21166,10 @@
         <v>288</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
@@ -21187,7 +21220,7 @@
         <v>73</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>79</v>
@@ -21204,13 +21237,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21236,10 +21269,10 @@
         <v>268</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -21290,7 +21323,7 @@
         <v>73</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>79</v>
@@ -21307,13 +21340,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21339,10 +21372,10 @@
         <v>268</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -21393,7 +21426,7 @@
         <v>73</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>79</v>
@@ -21410,13 +21443,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21439,13 +21472,13 @@
         <v>73</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -21472,11 +21505,11 @@
         <v>73</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>191</v>
+        <v>470</v>
       </c>
       <c r="Z161" s="2"/>
       <c r="AA161" t="s" s="2">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="AB161" t="s" s="2">
         <v>73</v>
@@ -21494,7 +21527,7 @@
         <v>73</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>79</v>
@@ -21511,13 +21544,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -21540,13 +21573,13 @@
         <v>73</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -21597,7 +21630,7 @@
         <v>73</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>79</v>
@@ -21614,13 +21647,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21646,10 +21679,10 @@
         <v>268</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
@@ -21700,7 +21733,7 @@
         <v>73</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>74</v>
@@ -21717,13 +21750,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -21749,10 +21782,10 @@
         <v>85</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
@@ -21803,7 +21836,7 @@
         <v>73</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>74</v>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -545,7 +545,8 @@
     <t>ActorXDS (LM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cet attribut représente un acteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient. </t>
+    <t>Cet attribut représente un acteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient. 
+XCN de HL7 v2.5</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Base</t>
@@ -604,7 +605,7 @@
     <t>**Author Role**</t>
   </si>
   <si>
-    <t>required</t>
+    <t>preferred</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS</t>
@@ -619,7 +620,7 @@
     <t>**AutorSpecialty**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J56-AuthorSpecialty-DMP/FHIR/JDV-J56-AuthorSpecialty-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J01-XdsAuthorSpecialty-CISIS/FHIR/JDV-J01-XdsAuthorSpecialty-CISIS</t>
   </si>
   <si>
     <t>AuthorDocumentEntry</t>
@@ -837,11 +838,11 @@
     <t>Cette métadonnée représente les personnes physiques et/ou les systèmes (dispositifs, automates, services numériques référencés…) auteurs d’un document.</t>
   </si>
   <si>
-    <t>DocumentEntry.legalAuthenticator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatient|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem)
-</t>
+    <t>DocumentEntry.legalAuthenticator[x]</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS
+https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatienthttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem</t>
   </si>
   <si>
     <t>Cette métadonnée représente l'acteur prenant la responsabilité du contenu médical du document</t>
@@ -942,7 +943,7 @@
     <t>**Class Code**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J57-ClassCode-DMP/FHIR/JDV-J57-ClassCode-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J06-XdsClassCode-CISIS/FHIR/JDV-J06-XdsClassCode-CISIS</t>
   </si>
   <si>
     <t>DocumentEntry.confidentiality</t>
@@ -982,7 +983,7 @@
     <t>**Format Code**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J60-FormatCode-DMP/FHIR/JDV-J60-FormatCode-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J10-XdsFormatCode-CISIS/FHIR/JDV-J10-XdsFormatCode-CISIS</t>
   </si>
   <si>
     <t>DocumentEntry.healthcareFacilityTypeCode</t>
@@ -994,7 +995,7 @@
     <t>Healthcare Facility Type Code**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J61-HealthcareFacilityTypeCode-DMP/FHIR/JDV-J61-HealthcareFacilityTypeCode-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
   </si>
   <si>
     <t>DocumentEntry.practiceSetting</t>
@@ -1006,7 +1007,7 @@
     <t>**Practice Setting**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J62-PracticeSettingCode-DMP/FHIR/JDV-J62-PracticeSettingCode-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J04-XdsPracticeSettingCode-CISIS/FHIR/JDV-J04-XdsPracticeSettingCode-CISIS</t>
   </si>
   <si>
     <t>DocumentEntry.type</t>
@@ -1018,7 +1019,7 @@
     <t>**Type Code**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J66-TypeCode-DMP/FHIR/JDV-J66-TypeCode-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J07-XdsTypeCode-CISIS/FHIR/JDV-J07-XdsTypeCode-CISIS</t>
   </si>
   <si>
     <t>DocumentEntry.documentAvailability</t>
@@ -1064,7 +1065,7 @@
     <t>DocumentEntry.referenceIdList.CX5</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J231-XdsTypesIdentifiantsReferenceId-DMP/FHIR/JDV-J231-XdsTypesIdentifiantsReferenceId-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J197-XdsTypesIdentifiantsReferenceId-CISIS/FHIR/JDV-J197-XdsTypesIdentifiantsReferenceId-CISIS</t>
   </si>
   <si>
     <t>DocumentEntry.version</t>
@@ -1448,6 +1449,9 @@
     <t>urn:oasis:names:tc:ebxml-regrep:StatusType:Approved</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>SubmissionSet.submissionTime</t>
   </si>
   <si>
@@ -1497,9 +1501,6 @@
   </si>
   <si>
     <t>**Submission Set**</t>
-  </si>
-  <si>
-    <t>preferred</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J03-XdsContentTypeCode-CISIS/FHIR/JDV-J03-XdsContentTypeCode-CISIS</t>
@@ -4950,7 +4951,7 @@
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="105.8203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="106.83203125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.65625" customWidth="true" bestFit="true"/>
@@ -20786,7 +20787,7 @@
         <v>73</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>190</v>
+        <v>453</v>
       </c>
       <c r="Z154" s="2"/>
       <c r="AA154" t="s" s="2">
@@ -20828,10 +20829,10 @@
         <v>443</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20857,10 +20858,10 @@
         <v>271</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -20911,7 +20912,7 @@
         <v>73</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>79</v>
@@ -20931,10 +20932,10 @@
         <v>443</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20960,10 +20961,10 @@
         <v>85</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -21014,7 +21015,7 @@
         <v>73</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>74</v>
@@ -21034,10 +21035,10 @@
         <v>443</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -21063,10 +21064,10 @@
         <v>85</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -21117,7 +21118,7 @@
         <v>73</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>74</v>
@@ -21137,10 +21138,10 @@
         <v>443</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21166,10 +21167,10 @@
         <v>288</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
@@ -21220,7 +21221,7 @@
         <v>73</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>79</v>
@@ -21240,10 +21241,10 @@
         <v>443</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21269,10 +21270,10 @@
         <v>268</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -21323,7 +21324,7 @@
         <v>73</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>79</v>
@@ -21343,10 +21344,10 @@
         <v>443</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21372,10 +21373,10 @@
         <v>268</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -21426,7 +21427,7 @@
         <v>73</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>79</v>
@@ -21446,10 +21447,10 @@
         <v>443</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21475,10 +21476,10 @@
         <v>187</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -21505,7 +21506,7 @@
         <v>73</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>470</v>
+        <v>190</v>
       </c>
       <c r="Z161" s="2"/>
       <c r="AA161" t="s" s="2">
@@ -21527,7 +21528,7 @@
         <v>73</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>79</v>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1210,9 +1210,6 @@
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PSIdNat</t>
   </si>
   <si>
     <t xml:space="preserve">Identification nationale principale du professionnel propre aux SI de l’ANS et au CI-SIS. (Correspondance dans le MOS : idNat_PS) 
@@ -1240,6 +1237,10 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+PSIdNat-invariant:Le numéro PSIdNat doit être un entier commençant par 0, 1, 3, 4, 5, 6 ou 8 {$this.matches('^(0|1|3|4|5|6|8)\d*$')}</t>
   </si>
   <si>
     <t>string.id</t>
@@ -3820,7 +3821,7 @@
         <v>9</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="280">
@@ -3874,7 +3875,7 @@
         <v>22</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="287">
@@ -3910,7 +3911,7 @@
         <v>30</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="292">
@@ -3918,7 +3919,7 @@
         <v>31</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="293">
@@ -4720,7 +4721,7 @@
         <v>30</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="397">
@@ -4728,7 +4729,7 @@
         <v>31</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="398">
@@ -17214,10 +17215,10 @@
         <v>378</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -17243,13 +17244,13 @@
         <v>76</v>
       </c>
       <c r="M120" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -17299,7 +17300,7 @@
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>74</v>
@@ -17311,7 +17312,7 @@
         <v>73</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>357</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121">
@@ -20106,10 +20107,10 @@
         <v>439</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -20135,13 +20136,13 @@
         <v>76</v>
       </c>
       <c r="M148" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N148" t="s" s="2">
+      <c r="O148" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
@@ -20191,7 +20192,7 @@
         <v>73</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>74</v>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6546" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6546" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Identifiant de l'acteur</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>801234567890</t>
@@ -1834,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -1842,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
@@ -1858,7 +1861,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -1866,7 +1869,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
@@ -1920,7 +1923,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -1956,7 +1959,7 @@
         <v>30</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -1996,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45">
@@ -2004,7 +2007,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46">
@@ -2020,7 +2023,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48">
@@ -2028,7 +2031,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49">
@@ -2082,7 +2085,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56">
@@ -2118,7 +2121,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61">
@@ -2158,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66">
@@ -2166,7 +2169,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67">
@@ -2182,7 +2185,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69">
@@ -2190,7 +2193,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70">
@@ -2244,7 +2247,7 @@
         <v>22</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77">
@@ -2280,7 +2283,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82">
@@ -2320,7 +2323,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87">
@@ -2344,7 +2347,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90">
@@ -2352,7 +2355,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91">
@@ -2406,7 +2409,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98">
@@ -2450,7 +2453,7 @@
         <v>31</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104">
@@ -2482,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108">
@@ -2490,7 +2493,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109">
@@ -2506,7 +2509,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111">
@@ -2514,7 +2517,7 @@
         <v>9</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112">
@@ -2568,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119">
@@ -2604,7 +2607,7 @@
         <v>30</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124">
@@ -2612,7 +2615,7 @@
         <v>31</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125">
@@ -2644,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="129">
@@ -2652,7 +2655,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130">
@@ -2668,7 +2671,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="132">
@@ -2676,7 +2679,7 @@
         <v>9</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="133">
@@ -2730,7 +2733,7 @@
         <v>22</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140">
@@ -2766,7 +2769,7 @@
         <v>30</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145">
@@ -2774,7 +2777,7 @@
         <v>31</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="146">
@@ -2806,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150">
@@ -2814,7 +2817,7 @@
         <v>4</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151">
@@ -2830,7 +2833,7 @@
         <v>8</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153">
@@ -2838,7 +2841,7 @@
         <v>9</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154">
@@ -2892,7 +2895,7 @@
         <v>22</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="161">
@@ -2928,7 +2931,7 @@
         <v>30</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166">
@@ -2936,7 +2939,7 @@
         <v>31</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167">
@@ -2968,7 +2971,7 @@
         <v>2</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="171">
@@ -2976,7 +2979,7 @@
         <v>4</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="172">
@@ -2992,7 +2995,7 @@
         <v>8</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="174">
@@ -3000,7 +3003,7 @@
         <v>9</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175">
@@ -3054,7 +3057,7 @@
         <v>22</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="182">
@@ -3090,7 +3093,7 @@
         <v>30</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="187">
@@ -3098,7 +3101,7 @@
         <v>31</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188">
@@ -3130,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="192">
@@ -3138,7 +3141,7 @@
         <v>4</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="193">
@@ -3154,7 +3157,7 @@
         <v>8</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="195">
@@ -3162,7 +3165,7 @@
         <v>9</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="196">
@@ -3216,7 +3219,7 @@
         <v>22</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="203">
@@ -3252,7 +3255,7 @@
         <v>30</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="208">
@@ -3260,7 +3263,7 @@
         <v>31</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="209">
@@ -3292,7 +3295,7 @@
         <v>2</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="213">
@@ -3300,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="214">
@@ -3316,7 +3319,7 @@
         <v>8</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="216">
@@ -3324,7 +3327,7 @@
         <v>9</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="217">
@@ -3378,7 +3381,7 @@
         <v>22</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="224">
@@ -3414,7 +3417,7 @@
         <v>30</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="229">
@@ -3422,7 +3425,7 @@
         <v>31</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="230">
@@ -3454,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="234">
@@ -3462,7 +3465,7 @@
         <v>4</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="235">
@@ -3478,7 +3481,7 @@
         <v>8</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="237">
@@ -3486,7 +3489,7 @@
         <v>9</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="238">
@@ -3540,7 +3543,7 @@
         <v>22</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="245">
@@ -3568,7 +3571,7 @@
         <v>28</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="249">
@@ -3576,7 +3579,7 @@
         <v>30</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="250">
@@ -3584,7 +3587,7 @@
         <v>31</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="251">
@@ -3600,7 +3603,7 @@
         <v>35</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="253">
@@ -3616,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="255">
@@ -3624,7 +3627,7 @@
         <v>4</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="256">
@@ -3640,7 +3643,7 @@
         <v>8</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="258">
@@ -3648,7 +3651,7 @@
         <v>9</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="259">
@@ -3702,7 +3705,7 @@
         <v>22</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="266">
@@ -3730,7 +3733,7 @@
         <v>28</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="270">
@@ -3738,7 +3741,7 @@
         <v>30</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="271">
@@ -3746,7 +3749,7 @@
         <v>31</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="272">
@@ -3762,7 +3765,7 @@
         <v>35</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="274">
@@ -3778,7 +3781,7 @@
         <v>2</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="276">
@@ -3786,7 +3789,7 @@
         <v>4</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="277">
@@ -3802,7 +3805,7 @@
         <v>8</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="279">
@@ -3810,7 +3813,7 @@
         <v>9</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="280">
@@ -3864,7 +3867,7 @@
         <v>22</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="287">
@@ -3892,7 +3895,7 @@
         <v>28</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="291">
@@ -3900,7 +3903,7 @@
         <v>30</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="292">
@@ -3908,7 +3911,7 @@
         <v>31</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="293">
@@ -3924,7 +3927,7 @@
         <v>35</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="295">
@@ -3940,7 +3943,7 @@
         <v>2</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="297">
@@ -3948,7 +3951,7 @@
         <v>4</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="298">
@@ -3964,7 +3967,7 @@
         <v>8</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="300">
@@ -3972,7 +3975,7 @@
         <v>9</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="301">
@@ -4026,7 +4029,7 @@
         <v>22</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="308">
@@ -4062,7 +4065,7 @@
         <v>30</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="313">
@@ -4070,7 +4073,7 @@
         <v>31</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="314">
@@ -4102,7 +4105,7 @@
         <v>2</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="318">
@@ -4110,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="319">
@@ -4126,7 +4129,7 @@
         <v>8</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="321">
@@ -4134,7 +4137,7 @@
         <v>9</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="322">
@@ -4188,7 +4191,7 @@
         <v>22</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="329">
@@ -4216,7 +4219,7 @@
         <v>28</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="333">
@@ -4224,7 +4227,7 @@
         <v>30</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="334">
@@ -4232,7 +4235,7 @@
         <v>31</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="335">
@@ -4248,7 +4251,7 @@
         <v>35</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="337">
@@ -4264,7 +4267,7 @@
         <v>2</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="339">
@@ -4272,7 +4275,7 @@
         <v>4</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="340">
@@ -4288,7 +4291,7 @@
         <v>8</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="342">
@@ -4296,7 +4299,7 @@
         <v>9</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="343">
@@ -4350,7 +4353,7 @@
         <v>22</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="350">
@@ -4386,7 +4389,7 @@
         <v>30</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="355">
@@ -4394,7 +4397,7 @@
         <v>31</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="356">
@@ -4426,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="360">
@@ -4434,7 +4437,7 @@
         <v>4</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="361">
@@ -4450,7 +4453,7 @@
         <v>8</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="363">
@@ -4458,7 +4461,7 @@
         <v>9</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="364">
@@ -4512,7 +4515,7 @@
         <v>22</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="371">
@@ -4548,7 +4551,7 @@
         <v>30</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="376">
@@ -4556,7 +4559,7 @@
         <v>31</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="377">
@@ -4588,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="381">
@@ -4596,7 +4599,7 @@
         <v>4</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="382">
@@ -4612,7 +4615,7 @@
         <v>8</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="384">
@@ -4620,7 +4623,7 @@
         <v>9</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="385">
@@ -4674,7 +4677,7 @@
         <v>22</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="392">
@@ -4702,7 +4705,7 @@
         <v>28</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="396">
@@ -4710,7 +4713,7 @@
         <v>30</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="397">
@@ -4718,7 +4721,7 @@
         <v>31</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="398">
@@ -4734,7 +4737,7 @@
         <v>35</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="400">
@@ -4750,7 +4753,7 @@
         <v>2</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="402">
@@ -4758,7 +4761,7 @@
         <v>4</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="403">
@@ -4774,7 +4777,7 @@
         <v>8</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="405">
@@ -4782,7 +4785,7 @@
         <v>9</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="406">
@@ -4836,7 +4839,7 @@
         <v>22</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="413">
@@ -4872,7 +4875,7 @@
         <v>30</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="418">
@@ -4880,7 +4883,7 @@
         <v>31</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="419">
@@ -5205,7 +5208,7 @@
         <v>81</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -5220,7 +5223,7 @@
         <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V3" t="s" s="2">
         <v>73</v>
@@ -5244,17 +5247,17 @@
         <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -5300,13 +5303,13 @@
         <v>73</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -5318,7 +5321,7 @@
         <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U4" t="s" s="2">
         <v>73</v>
@@ -5357,7 +5360,7 @@
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>79</v>
@@ -5403,13 +5406,13 @@
         <v>73</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -5421,7 +5424,7 @@
         <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U5" t="s" s="2">
         <v>73</v>
@@ -5460,7 +5463,7 @@
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
@@ -5480,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -5506,13 +5509,13 @@
         <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -5563,7 +5566,7 @@
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>79</v>
@@ -5583,10 +5586,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -5609,13 +5612,13 @@
         <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -5666,7 +5669,7 @@
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>79</v>
@@ -5686,10 +5689,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -5712,13 +5715,13 @@
         <v>73</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -5769,7 +5772,7 @@
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>79</v>
@@ -5789,10 +5792,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -5815,13 +5818,13 @@
         <v>73</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -5872,7 +5875,7 @@
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
@@ -5892,10 +5895,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -5918,13 +5921,13 @@
         <v>73</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -5936,7 +5939,7 @@
         <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U10" t="s" s="2">
         <v>73</v>
@@ -5975,7 +5978,7 @@
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>79</v>
@@ -5995,10 +5998,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -6021,13 +6024,13 @@
         <v>73</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -6078,7 +6081,7 @@
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>79</v>
@@ -6098,10 +6101,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -6124,13 +6127,13 @@
         <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -6181,7 +6184,7 @@
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>79</v>
@@ -6201,10 +6204,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -6227,13 +6230,13 @@
         <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -6284,7 +6287,7 @@
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
@@ -6304,10 +6307,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -6331,7 +6334,7 @@
         <v>73</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -6383,7 +6386,7 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
@@ -6401,10 +6404,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -6428,7 +6431,7 @@
         <v>73</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -6480,7 +6483,7 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
@@ -6495,13 +6498,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -6527,10 +6530,10 @@
         <v>76</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -6598,13 +6601,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -6627,13 +6630,13 @@
         <v>73</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -6648,7 +6651,7 @@
         <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V17" t="s" s="2">
         <v>73</v>
@@ -6672,17 +6675,17 @@
         <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
@@ -6699,13 +6702,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -6728,13 +6731,13 @@
         <v>73</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -6746,7 +6749,7 @@
         <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>73</v>
@@ -6785,7 +6788,7 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
@@ -6802,13 +6805,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -6831,13 +6834,13 @@
         <v>73</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -6849,7 +6852,7 @@
         <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>73</v>
@@ -6888,7 +6891,7 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
@@ -6905,13 +6908,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -6934,13 +6937,13 @@
         <v>73</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -6991,7 +6994,7 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -7008,13 +7011,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -7037,13 +7040,13 @@
         <v>73</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -7094,7 +7097,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -7111,13 +7114,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -7140,13 +7143,13 @@
         <v>73</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -7197,7 +7200,7 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -7214,13 +7217,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -7243,13 +7246,13 @@
         <v>73</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -7300,7 +7303,7 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
@@ -7317,13 +7320,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -7346,13 +7349,13 @@
         <v>73</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -7403,7 +7406,7 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -7420,13 +7423,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -7449,13 +7452,13 @@
         <v>73</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -7506,7 +7509,7 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -7523,13 +7526,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -7552,13 +7555,13 @@
         <v>73</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -7609,7 +7612,7 @@
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -7626,13 +7629,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -7655,13 +7658,13 @@
         <v>73</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -7712,7 +7715,7 @@
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -7729,13 +7732,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -7759,7 +7762,7 @@
         <v>73</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -7811,7 +7814,7 @@
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -7826,13 +7829,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -7856,7 +7859,7 @@
         <v>73</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -7908,7 +7911,7 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -7923,13 +7926,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -7955,10 +7958,10 @@
         <v>76</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -8026,13 +8029,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -8055,13 +8058,13 @@
         <v>73</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -8076,7 +8079,7 @@
         <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V31" t="s" s="2">
         <v>73</v>
@@ -8100,17 +8103,17 @@
         <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -8127,13 +8130,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -8156,13 +8159,13 @@
         <v>73</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -8174,7 +8177,7 @@
         <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>73</v>
@@ -8213,7 +8216,7 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -8230,13 +8233,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -8259,13 +8262,13 @@
         <v>73</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -8277,7 +8280,7 @@
         <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>73</v>
@@ -8316,7 +8319,7 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -8333,13 +8336,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -8362,13 +8365,13 @@
         <v>73</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -8419,7 +8422,7 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -8436,13 +8439,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -8465,13 +8468,13 @@
         <v>73</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -8522,7 +8525,7 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -8539,13 +8542,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -8568,13 +8571,13 @@
         <v>73</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -8625,7 +8628,7 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -8642,13 +8645,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -8671,13 +8674,13 @@
         <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -8728,7 +8731,7 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
@@ -8745,13 +8748,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -8774,13 +8777,13 @@
         <v>73</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -8795,7 +8798,7 @@
         <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V38" t="s" s="2">
         <v>73</v>
@@ -8831,7 +8834,7 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -8848,13 +8851,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -8877,13 +8880,13 @@
         <v>73</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -8934,7 +8937,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -8951,13 +8954,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -8980,13 +8983,13 @@
         <v>73</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -9037,7 +9040,7 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -9054,13 +9057,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -9083,13 +9086,13 @@
         <v>73</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -9140,7 +9143,7 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -9157,13 +9160,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -9187,7 +9190,7 @@
         <v>73</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -9239,7 +9242,7 @@
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -9254,13 +9257,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -9284,7 +9287,7 @@
         <v>73</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -9336,7 +9339,7 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
@@ -9351,13 +9354,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -9383,10 +9386,10 @@
         <v>76</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -9454,13 +9457,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -9483,13 +9486,13 @@
         <v>73</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -9504,7 +9507,7 @@
         <v>73</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V45" t="s" s="2">
         <v>73</v>
@@ -9528,17 +9531,17 @@
         <v>73</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -9555,13 +9558,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -9584,13 +9587,13 @@
         <v>73</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -9602,7 +9605,7 @@
         <v>73</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>73</v>
@@ -9641,7 +9644,7 @@
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -9658,13 +9661,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -9687,13 +9690,13 @@
         <v>73</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -9705,7 +9708,7 @@
         <v>73</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>73</v>
@@ -9744,7 +9747,7 @@
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -9761,13 +9764,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -9790,13 +9793,13 @@
         <v>73</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -9847,7 +9850,7 @@
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -9864,13 +9867,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -9893,13 +9896,13 @@
         <v>73</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -9950,7 +9953,7 @@
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -9967,13 +9970,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -9996,13 +9999,13 @@
         <v>73</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -10053,7 +10056,7 @@
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -10070,13 +10073,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -10099,13 +10102,13 @@
         <v>73</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -10156,7 +10159,7 @@
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
@@ -10173,13 +10176,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -10202,13 +10205,13 @@
         <v>73</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -10220,7 +10223,7 @@
         <v>73</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>73</v>
@@ -10259,7 +10262,7 @@
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
@@ -10276,13 +10279,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -10305,13 +10308,13 @@
         <v>73</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -10362,7 +10365,7 @@
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
@@ -10379,13 +10382,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -10408,13 +10411,13 @@
         <v>73</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -10465,7 +10468,7 @@
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -10482,13 +10485,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -10511,13 +10514,13 @@
         <v>73</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -10568,7 +10571,7 @@
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -10585,13 +10588,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -10615,7 +10618,7 @@
         <v>73</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -10667,7 +10670,7 @@
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
@@ -10682,13 +10685,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -10712,7 +10715,7 @@
         <v>73</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -10764,7 +10767,7 @@
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>74</v>
@@ -10779,13 +10782,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -10811,10 +10814,10 @@
         <v>76</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -10882,13 +10885,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -10911,13 +10914,13 @@
         <v>73</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -10968,7 +10971,7 @@
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -10985,13 +10988,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -11014,13 +11017,13 @@
         <v>73</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -11071,7 +11074,7 @@
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -11088,13 +11091,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -11117,13 +11120,13 @@
         <v>73</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -11174,7 +11177,7 @@
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -11191,13 +11194,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -11220,13 +11223,13 @@
         <v>73</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -11277,7 +11280,7 @@
         <v>73</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
@@ -11294,13 +11297,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -11323,13 +11326,13 @@
         <v>73</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -11380,7 +11383,7 @@
         <v>73</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
@@ -11397,13 +11400,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -11426,13 +11429,13 @@
         <v>73</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -11483,7 +11486,7 @@
         <v>73</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -11500,13 +11503,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -11529,13 +11532,13 @@
         <v>73</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -11586,7 +11589,7 @@
         <v>73</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -11603,13 +11606,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -11632,13 +11635,13 @@
         <v>73</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -11689,7 +11692,7 @@
         <v>73</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -11706,13 +11709,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -11735,13 +11738,13 @@
         <v>73</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -11792,7 +11795,7 @@
         <v>73</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -11809,13 +11812,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -11841,10 +11844,10 @@
         <v>76</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -11912,13 +11915,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -11941,13 +11944,13 @@
         <v>73</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -11998,7 +12001,7 @@
         <v>73</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>74</v>
@@ -12015,13 +12018,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -12044,13 +12047,13 @@
         <v>73</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -12101,7 +12104,7 @@
         <v>73</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -12118,13 +12121,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -12147,13 +12150,13 @@
         <v>73</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -12180,11 +12183,11 @@
         <v>73</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB71" t="s" s="2">
         <v>73</v>
@@ -12202,7 +12205,7 @@
         <v>73</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>74</v>
@@ -12219,13 +12222,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -12248,13 +12251,13 @@
         <v>73</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -12281,11 +12284,11 @@
         <v>73</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z72" s="2"/>
       <c r="AA72" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB72" t="s" s="2">
         <v>73</v>
@@ -12303,7 +12306,7 @@
         <v>73</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>74</v>
@@ -12320,13 +12323,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -12352,10 +12355,10 @@
         <v>76</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -12423,13 +12426,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -12452,13 +12455,13 @@
         <v>73</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -12509,7 +12512,7 @@
         <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>74</v>
@@ -12526,13 +12529,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -12555,13 +12558,13 @@
         <v>73</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -12612,7 +12615,7 @@
         <v>73</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -12629,13 +12632,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -12658,13 +12661,13 @@
         <v>73</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -12691,11 +12694,11 @@
         <v>73</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z76" s="2"/>
       <c r="AA76" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB76" t="s" s="2">
         <v>73</v>
@@ -12713,7 +12716,7 @@
         <v>73</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>74</v>
@@ -12730,13 +12733,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -12759,13 +12762,13 @@
         <v>73</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -12792,11 +12795,11 @@
         <v>73</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z77" s="2"/>
       <c r="AA77" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB77" t="s" s="2">
         <v>73</v>
@@ -12814,7 +12817,7 @@
         <v>73</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>74</v>
@@ -12831,13 +12834,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -12863,10 +12866,10 @@
         <v>76</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -12934,13 +12937,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -12963,13 +12966,13 @@
         <v>73</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -12984,7 +12987,7 @@
         <v>73</v>
       </c>
       <c r="U79" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V79" t="s" s="2">
         <v>73</v>
@@ -13020,7 +13023,7 @@
         <v>73</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -13037,13 +13040,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -13066,13 +13069,13 @@
         <v>73</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -13123,7 +13126,7 @@
         <v>73</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
@@ -13140,13 +13143,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -13169,13 +13172,13 @@
         <v>73</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -13226,7 +13229,7 @@
         <v>73</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>74</v>
@@ -13243,13 +13246,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -13272,13 +13275,13 @@
         <v>73</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -13293,43 +13296,43 @@
         <v>73</v>
       </c>
       <c r="U82" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG82" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -13346,13 +13349,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -13375,13 +13378,13 @@
         <v>73</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -13432,7 +13435,7 @@
         <v>73</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
@@ -13449,13 +13452,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -13478,13 +13481,13 @@
         <v>73</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -13499,43 +13502,43 @@
         <v>73</v>
       </c>
       <c r="U84" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG84" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
@@ -13552,13 +13555,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -13581,13 +13584,13 @@
         <v>73</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -13638,7 +13641,7 @@
         <v>73</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>79</v>
@@ -13655,13 +13658,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -13687,10 +13690,10 @@
         <v>76</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -13758,13 +13761,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -13787,13 +13790,13 @@
         <v>73</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -13844,7 +13847,7 @@
         <v>73</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>74</v>
@@ -13861,13 +13864,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -13890,13 +13893,13 @@
         <v>73</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -13947,7 +13950,7 @@
         <v>73</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
@@ -13964,13 +13967,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -13993,13 +13996,13 @@
         <v>73</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -14026,11 +14029,11 @@
         <v>73</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z89" s="2"/>
       <c r="AA89" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB89" t="s" s="2">
         <v>73</v>
@@ -14048,7 +14051,7 @@
         <v>73</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>74</v>
@@ -14065,13 +14068,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -14094,13 +14097,13 @@
         <v>73</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -14127,11 +14130,11 @@
         <v>73</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z90" s="2"/>
       <c r="AA90" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB90" t="s" s="2">
         <v>73</v>
@@ -14149,7 +14152,7 @@
         <v>73</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>74</v>
@@ -14166,13 +14169,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -14198,10 +14201,10 @@
         <v>76</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -14269,13 +14272,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -14298,13 +14301,13 @@
         <v>73</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -14355,7 +14358,7 @@
         <v>73</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -14372,13 +14375,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -14401,13 +14404,13 @@
         <v>73</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -14458,7 +14461,7 @@
         <v>73</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -14475,13 +14478,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -14504,13 +14507,13 @@
         <v>73</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -14561,7 +14564,7 @@
         <v>73</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -14578,13 +14581,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -14607,13 +14610,13 @@
         <v>73</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -14640,11 +14643,11 @@
         <v>73</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z95" s="2"/>
       <c r="AA95" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AB95" t="s" s="2">
         <v>73</v>
@@ -14662,7 +14665,7 @@
         <v>73</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
@@ -14679,13 +14682,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -14708,13 +14711,13 @@
         <v>73</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -14765,7 +14768,7 @@
         <v>73</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>79</v>
@@ -14782,13 +14785,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -14811,13 +14814,13 @@
         <v>73</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -14868,7 +14871,7 @@
         <v>73</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>79</v>
@@ -14885,13 +14888,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -14914,13 +14917,13 @@
         <v>73</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -14971,7 +14974,7 @@
         <v>73</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>79</v>
@@ -14988,13 +14991,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -15017,13 +15020,13 @@
         <v>73</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -15074,7 +15077,7 @@
         <v>73</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>79</v>
@@ -15091,13 +15094,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -15120,13 +15123,13 @@
         <v>73</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -15177,7 +15180,7 @@
         <v>73</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>79</v>
@@ -15194,13 +15197,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -15223,13 +15226,13 @@
         <v>73</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -15280,7 +15283,7 @@
         <v>73</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>79</v>
@@ -15297,13 +15300,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -15326,13 +15329,13 @@
         <v>73</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -15383,7 +15386,7 @@
         <v>73</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>79</v>
@@ -15400,13 +15403,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -15429,13 +15432,13 @@
         <v>73</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -15486,7 +15489,7 @@
         <v>73</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>74</v>
@@ -15503,13 +15506,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -15532,13 +15535,13 @@
         <v>73</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -15589,7 +15592,7 @@
         <v>73</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>79</v>
@@ -15606,13 +15609,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -15635,13 +15638,13 @@
         <v>73</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -15692,7 +15695,7 @@
         <v>73</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>79</v>
@@ -15709,13 +15712,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -15738,13 +15741,13 @@
         <v>73</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -15795,7 +15798,7 @@
         <v>73</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>79</v>
@@ -15812,13 +15815,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -15841,13 +15844,13 @@
         <v>73</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
@@ -15898,7 +15901,7 @@
         <v>73</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>79</v>
@@ -15915,13 +15918,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -15944,13 +15947,13 @@
         <v>73</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -16001,7 +16004,7 @@
         <v>73</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>74</v>
@@ -16018,13 +16021,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -16047,13 +16050,13 @@
         <v>73</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -16104,7 +16107,7 @@
         <v>73</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>79</v>
@@ -16121,13 +16124,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -16150,13 +16153,13 @@
         <v>73</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -16207,7 +16210,7 @@
         <v>73</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>79</v>
@@ -16224,13 +16227,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -16253,13 +16256,13 @@
         <v>73</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -16286,11 +16289,11 @@
         <v>73</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z111" s="2"/>
       <c r="AA111" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AB111" t="s" s="2">
         <v>73</v>
@@ -16308,7 +16311,7 @@
         <v>73</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>79</v>
@@ -16325,13 +16328,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -16342,7 +16345,7 @@
         <v>79</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>73</v>
@@ -16354,13 +16357,13 @@
         <v>73</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
@@ -16387,11 +16390,11 @@
         <v>73</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z112" s="2"/>
       <c r="AA112" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AB112" t="s" s="2">
         <v>73</v>
@@ -16409,13 +16412,13 @@
         <v>73</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>73</v>
@@ -16426,13 +16429,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -16455,13 +16458,13 @@
         <v>73</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -16512,7 +16515,7 @@
         <v>73</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>74</v>
@@ -16529,13 +16532,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -16558,13 +16561,13 @@
         <v>73</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
@@ -16591,11 +16594,11 @@
         <v>73</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z114" s="2"/>
       <c r="AA114" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB114" t="s" s="2">
         <v>73</v>
@@ -16613,7 +16616,7 @@
         <v>73</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>79</v>
@@ -16630,13 +16633,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -16659,13 +16662,13 @@
         <v>73</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
@@ -16692,11 +16695,11 @@
         <v>73</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z115" s="2"/>
       <c r="AA115" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AB115" t="s" s="2">
         <v>73</v>
@@ -16714,7 +16717,7 @@
         <v>73</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>79</v>
@@ -16731,13 +16734,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -16760,13 +16763,13 @@
         <v>73</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
@@ -16793,11 +16796,11 @@
         <v>73</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z116" s="2"/>
       <c r="AA116" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AB116" t="s" s="2">
         <v>73</v>
@@ -16815,7 +16818,7 @@
         <v>73</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>79</v>
@@ -16832,13 +16835,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -16861,13 +16864,13 @@
         <v>73</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
@@ -16894,11 +16897,11 @@
         <v>73</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z117" s="2"/>
       <c r="AA117" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB117" t="s" s="2">
         <v>73</v>
@@ -16916,7 +16919,7 @@
         <v>73</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>79</v>
@@ -16933,13 +16936,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -16962,13 +16965,13 @@
         <v>73</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -17019,7 +17022,7 @@
         <v>73</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>74</v>
@@ -17036,13 +17039,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -17065,13 +17068,13 @@
         <v>73</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -17122,7 +17125,7 @@
         <v>73</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>74</v>
@@ -17139,13 +17142,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -17168,13 +17171,13 @@
         <v>73</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
@@ -17225,7 +17228,7 @@
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>79</v>
@@ -17242,13 +17245,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -17271,13 +17274,13 @@
         <v>73</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
@@ -17328,7 +17331,7 @@
         <v>73</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>74</v>
@@ -17345,13 +17348,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -17374,13 +17377,13 @@
         <v>73</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -17431,7 +17434,7 @@
         <v>73</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>79</v>
@@ -17448,13 +17451,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -17477,13 +17480,13 @@
         <v>73</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -17534,7 +17537,7 @@
         <v>73</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>79</v>
@@ -17551,13 +17554,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -17580,13 +17583,13 @@
         <v>73</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -17613,29 +17616,29 @@
         <v>73</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z124" s="2"/>
       <c r="AA124" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG124" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>79</v>
@@ -17652,13 +17655,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -17681,13 +17684,13 @@
         <v>73</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -17738,7 +17741,7 @@
         <v>73</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>74</v>
@@ -17755,13 +17758,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -17787,10 +17790,10 @@
         <v>76</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
@@ -17858,13 +17861,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17887,13 +17890,13 @@
         <v>73</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -17944,7 +17947,7 @@
         <v>73</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>79</v>
@@ -17961,13 +17964,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17993,13 +17996,13 @@
         <v>76</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
@@ -18049,7 +18052,7 @@
         <v>73</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>74</v>
@@ -18061,18 +18064,18 @@
         <v>73</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -18095,13 +18098,13 @@
         <v>73</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -18152,7 +18155,7 @@
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>74</v>
@@ -18169,17 +18172,17 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" t="s" s="2">
@@ -18198,16 +18201,16 @@
         <v>73</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
@@ -18257,7 +18260,7 @@
         <v>73</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>74</v>
@@ -18269,18 +18272,18 @@
         <v>73</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -18303,13 +18306,13 @@
         <v>73</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
@@ -18333,7 +18336,7 @@
         <v>73</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y131" t="s" s="2">
         <v>73</v>
@@ -18360,7 +18363,7 @@
         <v>73</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>74</v>
@@ -18377,13 +18380,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -18409,13 +18412,13 @@
         <v>76</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
@@ -18465,7 +18468,7 @@
         <v>73</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>74</v>
@@ -18477,18 +18480,18 @@
         <v>73</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18511,13 +18514,13 @@
         <v>73</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -18568,7 +18571,7 @@
         <v>73</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>74</v>
@@ -18585,17 +18588,17 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" t="s" s="2">
@@ -18614,16 +18617,16 @@
         <v>73</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
@@ -18673,7 +18676,7 @@
         <v>73</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>74</v>
@@ -18685,18 +18688,18 @@
         <v>73</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -18719,13 +18722,13 @@
         <v>73</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -18749,7 +18752,7 @@
         <v>73</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y135" t="s" s="2">
         <v>73</v>
@@ -18776,7 +18779,7 @@
         <v>73</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>74</v>
@@ -18793,13 +18796,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18825,13 +18828,13 @@
         <v>76</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
@@ -18881,7 +18884,7 @@
         <v>73</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>74</v>
@@ -18893,18 +18896,18 @@
         <v>73</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18927,13 +18930,13 @@
         <v>73</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -18984,7 +18987,7 @@
         <v>73</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>74</v>
@@ -19001,17 +19004,17 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" t="s" s="2">
@@ -19030,16 +19033,16 @@
         <v>73</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
@@ -19089,7 +19092,7 @@
         <v>73</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>74</v>
@@ -19101,18 +19104,18 @@
         <v>73</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -19135,13 +19138,13 @@
         <v>73</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
@@ -19165,7 +19168,7 @@
         <v>73</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y139" t="s" s="2">
         <v>73</v>
@@ -19192,7 +19195,7 @@
         <v>73</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>74</v>
@@ -19209,13 +19212,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -19241,10 +19244,10 @@
         <v>76</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
@@ -19312,13 +19315,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19341,13 +19344,13 @@
         <v>73</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -19398,7 +19401,7 @@
         <v>73</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>79</v>
@@ -19415,13 +19418,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -19444,13 +19447,13 @@
         <v>73</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -19501,7 +19504,7 @@
         <v>73</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>79</v>
@@ -19518,13 +19521,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19547,13 +19550,13 @@
         <v>73</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -19604,7 +19607,7 @@
         <v>73</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>79</v>
@@ -19621,13 +19624,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19653,13 +19656,13 @@
         <v>76</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -19709,7 +19712,7 @@
         <v>73</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>74</v>
@@ -19721,18 +19724,18 @@
         <v>73</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19755,13 +19758,13 @@
         <v>73</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -19812,7 +19815,7 @@
         <v>73</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>74</v>
@@ -19829,17 +19832,17 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" t="s" s="2">
@@ -19858,16 +19861,16 @@
         <v>73</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
@@ -19917,7 +19920,7 @@
         <v>73</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>74</v>
@@ -19929,18 +19932,18 @@
         <v>73</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19963,13 +19966,13 @@
         <v>73</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
@@ -19993,7 +19996,7 @@
         <v>73</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y147" t="s" s="2">
         <v>73</v>
@@ -20020,7 +20023,7 @@
         <v>73</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>74</v>
@@ -20037,13 +20040,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -20069,10 +20072,10 @@
         <v>76</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -20140,13 +20143,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -20169,13 +20172,13 @@
         <v>73</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
@@ -20226,7 +20229,7 @@
         <v>73</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>79</v>
@@ -20243,13 +20246,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20272,13 +20275,13 @@
         <v>73</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
@@ -20329,7 +20332,7 @@
         <v>73</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>79</v>
@@ -20346,13 +20349,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -20375,13 +20378,13 @@
         <v>73</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
@@ -20432,7 +20435,7 @@
         <v>73</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>79</v>
@@ -20449,13 +20452,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20481,10 +20484,10 @@
         <v>76</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -20552,13 +20555,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20581,13 +20584,13 @@
         <v>73</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -20638,7 +20641,7 @@
         <v>73</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>74</v>
@@ -20655,13 +20658,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20684,13 +20687,13 @@
         <v>73</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -20741,7 +20744,7 @@
         <v>73</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>79</v>
@@ -20758,13 +20761,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20787,13 +20790,13 @@
         <v>73</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -20844,7 +20847,7 @@
         <v>73</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>74</v>
@@ -20861,13 +20864,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20890,13 +20893,13 @@
         <v>73</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -20947,7 +20950,7 @@
         <v>73</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>74</v>
@@ -20964,13 +20967,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -20993,13 +20996,13 @@
         <v>73</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -21050,7 +21053,7 @@
         <v>73</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>74</v>
@@ -21067,13 +21070,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21096,13 +21099,13 @@
         <v>73</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
@@ -21153,7 +21156,7 @@
         <v>73</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>74</v>
@@ -21170,13 +21173,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21199,13 +21202,13 @@
         <v>73</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -21256,7 +21259,7 @@
         <v>73</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>74</v>
@@ -21273,13 +21276,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21302,13 +21305,13 @@
         <v>73</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -21359,7 +21362,7 @@
         <v>73</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>74</v>
@@ -21376,13 +21379,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21405,13 +21408,13 @@
         <v>73</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -21462,7 +21465,7 @@
         <v>73</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>74</v>
@@ -21479,13 +21482,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -21508,13 +21511,13 @@
         <v>73</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -21565,7 +21568,7 @@
         <v>73</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>74</v>
@@ -21582,13 +21585,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21611,13 +21614,13 @@
         <v>73</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
@@ -21668,7 +21671,7 @@
         <v>73</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>74</v>
@@ -21685,13 +21688,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -21717,13 +21720,13 @@
         <v>76</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
@@ -21773,7 +21776,7 @@
         <v>73</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>74</v>
@@ -21785,18 +21788,18 @@
         <v>73</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21819,13 +21822,13 @@
         <v>73</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
@@ -21876,7 +21879,7 @@
         <v>73</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>74</v>
@@ -21893,17 +21896,17 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" t="s" s="2">
@@ -21922,16 +21925,16 @@
         <v>73</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
@@ -21981,7 +21984,7 @@
         <v>73</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>74</v>
@@ -21993,18 +21996,18 @@
         <v>73</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -22027,13 +22030,13 @@
         <v>73</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
@@ -22057,7 +22060,7 @@
         <v>73</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y167" t="s" s="2">
         <v>73</v>
@@ -22084,7 +22087,7 @@
         <v>73</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>74</v>
@@ -22101,13 +22104,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -22133,10 +22136,10 @@
         <v>76</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
@@ -22204,13 +22207,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -22233,13 +22236,13 @@
         <v>73</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
@@ -22290,7 +22293,7 @@
         <v>73</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>79</v>
@@ -22307,13 +22310,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -22336,13 +22339,13 @@
         <v>73</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
@@ -22357,7 +22360,7 @@
         <v>73</v>
       </c>
       <c r="U170" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V170" t="s" s="2">
         <v>73</v>
@@ -22369,11 +22372,11 @@
         <v>73</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z170" s="2"/>
       <c r="AA170" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AB170" t="s" s="2">
         <v>73</v>
@@ -22391,7 +22394,7 @@
         <v>73</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>79</v>
@@ -22408,13 +22411,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -22437,13 +22440,13 @@
         <v>73</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
@@ -22494,7 +22497,7 @@
         <v>73</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>79</v>
@@ -22511,13 +22514,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22540,13 +22543,13 @@
         <v>73</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
@@ -22597,7 +22600,7 @@
         <v>73</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>74</v>
@@ -22614,13 +22617,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22643,13 +22646,13 @@
         <v>73</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
@@ -22700,7 +22703,7 @@
         <v>73</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>74</v>
@@ -22717,13 +22720,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22746,13 +22749,13 @@
         <v>73</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
@@ -22803,7 +22806,7 @@
         <v>73</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>79</v>
@@ -22820,13 +22823,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -22849,13 +22852,13 @@
         <v>73</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
@@ -22906,7 +22909,7 @@
         <v>73</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>79</v>
@@ -22923,13 +22926,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22952,13 +22955,13 @@
         <v>73</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
@@ -23009,7 +23012,7 @@
         <v>73</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>79</v>
@@ -23026,13 +23029,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -23055,13 +23058,13 @@
         <v>73</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -23088,11 +23091,11 @@
         <v>73</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z177" s="2"/>
       <c r="AA177" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AB177" t="s" s="2">
         <v>73</v>
@@ -23110,7 +23113,7 @@
         <v>73</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>79</v>
@@ -23127,13 +23130,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -23156,13 +23159,13 @@
         <v>73</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
@@ -23213,7 +23216,7 @@
         <v>73</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>79</v>
@@ -23230,13 +23233,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23259,13 +23262,13 @@
         <v>73</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
@@ -23316,7 +23319,7 @@
         <v>73</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>74</v>
@@ -23333,13 +23336,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -23362,13 +23365,13 @@
         <v>73</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
@@ -23419,7 +23422,7 @@
         <v>73</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>74</v>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6546" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6546" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>Identifiant de l'acteur</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>801234567890</t>
@@ -1837,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
@@ -1845,7 +1842,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
@@ -1861,7 +1858,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
@@ -1869,7 +1866,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
@@ -1923,7 +1920,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -1959,7 +1956,7 @@
         <v>30</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -1999,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45">
@@ -2007,7 +2004,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46">
@@ -2023,7 +2020,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48">
@@ -2031,7 +2028,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49">
@@ -2085,7 +2082,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56">
@@ -2121,7 +2118,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -2161,7 +2158,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66">
@@ -2169,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67">
@@ -2185,7 +2182,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69">
@@ -2193,7 +2190,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70">
@@ -2247,7 +2244,7 @@
         <v>22</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77">
@@ -2283,7 +2280,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82">
@@ -2323,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87">
@@ -2347,7 +2344,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90">
@@ -2355,7 +2352,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91">
@@ -2409,7 +2406,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98">
@@ -2453,7 +2450,7 @@
         <v>31</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104">
@@ -2485,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108">
@@ -2493,7 +2490,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109">
@@ -2509,7 +2506,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111">
@@ -2517,7 +2514,7 @@
         <v>9</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112">
@@ -2571,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119">
@@ -2607,7 +2604,7 @@
         <v>30</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124">
@@ -2615,7 +2612,7 @@
         <v>31</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125">
@@ -2647,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129">
@@ -2655,7 +2652,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130">
@@ -2671,7 +2668,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132">
@@ -2679,7 +2676,7 @@
         <v>9</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133">
@@ -2733,7 +2730,7 @@
         <v>22</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140">
@@ -2769,7 +2766,7 @@
         <v>30</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145">
@@ -2777,7 +2774,7 @@
         <v>31</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146">
@@ -2809,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150">
@@ -2817,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151">
@@ -2833,7 +2830,7 @@
         <v>8</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153">
@@ -2841,7 +2838,7 @@
         <v>9</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154">
@@ -2895,7 +2892,7 @@
         <v>22</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="161">
@@ -2931,7 +2928,7 @@
         <v>30</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166">
@@ -2939,7 +2936,7 @@
         <v>31</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167">
@@ -2971,7 +2968,7 @@
         <v>2</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171">
@@ -2979,7 +2976,7 @@
         <v>4</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172">
@@ -2995,7 +2992,7 @@
         <v>8</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="174">
@@ -3003,7 +3000,7 @@
         <v>9</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="175">
@@ -3057,7 +3054,7 @@
         <v>22</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="182">
@@ -3093,7 +3090,7 @@
         <v>30</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="187">
@@ -3101,7 +3098,7 @@
         <v>31</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188">
@@ -3133,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="192">
@@ -3141,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="193">
@@ -3157,7 +3154,7 @@
         <v>8</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="195">
@@ -3165,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="196">
@@ -3219,7 +3216,7 @@
         <v>22</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="203">
@@ -3255,7 +3252,7 @@
         <v>30</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="208">
@@ -3263,7 +3260,7 @@
         <v>31</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="209">
@@ -3295,7 +3292,7 @@
         <v>2</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213">
@@ -3303,7 +3300,7 @@
         <v>4</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="214">
@@ -3319,7 +3316,7 @@
         <v>8</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="216">
@@ -3327,7 +3324,7 @@
         <v>9</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="217">
@@ -3381,7 +3378,7 @@
         <v>22</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="224">
@@ -3417,7 +3414,7 @@
         <v>30</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="229">
@@ -3425,7 +3422,7 @@
         <v>31</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="230">
@@ -3457,7 +3454,7 @@
         <v>2</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="234">
@@ -3465,7 +3462,7 @@
         <v>4</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="235">
@@ -3481,7 +3478,7 @@
         <v>8</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="237">
@@ -3489,7 +3486,7 @@
         <v>9</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="238">
@@ -3543,7 +3540,7 @@
         <v>22</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="245">
@@ -3571,7 +3568,7 @@
         <v>28</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="249">
@@ -3579,7 +3576,7 @@
         <v>30</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="250">
@@ -3587,7 +3584,7 @@
         <v>31</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="251">
@@ -3603,7 +3600,7 @@
         <v>35</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="253">
@@ -3619,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="255">
@@ -3627,7 +3624,7 @@
         <v>4</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="256">
@@ -3643,7 +3640,7 @@
         <v>8</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="258">
@@ -3651,7 +3648,7 @@
         <v>9</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="259">
@@ -3705,7 +3702,7 @@
         <v>22</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="266">
@@ -3733,7 +3730,7 @@
         <v>28</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="270">
@@ -3741,7 +3738,7 @@
         <v>30</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="271">
@@ -3749,7 +3746,7 @@
         <v>31</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="272">
@@ -3765,7 +3762,7 @@
         <v>35</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="274">
@@ -3781,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="276">
@@ -3789,7 +3786,7 @@
         <v>4</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="277">
@@ -3805,7 +3802,7 @@
         <v>8</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="279">
@@ -3813,7 +3810,7 @@
         <v>9</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="280">
@@ -3867,7 +3864,7 @@
         <v>22</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="287">
@@ -3895,7 +3892,7 @@
         <v>28</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="291">
@@ -3903,7 +3900,7 @@
         <v>30</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="292">
@@ -3911,7 +3908,7 @@
         <v>31</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="293">
@@ -3927,7 +3924,7 @@
         <v>35</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="295">
@@ -3943,7 +3940,7 @@
         <v>2</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="297">
@@ -3951,7 +3948,7 @@
         <v>4</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="298">
@@ -3967,7 +3964,7 @@
         <v>8</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="300">
@@ -3975,7 +3972,7 @@
         <v>9</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="301">
@@ -4029,7 +4026,7 @@
         <v>22</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="308">
@@ -4065,7 +4062,7 @@
         <v>30</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="313">
@@ -4073,7 +4070,7 @@
         <v>31</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="314">
@@ -4105,7 +4102,7 @@
         <v>2</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="318">
@@ -4113,7 +4110,7 @@
         <v>4</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="319">
@@ -4129,7 +4126,7 @@
         <v>8</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="321">
@@ -4137,7 +4134,7 @@
         <v>9</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="322">
@@ -4191,7 +4188,7 @@
         <v>22</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="329">
@@ -4219,7 +4216,7 @@
         <v>28</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="333">
@@ -4227,7 +4224,7 @@
         <v>30</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="334">
@@ -4235,7 +4232,7 @@
         <v>31</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="335">
@@ -4251,7 +4248,7 @@
         <v>35</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="337">
@@ -4267,7 +4264,7 @@
         <v>2</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="339">
@@ -4275,7 +4272,7 @@
         <v>4</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="340">
@@ -4291,7 +4288,7 @@
         <v>8</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="342">
@@ -4299,7 +4296,7 @@
         <v>9</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="343">
@@ -4353,7 +4350,7 @@
         <v>22</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="350">
@@ -4389,7 +4386,7 @@
         <v>30</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="355">
@@ -4397,7 +4394,7 @@
         <v>31</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="356">
@@ -4429,7 +4426,7 @@
         <v>2</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="360">
@@ -4437,7 +4434,7 @@
         <v>4</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="361">
@@ -4453,7 +4450,7 @@
         <v>8</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="363">
@@ -4461,7 +4458,7 @@
         <v>9</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="364">
@@ -4515,7 +4512,7 @@
         <v>22</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="371">
@@ -4551,7 +4548,7 @@
         <v>30</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="376">
@@ -4559,7 +4556,7 @@
         <v>31</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="377">
@@ -4591,7 +4588,7 @@
         <v>2</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="381">
@@ -4599,7 +4596,7 @@
         <v>4</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="382">
@@ -4615,7 +4612,7 @@
         <v>8</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="384">
@@ -4623,7 +4620,7 @@
         <v>9</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="385">
@@ -4677,7 +4674,7 @@
         <v>22</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="392">
@@ -4705,7 +4702,7 @@
         <v>28</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="396">
@@ -4713,7 +4710,7 @@
         <v>30</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="397">
@@ -4721,7 +4718,7 @@
         <v>31</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="398">
@@ -4737,7 +4734,7 @@
         <v>35</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="400">
@@ -4753,7 +4750,7 @@
         <v>2</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="402">
@@ -4761,7 +4758,7 @@
         <v>4</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="403">
@@ -4777,7 +4774,7 @@
         <v>8</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="405">
@@ -4785,7 +4782,7 @@
         <v>9</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="406">
@@ -4839,7 +4836,7 @@
         <v>22</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="413">
@@ -4875,7 +4872,7 @@
         <v>30</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="418">
@@ -4883,7 +4880,7 @@
         <v>31</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="419">
@@ -5208,7 +5205,7 @@
         <v>81</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -5223,41 +5220,41 @@
         <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -5303,13 +5300,13 @@
         <v>73</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -5321,7 +5318,7 @@
         <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U4" t="s" s="2">
         <v>73</v>
@@ -5360,7 +5357,7 @@
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>79</v>
@@ -5406,13 +5403,13 @@
         <v>73</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -5424,7 +5421,7 @@
         <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U5" t="s" s="2">
         <v>73</v>
@@ -5463,7 +5460,7 @@
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
@@ -5483,10 +5480,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -5509,13 +5506,13 @@
         <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M6" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="N6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -5566,7 +5563,7 @@
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>79</v>
@@ -5586,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -5612,13 +5609,13 @@
         <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -5669,7 +5666,7 @@
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>79</v>
@@ -5689,10 +5686,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -5715,13 +5712,13 @@
         <v>73</v>
       </c>
       <c r="L8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -5772,7 +5769,7 @@
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>79</v>
@@ -5792,10 +5789,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -5818,13 +5815,13 @@
         <v>73</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -5875,7 +5872,7 @@
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
@@ -5895,10 +5892,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -5921,13 +5918,13 @@
         <v>73</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -5939,46 +5936,46 @@
         <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG10" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>79</v>
@@ -5998,10 +5995,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -6024,13 +6021,13 @@
         <v>73</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -6081,7 +6078,7 @@
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>79</v>
@@ -6101,10 +6098,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -6127,13 +6124,13 @@
         <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="N12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -6184,7 +6181,7 @@
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>79</v>
@@ -6204,10 +6201,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -6230,13 +6227,13 @@
         <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -6287,7 +6284,7 @@
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
@@ -6307,10 +6304,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -6334,7 +6331,7 @@
         <v>73</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -6386,7 +6383,7 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
@@ -6404,10 +6401,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -6431,7 +6428,7 @@
         <v>73</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -6483,7 +6480,7 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
@@ -6498,13 +6495,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -6530,10 +6527,10 @@
         <v>76</v>
       </c>
       <c r="M16" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -6601,13 +6598,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -6630,13 +6627,13 @@
         <v>73</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -6651,7 +6648,7 @@
         <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V17" t="s" s="2">
         <v>73</v>
@@ -6675,17 +6672,17 @@
         <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
@@ -6702,13 +6699,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -6731,13 +6728,13 @@
         <v>73</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -6749,7 +6746,7 @@
         <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>73</v>
@@ -6788,7 +6785,7 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
@@ -6805,13 +6802,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -6834,13 +6831,13 @@
         <v>73</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -6852,7 +6849,7 @@
         <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>73</v>
@@ -6891,7 +6888,7 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
@@ -6908,13 +6905,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -6937,13 +6934,13 @@
         <v>73</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="N20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -6994,7 +6991,7 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -7011,13 +7008,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -7040,13 +7037,13 @@
         <v>73</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -7097,7 +7094,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -7114,13 +7111,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -7143,13 +7140,13 @@
         <v>73</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="N22" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -7200,7 +7197,7 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -7217,13 +7214,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -7246,13 +7243,13 @@
         <v>73</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -7303,7 +7300,7 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
@@ -7320,13 +7317,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -7349,13 +7346,13 @@
         <v>73</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -7406,7 +7403,7 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -7423,13 +7420,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -7452,13 +7449,13 @@
         <v>73</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -7509,7 +7506,7 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -7526,13 +7523,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -7555,13 +7552,13 @@
         <v>73</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="N26" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -7612,7 +7609,7 @@
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -7629,13 +7626,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -7658,13 +7655,13 @@
         <v>73</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -7715,7 +7712,7 @@
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -7732,13 +7729,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -7762,7 +7759,7 @@
         <v>73</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -7814,7 +7811,7 @@
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -7829,13 +7826,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -7859,7 +7856,7 @@
         <v>73</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -7911,7 +7908,7 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -7926,13 +7923,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -7958,10 +7955,10 @@
         <v>76</v>
       </c>
       <c r="M30" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -8029,13 +8026,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -8058,13 +8055,13 @@
         <v>73</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -8079,7 +8076,7 @@
         <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V31" t="s" s="2">
         <v>73</v>
@@ -8103,17 +8100,17 @@
         <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG31" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -8130,13 +8127,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -8159,13 +8156,13 @@
         <v>73</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -8177,7 +8174,7 @@
         <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>73</v>
@@ -8216,7 +8213,7 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -8233,13 +8230,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -8262,13 +8259,13 @@
         <v>73</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -8280,7 +8277,7 @@
         <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>73</v>
@@ -8319,7 +8316,7 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -8336,13 +8333,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -8365,13 +8362,13 @@
         <v>73</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="N34" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -8422,7 +8419,7 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -8439,13 +8436,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -8468,13 +8465,13 @@
         <v>73</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -8525,7 +8522,7 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -8542,13 +8539,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -8571,13 +8568,13 @@
         <v>73</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="N36" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -8628,7 +8625,7 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -8645,13 +8642,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -8674,13 +8671,13 @@
         <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -8731,7 +8728,7 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
@@ -8748,13 +8745,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -8777,13 +8774,13 @@
         <v>73</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -8798,7 +8795,7 @@
         <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V38" t="s" s="2">
         <v>73</v>
@@ -8834,7 +8831,7 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -8851,13 +8848,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -8880,13 +8877,13 @@
         <v>73</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -8937,7 +8934,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -8954,13 +8951,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -8983,13 +8980,13 @@
         <v>73</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="N40" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -9040,7 +9037,7 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -9057,13 +9054,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -9086,13 +9083,13 @@
         <v>73</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -9143,7 +9140,7 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -9160,13 +9157,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -9190,7 +9187,7 @@
         <v>73</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -9242,7 +9239,7 @@
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -9257,13 +9254,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -9287,7 +9284,7 @@
         <v>73</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -9339,7 +9336,7 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
@@ -9354,13 +9351,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -9386,10 +9383,10 @@
         <v>76</v>
       </c>
       <c r="M44" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -9457,13 +9454,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -9486,13 +9483,13 @@
         <v>73</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -9507,7 +9504,7 @@
         <v>73</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V45" t="s" s="2">
         <v>73</v>
@@ -9531,17 +9528,17 @@
         <v>73</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG45" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -9558,13 +9555,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -9587,13 +9584,13 @@
         <v>73</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -9605,7 +9602,7 @@
         <v>73</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>73</v>
@@ -9644,7 +9641,7 @@
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -9661,13 +9658,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -9690,13 +9687,13 @@
         <v>73</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -9708,7 +9705,7 @@
         <v>73</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>73</v>
@@ -9747,7 +9744,7 @@
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -9764,13 +9761,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -9793,13 +9790,13 @@
         <v>73</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -9850,7 +9847,7 @@
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -9867,13 +9864,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -9896,13 +9893,13 @@
         <v>73</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -9953,7 +9950,7 @@
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -9970,13 +9967,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -9999,13 +9996,13 @@
         <v>73</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -10056,7 +10053,7 @@
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -10073,13 +10070,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -10102,13 +10099,13 @@
         <v>73</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -10159,7 +10156,7 @@
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
@@ -10176,13 +10173,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -10205,13 +10202,13 @@
         <v>73</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -10223,46 +10220,46 @@
         <v>73</v>
       </c>
       <c r="T52" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG52" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
@@ -10279,13 +10276,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -10308,13 +10305,13 @@
         <v>73</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -10365,7 +10362,7 @@
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
@@ -10382,13 +10379,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -10411,13 +10408,13 @@
         <v>73</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -10468,7 +10465,7 @@
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -10485,13 +10482,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -10514,13 +10511,13 @@
         <v>73</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -10571,7 +10568,7 @@
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -10588,13 +10585,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -10618,7 +10615,7 @@
         <v>73</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -10670,7 +10667,7 @@
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
@@ -10685,13 +10682,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -10715,7 +10712,7 @@
         <v>73</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -10767,7 +10764,7 @@
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>74</v>
@@ -10782,13 +10779,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -10814,10 +10811,10 @@
         <v>76</v>
       </c>
       <c r="M58" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -10885,13 +10882,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -10914,13 +10911,13 @@
         <v>73</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -10971,7 +10968,7 @@
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -10988,13 +10985,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -11017,13 +11014,13 @@
         <v>73</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -11074,7 +11071,7 @@
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -11091,13 +11088,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -11120,13 +11117,13 @@
         <v>73</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -11177,7 +11174,7 @@
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -11194,13 +11191,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -11223,13 +11220,13 @@
         <v>73</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -11280,7 +11277,7 @@
         <v>73</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
@@ -11297,13 +11294,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -11326,13 +11323,13 @@
         <v>73</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -11383,7 +11380,7 @@
         <v>73</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
@@ -11400,13 +11397,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -11429,13 +11426,13 @@
         <v>73</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -11486,7 +11483,7 @@
         <v>73</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -11503,13 +11500,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -11532,13 +11529,13 @@
         <v>73</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -11589,7 +11586,7 @@
         <v>73</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -11606,13 +11603,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -11635,13 +11632,13 @@
         <v>73</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="N66" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -11692,7 +11689,7 @@
         <v>73</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -11709,13 +11706,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -11738,13 +11735,13 @@
         <v>73</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -11795,7 +11792,7 @@
         <v>73</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -11812,13 +11809,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -11844,10 +11841,10 @@
         <v>76</v>
       </c>
       <c r="M68" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -11915,13 +11912,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -11944,13 +11941,13 @@
         <v>73</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -12001,7 +11998,7 @@
         <v>73</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>74</v>
@@ -12018,13 +12015,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -12047,13 +12044,13 @@
         <v>73</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -12104,7 +12101,7 @@
         <v>73</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -12121,13 +12118,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -12150,13 +12147,13 @@
         <v>73</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -12183,11 +12180,11 @@
         <v>73</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB71" t="s" s="2">
         <v>73</v>
@@ -12205,7 +12202,7 @@
         <v>73</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>74</v>
@@ -12222,13 +12219,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -12251,13 +12248,13 @@
         <v>73</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M72" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -12284,11 +12281,11 @@
         <v>73</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z72" s="2"/>
       <c r="AA72" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB72" t="s" s="2">
         <v>73</v>
@@ -12306,7 +12303,7 @@
         <v>73</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>74</v>
@@ -12323,13 +12320,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -12355,10 +12352,10 @@
         <v>76</v>
       </c>
       <c r="M73" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -12426,13 +12423,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -12455,13 +12452,13 @@
         <v>73</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -12512,7 +12509,7 @@
         <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>74</v>
@@ -12529,13 +12526,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -12558,13 +12555,13 @@
         <v>73</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -12615,7 +12612,7 @@
         <v>73</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -12632,13 +12629,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -12661,13 +12658,13 @@
         <v>73</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -12694,11 +12691,11 @@
         <v>73</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z76" s="2"/>
       <c r="AA76" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB76" t="s" s="2">
         <v>73</v>
@@ -12716,7 +12713,7 @@
         <v>73</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>74</v>
@@ -12733,13 +12730,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -12762,13 +12759,13 @@
         <v>73</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M77" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -12795,11 +12792,11 @@
         <v>73</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z77" s="2"/>
       <c r="AA77" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB77" t="s" s="2">
         <v>73</v>
@@ -12817,7 +12814,7 @@
         <v>73</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>74</v>
@@ -12834,13 +12831,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -12866,10 +12863,10 @@
         <v>76</v>
       </c>
       <c r="M78" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -12937,13 +12934,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -12966,13 +12963,13 @@
         <v>73</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -12987,7 +12984,7 @@
         <v>73</v>
       </c>
       <c r="U79" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V79" t="s" s="2">
         <v>73</v>
@@ -13023,7 +13020,7 @@
         <v>73</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -13040,13 +13037,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -13069,13 +13066,13 @@
         <v>73</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M80" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N80" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -13126,7 +13123,7 @@
         <v>73</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
@@ -13143,13 +13140,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -13172,13 +13169,13 @@
         <v>73</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -13229,7 +13226,7 @@
         <v>73</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>74</v>
@@ -13246,13 +13243,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -13275,13 +13272,13 @@
         <v>73</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -13296,7 +13293,7 @@
         <v>73</v>
       </c>
       <c r="U82" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V82" t="s" s="2">
         <v>73</v>
@@ -13332,7 +13329,7 @@
         <v>73</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -13349,13 +13346,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -13378,13 +13375,13 @@
         <v>73</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -13435,7 +13432,7 @@
         <v>73</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
@@ -13452,13 +13449,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -13481,13 +13478,13 @@
         <v>73</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -13502,7 +13499,7 @@
         <v>73</v>
       </c>
       <c r="U84" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V84" t="s" s="2">
         <v>73</v>
@@ -13538,7 +13535,7 @@
         <v>73</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
@@ -13555,13 +13552,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -13584,13 +13581,13 @@
         <v>73</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M85" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="N85" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -13641,7 +13638,7 @@
         <v>73</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>79</v>
@@ -13658,13 +13655,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -13690,10 +13687,10 @@
         <v>76</v>
       </c>
       <c r="M86" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -13761,13 +13758,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -13790,13 +13787,13 @@
         <v>73</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -13847,7 +13844,7 @@
         <v>73</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>74</v>
@@ -13864,13 +13861,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -13893,13 +13890,13 @@
         <v>73</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -13950,7 +13947,7 @@
         <v>73</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
@@ -13967,13 +13964,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -13996,13 +13993,13 @@
         <v>73</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -14029,11 +14026,11 @@
         <v>73</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z89" s="2"/>
       <c r="AA89" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB89" t="s" s="2">
         <v>73</v>
@@ -14051,7 +14048,7 @@
         <v>73</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>74</v>
@@ -14068,13 +14065,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -14097,13 +14094,13 @@
         <v>73</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M90" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -14130,11 +14127,11 @@
         <v>73</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z90" s="2"/>
       <c r="AA90" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB90" t="s" s="2">
         <v>73</v>
@@ -14152,7 +14149,7 @@
         <v>73</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>74</v>
@@ -14169,13 +14166,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -14201,10 +14198,10 @@
         <v>76</v>
       </c>
       <c r="M91" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -14272,13 +14269,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -14301,13 +14298,13 @@
         <v>73</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -14358,7 +14355,7 @@
         <v>73</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -14375,13 +14372,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -14404,13 +14401,13 @@
         <v>73</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="N93" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -14461,7 +14458,7 @@
         <v>73</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -14478,13 +14475,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -14507,13 +14504,13 @@
         <v>73</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -14564,7 +14561,7 @@
         <v>73</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -14581,13 +14578,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -14610,13 +14607,13 @@
         <v>73</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M95" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -14643,11 +14640,11 @@
         <v>73</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z95" s="2"/>
       <c r="AA95" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB95" t="s" s="2">
         <v>73</v>
@@ -14665,7 +14662,7 @@
         <v>73</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
@@ -14682,13 +14679,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -14711,13 +14708,13 @@
         <v>73</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -14768,7 +14765,7 @@
         <v>73</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>79</v>
@@ -14785,13 +14782,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -14814,13 +14811,13 @@
         <v>73</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="N97" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -14871,7 +14868,7 @@
         <v>73</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>79</v>
@@ -14888,13 +14885,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -14917,13 +14914,13 @@
         <v>73</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M98" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N98" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -14974,7 +14971,7 @@
         <v>73</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>79</v>
@@ -14991,13 +14988,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -15020,13 +15017,13 @@
         <v>73</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M99" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="N99" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -15077,7 +15074,7 @@
         <v>73</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>79</v>
@@ -15094,13 +15091,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -15123,13 +15120,13 @@
         <v>73</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -15180,7 +15177,7 @@
         <v>73</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>79</v>
@@ -15197,13 +15194,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -15226,13 +15223,13 @@
         <v>73</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M101" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="N101" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -15283,7 +15280,7 @@
         <v>73</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>79</v>
@@ -15300,13 +15297,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -15329,13 +15326,13 @@
         <v>73</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M102" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="N102" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -15386,7 +15383,7 @@
         <v>73</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>79</v>
@@ -15403,13 +15400,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -15432,13 +15429,13 @@
         <v>73</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -15489,7 +15486,7 @@
         <v>73</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>74</v>
@@ -15506,13 +15503,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -15535,13 +15532,13 @@
         <v>73</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M104" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="N104" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -15592,7 +15589,7 @@
         <v>73</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>79</v>
@@ -15609,13 +15606,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -15638,13 +15635,13 @@
         <v>73</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M105" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="N105" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -15695,7 +15692,7 @@
         <v>73</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>79</v>
@@ -15712,13 +15709,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -15741,13 +15738,13 @@
         <v>73</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -15798,7 +15795,7 @@
         <v>73</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>79</v>
@@ -15815,13 +15812,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -15844,13 +15841,13 @@
         <v>73</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
@@ -15901,7 +15898,7 @@
         <v>73</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>79</v>
@@ -15918,13 +15915,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -15947,13 +15944,13 @@
         <v>73</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -16004,7 +16001,7 @@
         <v>73</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>74</v>
@@ -16021,13 +16018,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -16050,13 +16047,13 @@
         <v>73</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M109" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="N109" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -16107,7 +16104,7 @@
         <v>73</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>79</v>
@@ -16124,13 +16121,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -16153,13 +16150,13 @@
         <v>73</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M110" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -16210,7 +16207,7 @@
         <v>73</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>79</v>
@@ -16227,13 +16224,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -16256,13 +16253,13 @@
         <v>73</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M111" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -16289,11 +16286,11 @@
         <v>73</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z111" s="2"/>
       <c r="AA111" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB111" t="s" s="2">
         <v>73</v>
@@ -16311,7 +16308,7 @@
         <v>73</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>79</v>
@@ -16328,13 +16325,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -16345,25 +16342,25 @@
         <v>79</v>
       </c>
       <c r="H112" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="I112" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
@@ -16390,11 +16387,11 @@
         <v>73</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z112" s="2"/>
       <c r="AA112" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB112" t="s" s="2">
         <v>73</v>
@@ -16412,13 +16409,13 @@
         <v>73</v>
       </c>
       <c r="AG112" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI112" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>73</v>
@@ -16429,13 +16426,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -16458,13 +16455,13 @@
         <v>73</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -16515,7 +16512,7 @@
         <v>73</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>74</v>
@@ -16532,13 +16529,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -16561,13 +16558,13 @@
         <v>73</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M114" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
@@ -16594,11 +16591,11 @@
         <v>73</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z114" s="2"/>
       <c r="AA114" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB114" t="s" s="2">
         <v>73</v>
@@ -16616,7 +16613,7 @@
         <v>73</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>79</v>
@@ -16633,13 +16630,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -16662,13 +16659,13 @@
         <v>73</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M115" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N115" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
@@ -16695,11 +16692,11 @@
         <v>73</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z115" s="2"/>
       <c r="AA115" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB115" t="s" s="2">
         <v>73</v>
@@ -16717,7 +16714,7 @@
         <v>73</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>79</v>
@@ -16734,13 +16731,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -16763,13 +16760,13 @@
         <v>73</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M116" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N116" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
@@ -16796,11 +16793,11 @@
         <v>73</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z116" s="2"/>
       <c r="AA116" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB116" t="s" s="2">
         <v>73</v>
@@ -16818,7 +16815,7 @@
         <v>73</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>79</v>
@@ -16835,13 +16832,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -16864,13 +16861,13 @@
         <v>73</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M117" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N117" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
@@ -16897,11 +16894,11 @@
         <v>73</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z117" s="2"/>
       <c r="AA117" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AB117" t="s" s="2">
         <v>73</v>
@@ -16919,7 +16916,7 @@
         <v>73</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>79</v>
@@ -16936,13 +16933,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -16965,13 +16962,13 @@
         <v>73</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -17022,7 +17019,7 @@
         <v>73</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>74</v>
@@ -17039,13 +17036,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -17068,13 +17065,13 @@
         <v>73</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -17125,7 +17122,7 @@
         <v>73</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>74</v>
@@ -17142,13 +17139,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -17171,13 +17168,13 @@
         <v>73</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
@@ -17228,7 +17225,7 @@
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>79</v>
@@ -17245,13 +17242,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -17274,13 +17271,13 @@
         <v>73</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
@@ -17331,7 +17328,7 @@
         <v>73</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>74</v>
@@ -17348,13 +17345,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -17377,13 +17374,13 @@
         <v>73</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M122" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="N122" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -17434,7 +17431,7 @@
         <v>73</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>79</v>
@@ -17451,13 +17448,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -17480,13 +17477,13 @@
         <v>73</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -17537,7 +17534,7 @@
         <v>73</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>79</v>
@@ -17554,13 +17551,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -17583,13 +17580,13 @@
         <v>73</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -17616,11 +17613,11 @@
         <v>73</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z124" s="2"/>
       <c r="AA124" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AB124" t="s" s="2">
         <v>73</v>
@@ -17638,7 +17635,7 @@
         <v>73</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>79</v>
@@ -17655,13 +17652,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -17684,13 +17681,13 @@
         <v>73</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -17741,7 +17738,7 @@
         <v>73</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>74</v>
@@ -17758,13 +17755,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -17790,10 +17787,10 @@
         <v>76</v>
       </c>
       <c r="M126" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N126" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
@@ -17861,13 +17858,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17890,13 +17887,13 @@
         <v>73</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M127" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N127" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -17947,7 +17944,7 @@
         <v>73</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>79</v>
@@ -17964,13 +17961,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17996,13 +17993,13 @@
         <v>76</v>
       </c>
       <c r="M128" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N128" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="N128" t="s" s="2">
+      <c r="O128" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
@@ -18052,7 +18049,7 @@
         <v>73</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>74</v>
@@ -18064,18 +18061,18 @@
         <v>73</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -18098,13 +18095,13 @@
         <v>73</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M129" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N129" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -18155,7 +18152,7 @@
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>74</v>
@@ -18172,17 +18169,17 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" t="s" s="2">
@@ -18201,16 +18198,16 @@
         <v>73</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
@@ -18260,7 +18257,7 @@
         <v>73</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>74</v>
@@ -18272,18 +18269,18 @@
         <v>73</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -18306,13 +18303,13 @@
         <v>73</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M131" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N131" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
@@ -18336,7 +18333,7 @@
         <v>73</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y131" t="s" s="2">
         <v>73</v>
@@ -18363,7 +18360,7 @@
         <v>73</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>74</v>
@@ -18380,13 +18377,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -18412,13 +18409,13 @@
         <v>76</v>
       </c>
       <c r="M132" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N132" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="N132" t="s" s="2">
+      <c r="O132" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
@@ -18468,7 +18465,7 @@
         <v>73</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>74</v>
@@ -18480,18 +18477,18 @@
         <v>73</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18514,13 +18511,13 @@
         <v>73</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M133" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N133" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -18571,7 +18568,7 @@
         <v>73</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>74</v>
@@ -18588,17 +18585,17 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" t="s" s="2">
@@ -18617,16 +18614,16 @@
         <v>73</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="N134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
@@ -18676,7 +18673,7 @@
         <v>73</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>74</v>
@@ -18688,18 +18685,18 @@
         <v>73</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -18722,13 +18719,13 @@
         <v>73</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M135" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -18752,7 +18749,7 @@
         <v>73</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y135" t="s" s="2">
         <v>73</v>
@@ -18779,7 +18776,7 @@
         <v>73</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>74</v>
@@ -18796,13 +18793,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18828,13 +18825,13 @@
         <v>76</v>
       </c>
       <c r="M136" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
@@ -18884,7 +18881,7 @@
         <v>73</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>74</v>
@@ -18896,18 +18893,18 @@
         <v>73</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18930,13 +18927,13 @@
         <v>73</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M137" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N137" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -18987,7 +18984,7 @@
         <v>73</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>74</v>
@@ -19004,17 +19001,17 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" t="s" s="2">
@@ -19033,16 +19030,16 @@
         <v>73</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="N138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
@@ -19092,7 +19089,7 @@
         <v>73</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>74</v>
@@ -19104,18 +19101,18 @@
         <v>73</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -19138,13 +19135,13 @@
         <v>73</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M139" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
@@ -19168,7 +19165,7 @@
         <v>73</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y139" t="s" s="2">
         <v>73</v>
@@ -19195,7 +19192,7 @@
         <v>73</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>74</v>
@@ -19212,13 +19209,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -19244,10 +19241,10 @@
         <v>76</v>
       </c>
       <c r="M140" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
@@ -19315,13 +19312,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19344,13 +19341,13 @@
         <v>73</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -19401,7 +19398,7 @@
         <v>73</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>79</v>
@@ -19418,13 +19415,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -19447,13 +19444,13 @@
         <v>73</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -19504,7 +19501,7 @@
         <v>73</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>79</v>
@@ -19521,13 +19518,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19550,13 +19547,13 @@
         <v>73</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -19607,7 +19604,7 @@
         <v>73</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>79</v>
@@ -19624,13 +19621,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19656,13 +19653,13 @@
         <v>76</v>
       </c>
       <c r="M144" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N144" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="N144" t="s" s="2">
+      <c r="O144" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -19712,7 +19709,7 @@
         <v>73</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>74</v>
@@ -19724,18 +19721,18 @@
         <v>73</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19758,13 +19755,13 @@
         <v>73</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M145" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N145" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -19815,7 +19812,7 @@
         <v>73</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>74</v>
@@ -19832,17 +19829,17 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" t="s" s="2">
@@ -19861,16 +19858,16 @@
         <v>73</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="N146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
@@ -19920,7 +19917,7 @@
         <v>73</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>74</v>
@@ -19932,18 +19929,18 @@
         <v>73</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19966,13 +19963,13 @@
         <v>73</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M147" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
@@ -19996,7 +19993,7 @@
         <v>73</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y147" t="s" s="2">
         <v>73</v>
@@ -20023,7 +20020,7 @@
         <v>73</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>74</v>
@@ -20040,13 +20037,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -20072,10 +20069,10 @@
         <v>76</v>
       </c>
       <c r="M148" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -20143,13 +20140,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -20172,13 +20169,13 @@
         <v>73</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
@@ -20229,7 +20226,7 @@
         <v>73</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>79</v>
@@ -20246,13 +20243,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20275,13 +20272,13 @@
         <v>73</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
@@ -20332,7 +20329,7 @@
         <v>73</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>79</v>
@@ -20349,13 +20346,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -20378,13 +20375,13 @@
         <v>73</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
@@ -20435,7 +20432,7 @@
         <v>73</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>79</v>
@@ -20452,13 +20449,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20484,10 +20481,10 @@
         <v>76</v>
       </c>
       <c r="M152" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -20555,13 +20552,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20584,13 +20581,13 @@
         <v>73</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -20641,7 +20638,7 @@
         <v>73</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>74</v>
@@ -20658,13 +20655,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20687,13 +20684,13 @@
         <v>73</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -20744,7 +20741,7 @@
         <v>73</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>79</v>
@@ -20761,13 +20758,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20790,13 +20787,13 @@
         <v>73</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -20847,7 +20844,7 @@
         <v>73</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>74</v>
@@ -20864,13 +20861,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20893,13 +20890,13 @@
         <v>73</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -20950,7 +20947,7 @@
         <v>73</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>74</v>
@@ -20967,13 +20964,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -20996,13 +20993,13 @@
         <v>73</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -21053,7 +21050,7 @@
         <v>73</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>74</v>
@@ -21070,13 +21067,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21099,13 +21096,13 @@
         <v>73</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
@@ -21156,7 +21153,7 @@
         <v>73</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>74</v>
@@ -21173,13 +21170,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21202,13 +21199,13 @@
         <v>73</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -21259,7 +21256,7 @@
         <v>73</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>74</v>
@@ -21276,13 +21273,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21305,13 +21302,13 @@
         <v>73</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -21362,7 +21359,7 @@
         <v>73</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>74</v>
@@ -21379,13 +21376,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21408,13 +21405,13 @@
         <v>73</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -21465,7 +21462,7 @@
         <v>73</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>74</v>
@@ -21482,13 +21479,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -21511,13 +21508,13 @@
         <v>73</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -21568,7 +21565,7 @@
         <v>73</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>74</v>
@@ -21585,13 +21582,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21614,13 +21611,13 @@
         <v>73</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
@@ -21671,7 +21668,7 @@
         <v>73</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>74</v>
@@ -21688,13 +21685,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -21720,13 +21717,13 @@
         <v>76</v>
       </c>
       <c r="M164" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N164" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="N164" t="s" s="2">
+      <c r="O164" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
@@ -21776,7 +21773,7 @@
         <v>73</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>74</v>
@@ -21788,18 +21785,18 @@
         <v>73</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21822,13 +21819,13 @@
         <v>73</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M165" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
@@ -21879,7 +21876,7 @@
         <v>73</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>74</v>
@@ -21896,17 +21893,17 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" t="s" s="2">
@@ -21925,16 +21922,16 @@
         <v>73</v>
       </c>
       <c r="L166" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="N166" t="s" s="2">
+      <c r="O166" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
@@ -21984,7 +21981,7 @@
         <v>73</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>74</v>
@@ -21996,18 +21993,18 @@
         <v>73</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -22030,13 +22027,13 @@
         <v>73</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M167" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N167" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
@@ -22060,7 +22057,7 @@
         <v>73</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y167" t="s" s="2">
         <v>73</v>
@@ -22087,7 +22084,7 @@
         <v>73</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>74</v>
@@ -22104,13 +22101,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -22136,10 +22133,10 @@
         <v>76</v>
       </c>
       <c r="M168" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
@@ -22207,13 +22204,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -22236,13 +22233,13 @@
         <v>73</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
@@ -22293,7 +22290,7 @@
         <v>73</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>79</v>
@@ -22310,13 +22307,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -22339,13 +22336,13 @@
         <v>73</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M170" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N170" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
@@ -22360,23 +22357,23 @@
         <v>73</v>
       </c>
       <c r="U170" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y170" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="V170" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W170" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X170" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y170" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="Z170" s="2"/>
       <c r="AA170" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB170" t="s" s="2">
         <v>73</v>
@@ -22394,7 +22391,7 @@
         <v>73</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>79</v>
@@ -22411,13 +22408,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -22440,13 +22437,13 @@
         <v>73</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
@@ -22497,7 +22494,7 @@
         <v>73</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>79</v>
@@ -22514,13 +22511,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22543,13 +22540,13 @@
         <v>73</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M172" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N172" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
@@ -22600,7 +22597,7 @@
         <v>73</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>74</v>
@@ -22617,13 +22614,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22646,13 +22643,13 @@
         <v>73</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M173" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N173" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
@@ -22703,7 +22700,7 @@
         <v>73</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>74</v>
@@ -22720,13 +22717,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22749,13 +22746,13 @@
         <v>73</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
@@ -22806,7 +22803,7 @@
         <v>73</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>79</v>
@@ -22823,13 +22820,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -22852,13 +22849,13 @@
         <v>73</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
@@ -22909,7 +22906,7 @@
         <v>73</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>79</v>
@@ -22926,13 +22923,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22955,13 +22952,13 @@
         <v>73</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
@@ -23012,7 +23009,7 @@
         <v>73</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>79</v>
@@ -23029,13 +23026,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -23058,13 +23055,13 @@
         <v>73</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M177" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N177" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -23091,11 +23088,11 @@
         <v>73</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z177" s="2"/>
       <c r="AA177" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AB177" t="s" s="2">
         <v>73</v>
@@ -23113,7 +23110,7 @@
         <v>73</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>79</v>
@@ -23130,13 +23127,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -23159,13 +23156,13 @@
         <v>73</v>
       </c>
       <c r="L178" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M178" t="s" s="2">
-        <v>466</v>
-      </c>
       <c r="N178" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
@@ -23216,7 +23213,7 @@
         <v>73</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>79</v>
@@ -23233,13 +23230,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23262,13 +23259,13 @@
         <v>73</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
@@ -23319,7 +23316,7 @@
         <v>73</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>74</v>
@@ -23336,13 +23333,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -23365,13 +23362,13 @@
         <v>73</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
@@ -23422,7 +23419,7 @@
         <v>73</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>74</v>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6546" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6282" uniqueCount="475">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,7 +256,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat}
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat
 </t>
   </si>
   <si>
@@ -276,8 +276,8 @@
     <t>ActorXDS.XCN1[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme}
-</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat
+https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINShttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNRstring {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme}</t>
   </si>
   <si>
     <t>D</t>
@@ -394,7 +394,7 @@
     <t>ActorPatient.XCN1[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS}
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS
 </t>
   </si>
   <si>
@@ -452,7 +452,7 @@
     <t>ActorSNR.XCN1[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR}
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR
 </t>
   </si>
   <si>
@@ -718,7 +718,7 @@
     <t>AuthorInstitution.XON10</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/StructIdNat}
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/StructIdNat
 </t>
   </si>
   <si>
@@ -1225,6 +1225,12 @@
     <t>Matricule de l'Identité Nationale de Santé (INS). Il correspond au NIR (Numéro d’Identification au Répertoire des personnes physiques) ou au NIA (Numéro Identifiant Attente) de l’individu).</t>
   </si>
   <si>
+    <t>MatriculeINS.matriculeINS</t>
+  </si>
+  <si>
+    <t>Matricule INS</t>
+  </si>
+  <si>
     <t>PSIdNat</t>
   </si>
   <si>
@@ -1243,8 +1249,11 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-PSIdNat-invariant:Le numéro PSIdNat doit être un entier commençant par 0, 1, 3, 4, 5, 6 ou 8 {$this.matches('^(0|1|3|4|5|6|8)\d*$')}</t>
+    <t>PSIdNat.PSIdNat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSIdNat-invariant:Le numéro PSIdNat doit être un entier commençant par 0, 1, 3, 4, 5, 6 ou 8 {$this.matches('^(0|1|3|4|5|6|8)\d*$')}
+</t>
   </si>
   <si>
     <t>PatientId</t>
@@ -1288,6 +1297,9 @@
   </si>
   <si>
     <t xml:space="preserve">Identifiant interne de l’instance de la solution ayant produit le document au format OID </t>
+  </si>
+  <si>
+    <t>SNR.SNR</t>
   </si>
   <si>
     <t>SourcePatientId</t>
@@ -1407,6 +1419,9 @@
 - 4 + N° RPPS-rang 
 - Néant + N° technique 
 </t>
+  </si>
+  <si>
+    <t>StructIdNat.StructIdNat</t>
   </si>
   <si>
     <t>SubmissionSet</t>
@@ -3730,7 +3745,7 @@
         <v>28</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>352</v>
+        <v>29</v>
       </c>
     </row>
     <row r="270">
@@ -3738,7 +3753,7 @@
         <v>30</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>353</v>
+        <v>377</v>
       </c>
     </row>
     <row r="271">
@@ -3746,7 +3761,7 @@
         <v>31</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>354</v>
+        <v>177</v>
       </c>
     </row>
     <row r="272">
@@ -3762,7 +3777,7 @@
         <v>35</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>355</v>
+        <v>36</v>
       </c>
     </row>
     <row r="274">
@@ -3778,7 +3793,7 @@
         <v>2</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="276">
@@ -3786,7 +3801,7 @@
         <v>4</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="277">
@@ -3802,7 +3817,7 @@
         <v>8</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="279">
@@ -3810,7 +3825,7 @@
         <v>9</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="280">
@@ -3864,7 +3879,7 @@
         <v>22</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="287">
@@ -3892,7 +3907,7 @@
         <v>28</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>352</v>
+        <v>29</v>
       </c>
     </row>
     <row r="291">
@@ -3900,7 +3915,7 @@
         <v>30</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>353</v>
+        <v>382</v>
       </c>
     </row>
     <row r="292">
@@ -3908,7 +3923,7 @@
         <v>31</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>354</v>
+        <v>177</v>
       </c>
     </row>
     <row r="293">
@@ -3924,7 +3939,7 @@
         <v>35</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>355</v>
+        <v>36</v>
       </c>
     </row>
     <row r="295">
@@ -3940,7 +3955,7 @@
         <v>2</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="297">
@@ -3948,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="298">
@@ -3964,7 +3979,7 @@
         <v>8</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="300">
@@ -3972,7 +3987,7 @@
         <v>9</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="301">
@@ -4026,7 +4041,7 @@
         <v>22</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="308">
@@ -4062,7 +4077,7 @@
         <v>30</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="313">
@@ -4102,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="318">
@@ -4110,7 +4125,7 @@
         <v>4</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="319">
@@ -4126,7 +4141,7 @@
         <v>8</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="321">
@@ -4134,7 +4149,7 @@
         <v>9</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="322">
@@ -4188,7 +4203,7 @@
         <v>22</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="329">
@@ -4216,7 +4231,7 @@
         <v>28</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>352</v>
+        <v>29</v>
       </c>
     </row>
     <row r="333">
@@ -4224,7 +4239,7 @@
         <v>30</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>353</v>
+        <v>397</v>
       </c>
     </row>
     <row r="334">
@@ -4232,7 +4247,7 @@
         <v>31</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>354</v>
+        <v>177</v>
       </c>
     </row>
     <row r="335">
@@ -4248,7 +4263,7 @@
         <v>35</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>355</v>
+        <v>36</v>
       </c>
     </row>
     <row r="337">
@@ -4264,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="339">
@@ -4272,7 +4287,7 @@
         <v>4</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="340">
@@ -4288,7 +4303,7 @@
         <v>8</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="342">
@@ -4296,7 +4311,7 @@
         <v>9</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="343">
@@ -4350,7 +4365,7 @@
         <v>22</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="350">
@@ -4386,7 +4401,7 @@
         <v>30</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="355">
@@ -4426,7 +4441,7 @@
         <v>2</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="360">
@@ -4434,7 +4449,7 @@
         <v>4</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="361">
@@ -4450,7 +4465,7 @@
         <v>8</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="363">
@@ -4458,7 +4473,7 @@
         <v>9</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="364">
@@ -4512,7 +4527,7 @@
         <v>22</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="371">
@@ -4548,7 +4563,7 @@
         <v>30</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="376">
@@ -4588,7 +4603,7 @@
         <v>2</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="381">
@@ -4596,7 +4611,7 @@
         <v>4</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="382">
@@ -4612,7 +4627,7 @@
         <v>8</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="384">
@@ -4620,7 +4635,7 @@
         <v>9</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="385">
@@ -4674,7 +4689,7 @@
         <v>22</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="392">
@@ -4702,7 +4717,7 @@
         <v>28</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>352</v>
+        <v>29</v>
       </c>
     </row>
     <row r="396">
@@ -4710,7 +4725,7 @@
         <v>30</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>353</v>
+        <v>435</v>
       </c>
     </row>
     <row r="397">
@@ -4718,7 +4733,7 @@
         <v>31</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>354</v>
+        <v>177</v>
       </c>
     </row>
     <row r="398">
@@ -4734,7 +4749,7 @@
         <v>35</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>355</v>
+        <v>36</v>
       </c>
     </row>
     <row r="400">
@@ -4750,7 +4765,7 @@
         <v>2</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="402">
@@ -4758,7 +4773,7 @@
         <v>4</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="403">
@@ -4774,7 +4789,7 @@
         <v>8</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="405">
@@ -4782,7 +4797,7 @@
         <v>9</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="406">
@@ -4836,7 +4851,7 @@
         <v>22</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="413">
@@ -4872,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="418">
@@ -4906,7 +4921,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK180"/>
+  <dimension ref="A1:AK172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -18380,10 +18395,10 @@
         <v>376</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -18409,14 +18424,12 @@
         <v>76</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="O132" s="2"/>
       <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
         <v>73</v>
@@ -18465,7 +18478,7 @@
         <v>73</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>74</v>
@@ -18477,7 +18490,7 @@
         <v>73</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133">
@@ -18485,10 +18498,10 @@
         <v>376</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18496,7 +18509,7 @@
       </c>
       <c r="F133" s="2"/>
       <c r="G133" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>79</v>
@@ -18514,10 +18527,10 @@
         <v>90</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -18568,10 +18581,10 @@
         <v>73</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>79</v>
@@ -18585,17 +18598,17 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>365</v>
+        <v>73</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" t="s" s="2">
@@ -18614,17 +18627,15 @@
         <v>73</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="O134" s="2"/>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
         <v>73</v>
@@ -18673,7 +18684,7 @@
         <v>73</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>74</v>
@@ -18685,18 +18696,18 @@
         <v>73</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>371</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -18704,7 +18715,7 @@
       </c>
       <c r="F135" s="2"/>
       <c r="G135" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>79</v>
@@ -18722,10 +18733,10 @@
         <v>90</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -18749,7 +18760,7 @@
         <v>73</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>375</v>
+        <v>73</v>
       </c>
       <c r="Y135" t="s" s="2">
         <v>73</v>
@@ -18776,10 +18787,10 @@
         <v>73</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>79</v>
@@ -18788,18 +18799,18 @@
         <v>73</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>73</v>
+        <v>385</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18825,14 +18836,12 @@
         <v>76</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="O136" s="2"/>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
         <v>73</v>
@@ -18881,7 +18890,7 @@
         <v>73</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>74</v>
@@ -18893,18 +18902,18 @@
         <v>73</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>382</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18912,7 +18921,7 @@
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>79</v>
@@ -18927,13 +18936,13 @@
         <v>73</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -18984,10 +18993,10 @@
         <v>73</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>79</v>
@@ -19001,24 +19010,24 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>365</v>
+        <v>73</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>73</v>
@@ -19030,17 +19039,15 @@
         <v>73</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>366</v>
+        <v>90</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="O138" s="2"/>
       <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>73</v>
@@ -19089,30 +19096,30 @@
         <v>73</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>371</v>
+        <v>73</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -19120,7 +19127,7 @@
       </c>
       <c r="F139" s="2"/>
       <c r="G139" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>79</v>
@@ -19138,10 +19145,10 @@
         <v>90</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
@@ -19165,7 +19172,7 @@
         <v>73</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>375</v>
+        <v>73</v>
       </c>
       <c r="Y139" t="s" s="2">
         <v>73</v>
@@ -19192,10 +19199,10 @@
         <v>73</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>79</v>
@@ -19209,13 +19216,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -19241,10 +19248,10 @@
         <v>76</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
@@ -19312,13 +19319,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19341,13 +19348,13 @@
         <v>73</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -19398,7 +19405,7 @@
         <v>73</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>79</v>
@@ -19415,13 +19422,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -19429,10 +19436,10 @@
       </c>
       <c r="F142" s="2"/>
       <c r="G142" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>73</v>
@@ -19444,13 +19451,13 @@
         <v>73</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -19501,13 +19508,13 @@
         <v>73</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>73</v>
@@ -19518,13 +19525,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19547,13 +19554,13 @@
         <v>73</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -19604,7 +19611,7 @@
         <v>73</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>79</v>
@@ -19621,13 +19628,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19635,10 +19642,10 @@
       </c>
       <c r="F144" s="2"/>
       <c r="G144" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>73</v>
@@ -19650,17 +19657,15 @@
         <v>73</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="O144" s="2"/>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
         <v>73</v>
@@ -19709,30 +19714,30 @@
         <v>73</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19740,7 +19745,7 @@
       </c>
       <c r="F145" s="2"/>
       <c r="G145" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>79</v>
@@ -19758,10 +19763,10 @@
         <v>90</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -19812,10 +19817,10 @@
         <v>73</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>79</v>
@@ -19829,17 +19834,17 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>365</v>
+        <v>73</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" t="s" s="2">
@@ -19858,17 +19863,15 @@
         <v>73</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="O146" s="2"/>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
         <v>73</v>
@@ -19917,7 +19920,7 @@
         <v>73</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>74</v>
@@ -19929,18 +19932,18 @@
         <v>73</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>371</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19963,13 +19966,13 @@
         <v>73</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
@@ -19993,7 +19996,7 @@
         <v>73</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>375</v>
+        <v>73</v>
       </c>
       <c r="Y147" t="s" s="2">
         <v>73</v>
@@ -20020,7 +20023,7 @@
         <v>73</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>74</v>
@@ -20037,13 +20040,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -20051,7 +20054,7 @@
       </c>
       <c r="F148" s="2"/>
       <c r="G148" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>75</v>
@@ -20066,13 +20069,13 @@
         <v>73</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -20123,10 +20126,10 @@
         <v>73</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>75</v>
@@ -20140,13 +20143,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -20154,7 +20157,7 @@
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>79</v>
@@ -20169,13 +20172,13 @@
         <v>73</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
@@ -20226,10 +20229,10 @@
         <v>73</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>79</v>
@@ -20243,13 +20246,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20257,7 +20260,7 @@
       </c>
       <c r="F150" s="2"/>
       <c r="G150" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>79</v>
@@ -20275,10 +20278,10 @@
         <v>90</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
@@ -20329,10 +20332,10 @@
         <v>73</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>79</v>
@@ -20346,13 +20349,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -20360,7 +20363,7 @@
       </c>
       <c r="F151" s="2"/>
       <c r="G151" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>79</v>
@@ -20378,10 +20381,10 @@
         <v>90</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
@@ -20432,10 +20435,10 @@
         <v>73</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>79</v>
@@ -20449,13 +20452,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20466,7 +20469,7 @@
         <v>74</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>73</v>
@@ -20478,13 +20481,13 @@
         <v>73</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -20535,13 +20538,13 @@
         <v>73</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>73</v>
@@ -20552,13 +20555,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20581,13 +20584,13 @@
         <v>73</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -20638,7 +20641,7 @@
         <v>73</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>74</v>
@@ -20655,13 +20658,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20669,10 +20672,10 @@
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>73</v>
@@ -20687,10 +20690,10 @@
         <v>90</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -20741,13 +20744,13 @@
         <v>73</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>73</v>
@@ -20758,13 +20761,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20790,10 +20793,10 @@
         <v>90</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -20844,7 +20847,7 @@
         <v>73</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>74</v>
@@ -20861,13 +20864,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20893,10 +20896,10 @@
         <v>90</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -20947,7 +20950,7 @@
         <v>73</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>74</v>
@@ -20964,13 +20967,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -20996,10 +20999,10 @@
         <v>90</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -21050,7 +21053,7 @@
         <v>73</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>74</v>
@@ -21067,13 +21070,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21084,7 +21087,7 @@
         <v>74</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I158" t="s" s="2">
         <v>73</v>
@@ -21096,13 +21099,13 @@
         <v>73</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
@@ -21153,13 +21156,13 @@
         <v>73</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>73</v>
@@ -21170,13 +21173,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21184,7 +21187,7 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>79</v>
@@ -21202,10 +21205,10 @@
         <v>90</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -21256,10 +21259,10 @@
         <v>73</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>79</v>
@@ -21273,13 +21276,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21290,7 +21293,7 @@
         <v>74</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>73</v>
@@ -21302,13 +21305,13 @@
         <v>73</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -21359,13 +21362,13 @@
         <v>73</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>73</v>
@@ -21376,13 +21379,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21390,7 +21393,7 @@
       </c>
       <c r="F161" s="2"/>
       <c r="G161" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>79</v>
@@ -21405,13 +21408,13 @@
         <v>73</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>90</v>
+        <v>242</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -21462,10 +21465,10 @@
         <v>73</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI161" t="s" s="2">
         <v>79</v>
@@ -21479,13 +21482,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -21493,7 +21496,7 @@
       </c>
       <c r="F162" s="2"/>
       <c r="G162" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H162" t="s" s="2">
         <v>79</v>
@@ -21508,13 +21511,13 @@
         <v>73</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -21529,7 +21532,7 @@
         <v>73</v>
       </c>
       <c r="U162" t="s" s="2">
-        <v>73</v>
+        <v>448</v>
       </c>
       <c r="V162" t="s" s="2">
         <v>73</v>
@@ -21541,13 +21544,11 @@
         <v>73</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="Z162" s="2"/>
       <c r="AA162" t="s" s="2">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="AB162" t="s" s="2">
         <v>73</v>
@@ -21565,10 +21566,10 @@
         <v>73</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI162" t="s" s="2">
         <v>79</v>
@@ -21582,13 +21583,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21596,7 +21597,7 @@
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>79</v>
@@ -21611,13 +21612,13 @@
         <v>73</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
@@ -21668,10 +21669,10 @@
         <v>73</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>79</v>
@@ -21685,13 +21686,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>353</v>
+        <v>452</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>353</v>
+        <v>452</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -21702,7 +21703,7 @@
         <v>74</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I164" t="s" s="2">
         <v>73</v>
@@ -21714,17 +21715,15 @@
         <v>73</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>356</v>
+        <v>453</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="O164" s="2"/>
       <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
         <v>73</v>
@@ -21773,30 +21772,30 @@
         <v>73</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>353</v>
+        <v>452</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>360</v>
+        <v>455</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>360</v>
+        <v>455</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21822,10 +21821,10 @@
         <v>90</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>361</v>
+        <v>456</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>362</v>
+        <v>457</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
@@ -21876,7 +21875,7 @@
         <v>73</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>74</v>
@@ -21893,24 +21892,24 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>364</v>
+        <v>458</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>364</v>
+        <v>458</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>365</v>
+        <v>73</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I166" t="s" s="2">
         <v>73</v>
@@ -21922,17 +21921,15 @@
         <v>73</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>367</v>
+        <v>459</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="O166" s="2"/>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
         <v>73</v>
@@ -21981,30 +21978,30 @@
         <v>73</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>370</v>
+        <v>458</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>371</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>372</v>
+        <v>460</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>372</v>
+        <v>460</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -22012,7 +22009,7 @@
       </c>
       <c r="F167" s="2"/>
       <c r="G167" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>79</v>
@@ -22027,13 +22024,13 @@
         <v>73</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>373</v>
+        <v>461</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>374</v>
+        <v>461</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
@@ -22057,7 +22054,7 @@
         <v>73</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>375</v>
+        <v>73</v>
       </c>
       <c r="Y167" t="s" s="2">
         <v>73</v>
@@ -22084,10 +22081,10 @@
         <v>73</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>372</v>
+        <v>460</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI167" t="s" s="2">
         <v>79</v>
@@ -22101,13 +22098,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -22115,10 +22112,10 @@
       </c>
       <c r="F168" s="2"/>
       <c r="G168" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I168" t="s" s="2">
         <v>73</v>
@@ -22130,13 +22127,13 @@
         <v>73</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
@@ -22187,13 +22184,13 @@
         <v>73</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>73</v>
@@ -22204,13 +22201,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -22233,13 +22230,13 @@
         <v>73</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
@@ -22266,13 +22263,11 @@
         <v>73</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Z169" s="2"/>
       <c r="AA169" t="s" s="2">
-        <v>73</v>
+        <v>467</v>
       </c>
       <c r="AB169" t="s" s="2">
         <v>73</v>
@@ -22290,7 +22285,7 @@
         <v>73</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>79</v>
@@ -22307,13 +22302,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -22336,13 +22331,13 @@
         <v>73</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>111</v>
+        <v>469</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
@@ -22357,7 +22352,7 @@
         <v>73</v>
       </c>
       <c r="U170" t="s" s="2">
-        <v>443</v>
+        <v>73</v>
       </c>
       <c r="V170" t="s" s="2">
         <v>73</v>
@@ -22369,11 +22364,13 @@
         <v>73</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="Z170" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA170" t="s" s="2">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="AB170" t="s" s="2">
         <v>73</v>
@@ -22391,7 +22388,7 @@
         <v>73</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>79</v>
@@ -22408,13 +22405,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -22422,7 +22419,7 @@
       </c>
       <c r="F171" s="2"/>
       <c r="G171" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>79</v>
@@ -22437,13 +22434,13 @@
         <v>73</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
@@ -22494,10 +22491,10 @@
         <v>73</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>79</v>
@@ -22511,13 +22508,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22528,7 +22525,7 @@
         <v>74</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>73</v>
@@ -22543,10 +22540,10 @@
         <v>90</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
@@ -22597,840 +22594,18 @@
         <v>73</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B173" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C173" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F173" s="2"/>
-      <c r="G173" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R173" s="2"/>
-      <c r="S173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG173" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AH173" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI173" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK173" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B174" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C174" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F174" s="2"/>
-      <c r="G174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="Q174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R174" s="2"/>
-      <c r="S174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C175" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F175" s="2"/>
-      <c r="G175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-      <c r="Q175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R175" s="2"/>
-      <c r="S175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG175" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AH175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI175" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ175" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK175" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B176" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C176" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F176" s="2"/>
-      <c r="G176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
-      <c r="Q176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R176" s="2"/>
-      <c r="S176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG176" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AH176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI176" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK176" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B177" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C177" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F177" s="2"/>
-      <c r="G177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-      <c r="Q177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R177" s="2"/>
-      <c r="S177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Z177" s="2"/>
-      <c r="AA177" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG177" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AH177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI177" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK177" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B178" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C178" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="D178" s="2"/>
-      <c r="E178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F178" s="2"/>
-      <c r="G178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
-      <c r="Q178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R178" s="2"/>
-      <c r="S178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK178" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B179" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C179" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="D179" s="2"/>
-      <c r="E179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F179" s="2"/>
-      <c r="G179" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
-      <c r="Q179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R179" s="2"/>
-      <c r="S179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ179" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK179" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B180" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C180" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="D180" s="2"/>
-      <c r="E180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F180" s="2"/>
-      <c r="G180" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-      <c r="Q180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R180" s="2"/>
-      <c r="S180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG180" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AH180" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI180" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK180" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/add-info-dmp/ig/all-profiles.xlsx
+++ b/add-info-dmp/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6029" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6451" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1132,6 +1132,82 @@
     <t>Cet attribut peut contenir le code représentant : • un évènement documenté (acte, traitement, diagnostic, etc…),  • une modalité d'acquisition, • une région anatomique.</t>
   </si>
   <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Folder</t>
+  </si>
+  <si>
+    <t>Folder (LM)</t>
+  </si>
+  <si>
+    <t>Modèle logique  d’une classeur</t>
+  </si>
+  <si>
+    <t>Folder.availabilityStatus</t>
+  </si>
+  <si>
+    <t>Folder.codeList</t>
+  </si>
+  <si>
+    <t>Folder.comments</t>
+  </si>
+  <si>
+    <t>Cette métadonnée contient le commentaire associé au classeur.</t>
+  </si>
+  <si>
+    <t>Folder.entryUUID</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l’identifiant unique du classeur.</t>
+  </si>
+  <si>
+    <t>Folder.lastUpdateTime</t>
+  </si>
+  <si>
+    <t>Cette métadonnée correspond à la date et l’heure de la dernière mise à jour du classeur.</t>
+  </si>
+  <si>
+    <t>Folder.patientID</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l’identifiant du patient, en l’occurrence, le matricule INS (NIR ou NIA) du patient
+tel que défini dans le cadre juridique.</t>
+  </si>
+  <si>
+    <t>Folder.title</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente le titre du classeur.</t>
+  </si>
+  <si>
+    <t>Folder.uniqueId</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente l’identifiant unique global affecté au classeur par son créateur.</t>
+  </si>
+  <si>
+    <t>Folder.homeCommunityId</t>
+  </si>
+  <si>
+    <t>Cette métadonnée correspond à l’identifiant de la communauté représentée par le système cible si celui-ci offre
+des fonctionnalités de communication avec d’autres communautés telles que présentées dans le profil XCA
+d’IHE. Elle n’est pas utilisée par les transactions décrites dans ce volet.</t>
+  </si>
+  <si>
+    <t>Folder.logicalId</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente un identifiant invariable pour toutes les versions du classeur, à la différence de la
+métadonnée entryUUID qui a une valeur différente pour chaque version du classeur</t>
+  </si>
+  <si>
+    <t>Folder.version</t>
+  </si>
+  <si>
+    <t>Cette métadonnée représente le numéro de version du classeur</t>
+  </si>
+  <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Identifiant</t>
   </si>
   <si>
@@ -1303,6 +1379,11 @@
   </si>
   <si>
     <t>Identifiant de l’autorité d’affectation de l’INS utilisé.</t>
+  </si>
+  <si>
+    <t>Cet identifiant, au format HL7 v.2.5 est constitué de trois sous-composants qui prennent les valeurs suivantes.
+|Valeur de Namespace ID (IS)| Valeur de Universal ID (ST)| Valeur de Universal ID type (ID)
+Vide, pas de valeur |OID de l’autorité d’affectation de l’INS utilisé Valeur de Universal ID type (ID) ISO prise dans la liste des OID des autorités d'affectation des INS | ISO</t>
   </si>
   <si>
     <t>PatientId.CX5</t>
@@ -1688,7 +1769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B441"/>
+  <dimension ref="A1:B462"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3493,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>86</v>
+        <v>352</v>
       </c>
     </row>
     <row r="234">
@@ -3501,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="235">
@@ -3517,7 +3598,7 @@
         <v>8</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>86</v>
+        <v>352</v>
       </c>
     </row>
     <row r="237">
@@ -3525,7 +3606,7 @@
         <v>9</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="238">
@@ -3579,7 +3660,7 @@
         <v>22</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="245">
@@ -3615,7 +3696,7 @@
         <v>30</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="250">
@@ -3655,7 +3736,7 @@
         <v>2</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>356</v>
+        <v>86</v>
       </c>
     </row>
     <row r="255">
@@ -3663,7 +3744,7 @@
         <v>4</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="256">
@@ -3679,7 +3760,7 @@
         <v>8</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>356</v>
+        <v>86</v>
       </c>
     </row>
     <row r="258">
@@ -3687,7 +3768,7 @@
         <v>9</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>358</v>
+        <v>377</v>
       </c>
     </row>
     <row r="259">
@@ -3741,7 +3822,7 @@
         <v>22</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>359</v>
+        <v>378</v>
       </c>
     </row>
     <row r="266">
@@ -3769,7 +3850,7 @@
         <v>28</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>360</v>
+        <v>29</v>
       </c>
     </row>
     <row r="270">
@@ -3777,7 +3858,7 @@
         <v>30</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="271">
@@ -3785,7 +3866,7 @@
         <v>31</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>362</v>
+        <v>181</v>
       </c>
     </row>
     <row r="272">
@@ -3801,7 +3882,7 @@
         <v>35</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>363</v>
+        <v>36</v>
       </c>
     </row>
     <row r="274">
@@ -3817,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="276">
@@ -3825,7 +3906,7 @@
         <v>4</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="277">
@@ -3841,7 +3922,7 @@
         <v>8</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="279">
@@ -3849,7 +3930,7 @@
         <v>9</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="280">
@@ -3903,7 +3984,7 @@
         <v>22</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="287">
@@ -3931,7 +4012,7 @@
         <v>28</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>29</v>
+        <v>384</v>
       </c>
     </row>
     <row r="291">
@@ -3947,7 +4028,7 @@
         <v>31</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>181</v>
+        <v>386</v>
       </c>
     </row>
     <row r="293">
@@ -3963,7 +4044,7 @@
         <v>35</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>36</v>
+        <v>387</v>
       </c>
     </row>
     <row r="295">
@@ -3979,7 +4060,7 @@
         <v>2</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="297">
@@ -3987,7 +4068,7 @@
         <v>4</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>390</v>
+        <v>409</v>
       </c>
     </row>
     <row r="298">
@@ -4003,7 +4084,7 @@
         <v>8</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="300">
@@ -4011,7 +4092,7 @@
         <v>9</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="301">
@@ -4065,7 +4146,7 @@
         <v>22</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>391</v>
+        <v>410</v>
       </c>
     </row>
     <row r="308">
@@ -4101,7 +4182,7 @@
         <v>30</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>390</v>
+        <v>409</v>
       </c>
     </row>
     <row r="313">
@@ -4141,7 +4222,7 @@
         <v>2</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>394</v>
+        <v>413</v>
       </c>
     </row>
     <row r="318">
@@ -4149,7 +4230,7 @@
         <v>4</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>395</v>
+        <v>414</v>
       </c>
     </row>
     <row r="319">
@@ -4165,7 +4246,7 @@
         <v>8</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>394</v>
+        <v>413</v>
       </c>
     </row>
     <row r="321">
@@ -4173,7 +4254,7 @@
         <v>9</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="322">
@@ -4227,7 +4308,7 @@
         <v>22</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>397</v>
+        <v>415</v>
       </c>
     </row>
     <row r="329">
@@ -4263,7 +4344,7 @@
         <v>30</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>395</v>
+        <v>414</v>
       </c>
     </row>
     <row r="334">
@@ -4303,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>404</v>
+        <v>418</v>
       </c>
     </row>
     <row r="339">
@@ -4311,7 +4392,7 @@
         <v>4</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="340">
@@ -4327,7 +4408,7 @@
         <v>8</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>404</v>
+        <v>418</v>
       </c>
     </row>
     <row r="342">
@@ -4335,7 +4416,7 @@
         <v>9</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="343">
@@ -4389,7 +4470,7 @@
         <v>22</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
     <row r="350">
@@ -4425,7 +4506,7 @@
         <v>30</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="355">
@@ -4465,7 +4546,7 @@
         <v>2</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="360">
@@ -4473,7 +4554,7 @@
         <v>4</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="361">
@@ -4489,7 +4570,7 @@
         <v>8</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="363">
@@ -4497,7 +4578,7 @@
         <v>9</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="364">
@@ -4551,7 +4632,7 @@
         <v>22</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="371">
@@ -4587,7 +4668,7 @@
         <v>30</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="376">
@@ -4627,7 +4708,7 @@
         <v>2</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>416</v>
+        <v>434</v>
       </c>
     </row>
     <row r="381">
@@ -4635,7 +4716,7 @@
         <v>4</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>417</v>
+        <v>435</v>
       </c>
     </row>
     <row r="382">
@@ -4651,7 +4732,7 @@
         <v>8</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>416</v>
+        <v>434</v>
       </c>
     </row>
     <row r="384">
@@ -4659,7 +4740,7 @@
         <v>9</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>418</v>
+        <v>436</v>
       </c>
     </row>
     <row r="385">
@@ -4713,7 +4794,7 @@
         <v>22</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>419</v>
+        <v>437</v>
       </c>
     </row>
     <row r="392">
@@ -4749,7 +4830,7 @@
         <v>30</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>417</v>
+        <v>435</v>
       </c>
     </row>
     <row r="397">
@@ -4789,7 +4870,7 @@
         <v>2</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="402">
@@ -4797,7 +4878,7 @@
         <v>4</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="403">
@@ -4813,7 +4894,7 @@
         <v>8</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="405">
@@ -4821,7 +4902,7 @@
         <v>9</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="406">
@@ -4875,7 +4956,7 @@
         <v>22</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="413">
@@ -4911,7 +4992,7 @@
         <v>30</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="418">
@@ -4951,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="423">
@@ -4959,7 +5040,7 @@
         <v>4</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>448</v>
+        <v>468</v>
       </c>
     </row>
     <row r="424">
@@ -4975,7 +5056,7 @@
         <v>8</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="426">
@@ -4983,7 +5064,7 @@
         <v>9</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>449</v>
+        <v>469</v>
       </c>
     </row>
     <row r="427">
@@ -5037,7 +5118,7 @@
         <v>22</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>450</v>
+        <v>470</v>
       </c>
     </row>
     <row r="434">
@@ -5073,7 +5154,7 @@
         <v>30</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>448</v>
+        <v>468</v>
       </c>
     </row>
     <row r="439">
@@ -5097,6 +5178,168 @@
         <v>35</v>
       </c>
       <c r="B441" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B442" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B443" t="s" s="2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B444" t="s" s="2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B445" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B446" t="s" s="2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B447" t="s" s="2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B448" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B449" s="2"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B450" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B451" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B452" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B453" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B454" t="s" s="2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B455" s="2"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B456" s="2"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B457" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B458" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B459" t="s" s="2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B460" t="s" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B461" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B462" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -5107,7 +5350,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK162"/>
+  <dimension ref="A1:AK174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13525,7 +13768,7 @@
         <v>73</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>253</v>
@@ -16982,13 +17225,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>86</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>86</v>
+        <v>352</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>86</v>
+        <v>352</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -17014,10 +17257,10 @@
         <v>76</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
@@ -17085,13 +17328,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>86</v>
+        <v>352</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>87</v>
+        <v>356</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>87</v>
+        <v>356</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -17114,13 +17357,13 @@
         <v>73</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>355</v>
+        <v>192</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
@@ -17147,13 +17390,11 @@
         <v>73</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="Z117" s="2"/>
       <c r="AA117" t="s" s="2">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="AB117" t="s" s="2">
         <v>73</v>
@@ -17171,7 +17412,7 @@
         <v>73</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>87</v>
+        <v>356</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>79</v>
@@ -17188,13 +17429,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -17202,7 +17443,7 @@
       </c>
       <c r="F118" s="2"/>
       <c r="G118" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>75</v>
@@ -17217,17 +17458,15 @@
         <v>73</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="O118" s="2"/>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
         <v>73</v>
@@ -17276,10 +17515,10 @@
         <v>73</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>75</v>
@@ -17288,18 +17527,18 @@
         <v>73</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>367</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -17325,10 +17564,10 @@
         <v>89</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -17379,7 +17618,7 @@
         <v>73</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>74</v>
@@ -17396,24 +17635,24 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>373</v>
+        <v>73</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>73</v>
@@ -17425,17 +17664,15 @@
         <v>73</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>374</v>
+        <v>246</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="O120" s="2"/>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
         <v>73</v>
@@ -17484,30 +17721,30 @@
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>379</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -17515,7 +17752,7 @@
       </c>
       <c r="F121" s="2"/>
       <c r="G121" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>79</v>
@@ -17530,13 +17767,13 @@
         <v>73</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
@@ -17560,7 +17797,7 @@
         <v>73</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>383</v>
+        <v>73</v>
       </c>
       <c r="Y121" t="s" s="2">
         <v>73</v>
@@ -17587,10 +17824,10 @@
         <v>73</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>79</v>
@@ -17604,13 +17841,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -17618,10 +17855,10 @@
       </c>
       <c r="F122" s="2"/>
       <c r="G122" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>73</v>
@@ -17633,13 +17870,13 @@
         <v>73</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -17690,13 +17927,13 @@
         <v>73</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>73</v>
@@ -17707,13 +17944,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -17739,10 +17976,10 @@
         <v>89</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -17793,7 +18030,7 @@
         <v>73</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>79</v>
@@ -17810,13 +18047,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -17824,10 +18061,10 @@
       </c>
       <c r="F124" s="2"/>
       <c r="G124" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>73</v>
@@ -17839,13 +18076,13 @@
         <v>73</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -17896,13 +18133,13 @@
         <v>73</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>73</v>
@@ -17913,13 +18150,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -17927,7 +18164,7 @@
       </c>
       <c r="F125" s="2"/>
       <c r="G125" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>79</v>
@@ -17942,13 +18179,13 @@
         <v>73</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -17999,10 +18236,10 @@
         <v>73</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>79</v>
@@ -18011,18 +18248,18 @@
         <v>73</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>393</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -18030,10 +18267,10 @@
       </c>
       <c r="F126" s="2"/>
       <c r="G126" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I126" t="s" s="2">
         <v>73</v>
@@ -18045,13 +18282,13 @@
         <v>73</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
@@ -18102,13 +18339,13 @@
         <v>73</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>73</v>
@@ -18119,13 +18356,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -18133,7 +18370,7 @@
       </c>
       <c r="F127" s="2"/>
       <c r="G127" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>79</v>
@@ -18148,13 +18385,13 @@
         <v>73</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -18205,10 +18442,10 @@
         <v>73</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>79</v>
@@ -18222,13 +18459,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>394</v>
+        <v>86</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>400</v>
+        <v>86</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>400</v>
+        <v>86</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -18236,10 +18473,10 @@
       </c>
       <c r="F128" s="2"/>
       <c r="G128" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>73</v>
@@ -18251,13 +18488,13 @@
         <v>73</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
@@ -18308,13 +18545,13 @@
         <v>73</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>73</v>
@@ -18325,13 +18562,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>394</v>
+        <v>86</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>402</v>
+        <v>87</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>402</v>
+        <v>87</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -18354,13 +18591,13 @@
         <v>73</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>89</v>
+        <v>379</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>403</v>
+        <v>86</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>403</v>
+        <v>86</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -18411,7 +18648,7 @@
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>402</v>
+        <v>87</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>79</v>
@@ -18428,13 +18665,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -18460,12 +18697,14 @@
         <v>76</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O130" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
         <v>73</v>
@@ -18514,7 +18753,7 @@
         <v>73</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>74</v>
@@ -18526,18 +18765,18 @@
         <v>73</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>73</v>
+        <v>391</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -18545,7 +18784,7 @@
       </c>
       <c r="F131" s="2"/>
       <c r="G131" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>79</v>
@@ -18563,10 +18802,10 @@
         <v>89</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
@@ -18617,10 +18856,10 @@
         <v>73</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>79</v>
@@ -18634,17 +18873,17 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>73</v>
+        <v>397</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" t="s" s="2">
@@ -18663,15 +18902,17 @@
         <v>73</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O132" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
         <v>73</v>
@@ -18720,7 +18961,7 @@
         <v>73</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>74</v>
@@ -18732,18 +18973,18 @@
         <v>73</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>73</v>
+        <v>403</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18751,7 +18992,7 @@
       </c>
       <c r="F133" s="2"/>
       <c r="G133" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>79</v>
@@ -18766,13 +19007,13 @@
         <v>73</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -18796,7 +19037,7 @@
         <v>73</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>73</v>
+        <v>407</v>
       </c>
       <c r="Y133" t="s" s="2">
         <v>73</v>
@@ -18823,10 +19064,10 @@
         <v>73</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>79</v>
@@ -18840,13 +19081,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -18854,10 +19095,10 @@
       </c>
       <c r="F134" s="2"/>
       <c r="G134" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>73</v>
@@ -18869,13 +19110,13 @@
         <v>73</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
@@ -18926,13 +19167,13 @@
         <v>73</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>73</v>
@@ -18943,13 +19184,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -18975,10 +19216,10 @@
         <v>89</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -19029,7 +19270,7 @@
         <v>73</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>79</v>
@@ -19046,13 +19287,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -19078,10 +19319,10 @@
         <v>76</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -19149,13 +19390,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B137" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="B137" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="C137" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -19163,7 +19404,7 @@
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>79</v>
@@ -19178,13 +19419,13 @@
         <v>73</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -19235,10 +19476,10 @@
         <v>73</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>79</v>
@@ -19247,18 +19488,18 @@
         <v>73</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>73</v>
+        <v>417</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -19266,7 +19507,7 @@
       </c>
       <c r="F138" s="2"/>
       <c r="G138" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>75</v>
@@ -19281,13 +19522,13 @@
         <v>73</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
@@ -19338,10 +19579,10 @@
         <v>73</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>75</v>
@@ -19355,13 +19596,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -19369,7 +19610,7 @@
       </c>
       <c r="F139" s="2"/>
       <c r="G139" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>79</v>
@@ -19384,13 +19625,13 @@
         <v>73</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
@@ -19441,10 +19682,10 @@
         <v>73</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>79</v>
@@ -19458,13 +19699,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -19472,7 +19713,7 @@
       </c>
       <c r="F140" s="2"/>
       <c r="G140" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>79</v>
@@ -19490,10 +19731,10 @@
         <v>89</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
@@ -19544,10 +19785,10 @@
         <v>73</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>79</v>
@@ -19561,13 +19802,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19575,7 +19816,7 @@
       </c>
       <c r="F141" s="2"/>
       <c r="G141" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>79</v>
@@ -19593,10 +19834,10 @@
         <v>89</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -19647,10 +19888,10 @@
         <v>73</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>79</v>
@@ -19664,13 +19905,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -19681,7 +19922,7 @@
         <v>74</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>73</v>
@@ -19693,13 +19934,13 @@
         <v>73</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>431</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -19750,13 +19991,13 @@
         <v>73</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>73</v>
@@ -19767,13 +20008,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19781,7 +20022,7 @@
       </c>
       <c r="F143" s="2"/>
       <c r="G143" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>79</v>
@@ -19799,10 +20040,10 @@
         <v>89</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -19853,10 +20094,10 @@
         <v>73</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>79</v>
@@ -19870,7 +20111,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>434</v>
@@ -19887,7 +20128,7 @@
         <v>74</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>73</v>
@@ -19899,13 +20140,13 @@
         <v>73</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
@@ -19956,13 +20197,13 @@
         <v>73</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>73</v>
@@ -19973,13 +20214,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19987,7 +20228,7 @@
       </c>
       <c r="F145" s="2"/>
       <c r="G145" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>79</v>
@@ -20002,13 +20243,13 @@
         <v>73</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -20059,10 +20300,10 @@
         <v>73</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>79</v>
@@ -20076,13 +20317,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -20090,7 +20331,7 @@
       </c>
       <c r="F146" s="2"/>
       <c r="G146" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H146" t="s" s="2">
         <v>79</v>
@@ -20108,10 +20349,10 @@
         <v>89</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
@@ -20162,10 +20403,10 @@
         <v>73</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>79</v>
@@ -20179,7 +20420,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>440</v>
@@ -20193,7 +20434,7 @@
       </c>
       <c r="F147" s="2"/>
       <c r="G147" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>79</v>
@@ -20211,10 +20452,10 @@
         <v>89</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
@@ -20268,7 +20509,7 @@
         <v>440</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>79</v>
@@ -20282,13 +20523,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -20314,10 +20555,10 @@
         <v>76</v>
       </c>
       <c r="M148" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -20385,13 +20626,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -20399,7 +20640,7 @@
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>79</v>
@@ -20414,13 +20655,13 @@
         <v>73</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
@@ -20471,10 +20712,10 @@
         <v>73</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>79</v>
@@ -20488,7 +20729,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>447</v>
@@ -20502,7 +20743,7 @@
       </c>
       <c r="F150" s="2"/>
       <c r="G150" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>75</v>
@@ -20517,13 +20758,13 @@
         <v>73</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
@@ -20574,10 +20815,10 @@
         <v>73</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>75</v>
@@ -20591,13 +20832,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -20605,7 +20846,7 @@
       </c>
       <c r="F151" s="2"/>
       <c r="G151" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>79</v>
@@ -20620,13 +20861,13 @@
         <v>73</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>246</v>
+        <v>89</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
@@ -20677,10 +20918,10 @@
         <v>73</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>79</v>
@@ -20694,13 +20935,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20708,7 +20949,7 @@
       </c>
       <c r="F152" s="2"/>
       <c r="G152" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>79</v>
@@ -20723,13 +20964,13 @@
         <v>73</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -20744,7 +20985,7 @@
         <v>73</v>
       </c>
       <c r="U152" t="s" s="2">
-        <v>456</v>
+        <v>73</v>
       </c>
       <c r="V152" t="s" s="2">
         <v>73</v>
@@ -20756,11 +20997,13 @@
         <v>73</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="Z152" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA152" t="s" s="2">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="AB152" t="s" s="2">
         <v>73</v>
@@ -20778,10 +21021,10 @@
         <v>73</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>79</v>
@@ -20795,13 +21038,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20809,7 +21052,7 @@
       </c>
       <c r="F153" s="2"/>
       <c r="G153" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>79</v>
@@ -20824,13 +21067,13 @@
         <v>73</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -20881,10 +21124,10 @@
         <v>73</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>79</v>
@@ -20898,13 +21141,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20930,10 +21173,10 @@
         <v>89</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -20984,7 +21227,7 @@
         <v>73</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>74</v>
@@ -21001,13 +21244,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -21033,10 +21276,10 @@
         <v>89</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -21087,7 +21330,7 @@
         <v>73</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>74</v>
@@ -21104,13 +21347,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -21118,7 +21361,7 @@
       </c>
       <c r="F156" s="2"/>
       <c r="G156" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H156" t="s" s="2">
         <v>79</v>
@@ -21133,13 +21376,13 @@
         <v>73</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>294</v>
+        <v>89</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -21190,10 +21433,10 @@
         <v>73</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>79</v>
@@ -21207,13 +21450,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -21221,7 +21464,7 @@
       </c>
       <c r="F157" s="2"/>
       <c r="G157" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>79</v>
@@ -21236,13 +21479,13 @@
         <v>73</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>274</v>
+        <v>89</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -21293,10 +21536,10 @@
         <v>73</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>79</v>
@@ -21310,13 +21553,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21324,7 +21567,7 @@
       </c>
       <c r="F158" s="2"/>
       <c r="G158" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>79</v>
@@ -21339,13 +21582,13 @@
         <v>73</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>274</v>
+        <v>89</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
@@ -21396,10 +21639,10 @@
         <v>73</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>79</v>
@@ -21413,13 +21656,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21427,7 +21670,7 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>79</v>
@@ -21442,13 +21685,13 @@
         <v>73</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -21475,11 +21718,13 @@
         <v>73</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Z159" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA159" t="s" s="2">
-        <v>475</v>
+        <v>73</v>
       </c>
       <c r="AB159" t="s" s="2">
         <v>73</v>
@@ -21497,10 +21742,10 @@
         <v>73</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>79</v>
@@ -21514,13 +21759,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21528,10 +21773,10 @@
       </c>
       <c r="F160" s="2"/>
       <c r="G160" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>73</v>
@@ -21543,13 +21788,13 @@
         <v>73</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>477</v>
+        <v>76</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -21600,13 +21845,13 @@
         <v>73</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>73</v>
@@ -21617,13 +21862,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21631,7 +21876,7 @@
       </c>
       <c r="F161" s="2"/>
       <c r="G161" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>79</v>
@@ -21646,13 +21891,13 @@
         <v>73</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>274</v>
+        <v>89</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -21703,10 +21948,10 @@
         <v>73</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI161" t="s" s="2">
         <v>79</v>
@@ -21720,13 +21965,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -21749,13 +21994,13 @@
         <v>73</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -21806,7 +22051,7 @@
         <v>73</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>481</v>
+        <v>77</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>74</v>
@@ -21818,6 +22063,1238 @@
         <v>73</v>
       </c>
       <c r="AK162" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R163" s="2"/>
+      <c r="S163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG163" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AH163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK163" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F164" s="2"/>
+      <c r="G164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R164" s="2"/>
+      <c r="S164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U164" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="V164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z164" s="2"/>
+      <c r="AA164" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG164" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AH164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C165" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F165" s="2"/>
+      <c r="G165" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L165" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R165" s="2"/>
+      <c r="S165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG165" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AH165" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI165" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK165" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C166" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F166" s="2"/>
+      <c r="G166" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N166" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R166" s="2"/>
+      <c r="S166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AH166" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK166" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C167" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F167" s="2"/>
+      <c r="G167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N167" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R167" s="2"/>
+      <c r="S167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG167" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AH167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C168" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F168" s="2"/>
+      <c r="G168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R168" s="2"/>
+      <c r="S168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C169" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F169" s="2"/>
+      <c r="G169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R169" s="2"/>
+      <c r="S169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C170" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R170" s="2"/>
+      <c r="S170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK170" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R171" s="2"/>
+      <c r="S171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Z171" s="2"/>
+      <c r="AA171" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C172" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R172" s="2"/>
+      <c r="S172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG172" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ172" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK172" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F173" s="2"/>
+      <c r="G173" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R173" s="2"/>
+      <c r="S173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK173" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F174" s="2"/>
+      <c r="G174" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R174" s="2"/>
+      <c r="S174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK174" t="s" s="2">
         <v>73</v>
       </c>
     </row>
